--- a/Technology/Software/Airbnb.xlsx
+++ b/Technology/Software/Airbnb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE1E6B4-DF84-DB4A-963E-36FBB576B122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A924CAA9-4937-BE48-8941-AF8BCB9337AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="164">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -528,9 +528,6 @@
     <t>Cash + Securities</t>
   </si>
   <si>
-    <t>Shares</t>
-  </si>
-  <si>
     <t>Proj. Free Cash Flow</t>
   </si>
   <si>
@@ -556,18 +553,28 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Shares (No dilution)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Forward P/E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -730,7 +737,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -894,12 +901,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -993,16 +1009,7 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1028,6 +1035,15 @@
     <xf numFmtId="164" fontId="13" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1058,6 +1074,20 @@
     <xf numFmtId="9" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2106,13 +2136,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>33866</xdr:colOff>
       <xdr:row>109</xdr:row>
       <xdr:rowOff>12699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
       <xdr:row>129</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -2263,13 +2293,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>170.93</v>
+    <v>144.63</v>
     <v>81.91</v>
-    <v>1.573</v>
-    <v>-2.9</v>
-    <v>-2.4493000000000001E-2</v>
-    <v>0.18</v>
-    <v>1.5579999999999999E-3</v>
+    <v>1.579</v>
+    <v>-1.29</v>
+    <v>-1.2202999999999999E-2</v>
     <v>USD</v>
     <v>Airbnb, Inc. primarily operates a global platform for stays and experiences. The Company’s marketplace model connects hosts and guests online or through mobile devices to book spaces and experiences around the world. It partners with hosts throughout the process of setting up their listing and provide them with a range of tools to manage their listings, including scheduling, merchandising, integrated payments, community support, host protections, pricing guidance, and feedback from reviews. Its Website and mobile applications provide its guests a way to explore a variety of homes and experiences and an easy way to book them. Its hosts generally fall into two categories: individual and professional. Individual hosts list their spaces, including private rooms, primary homes, or vacation homes, on Airbnb. Professional hosts are often those who run property management or hospitality businesses and generally use application programming interfaces to list their properties on its platform.</v>
     <v>6811</v>
@@ -2277,25 +2305,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>888 Brannan St., SAN FRANCISCO, CA, 94103 US</v>
-    <v>115.75</v>
+    <v>106.52</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.994607464847</v>
+    <v>45071.999886897655</v>
     <v>0</v>
-    <v>112.02</v>
-    <v>72918440000</v>
+    <v>103.74</v>
+    <v>66771870216</v>
     <v>AIRBNB, INC.</v>
     <v>AIRBNB, INC.</v>
-    <v>114.955</v>
-    <v>42.423000000000002</v>
-    <v>118.4</v>
-    <v>115.5</v>
-    <v>115.68</v>
-    <v>631328500</v>
+    <v>106.1</v>
+    <v>34.800600000000003</v>
+    <v>105.71</v>
+    <v>104.42</v>
+    <v>639454800</v>
     <v>ABNB</v>
     <v>AIRBNB, INC. (XNAS:ABNB)</v>
-    <v>7357782</v>
-    <v>4991135</v>
+    <v>231</v>
+    <v>7735909</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2327,8 +2354,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2349,7 +2374,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2366,7 +2390,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2377,16 +2401,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2452,19 +2473,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2509,9 +2524,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2519,9 +2531,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2880,24 +2889,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL119"/>
+  <dimension ref="A1:AM119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I102" sqref="I102"/>
+      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="7" width="15" customWidth="1"/>
-    <col min="8" max="12" width="19" customWidth="1"/>
-    <col min="13" max="16" width="21" customWidth="1"/>
+    <col min="2" max="8" width="15" customWidth="1"/>
+    <col min="9" max="13" width="21.1640625" customWidth="1"/>
+    <col min="14" max="17" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -2934,8 +2943,11 @@
       <c r="L1" s="14">
         <v>2027</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+      <c r="M1" s="14">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2966,16 +2978,19 @@
       <c r="J2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="9"/>
+      <c r="K2" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
-    </row>
-    <row r="3" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="24">
         <v>13900</v>
@@ -2995,7 +3010,7 @@
       <c r="G3" s="24">
         <v>63200</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -3004,7 +3019,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="24"/>
+      <c r="Q3" s="1"/>
       <c r="R3" s="24"/>
       <c r="S3" s="24"/>
       <c r="T3" s="24"/>
@@ -3017,13 +3032,14 @@
       <c r="AA3" s="24"/>
       <c r="AB3" s="24"/>
       <c r="AC3" s="24"/>
-      <c r="AD3" s="1"/>
+      <c r="AD3" s="24"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
-    </row>
-    <row r="4" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI3" s="1"/>
+    </row>
+    <row r="4" spans="1:39" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -3045,35 +3061,38 @@
       <c r="G4" s="1">
         <v>8399000000</v>
       </c>
-      <c r="H4" s="15">
-        <v>9600000000</v>
+      <c r="H4" s="1">
+        <v>9501000000</v>
       </c>
       <c r="I4" s="15">
-        <v>11050000000</v>
+        <v>10733000000</v>
       </c>
       <c r="J4" s="15">
-        <v>12900000000</v>
+        <v>12328000000</v>
       </c>
       <c r="K4" s="15">
-        <v>14592000000</v>
+        <v>14226000000</v>
       </c>
       <c r="L4" s="15">
-        <v>16651000000</v>
-      </c>
-      <c r="M4" s="46" t="s">
+        <v>16119000000</v>
+      </c>
+      <c r="M4" s="15">
+        <v>18012000000</v>
+      </c>
+      <c r="N4" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="O4" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="O4" s="46" t="s">
+      <c r="P4" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="Q4" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>94</v>
       </c>
@@ -3091,51 +3110,54 @@
         <v>-0.29697586321929048</v>
       </c>
       <c r="F5" s="18">
-        <f t="shared" ref="F5:J5" si="0">(F4/E4)-1</f>
+        <f t="shared" ref="F5:K5" si="0">(F4/E4)-1</f>
         <v>0.77365513399299446</v>
       </c>
       <c r="G5" s="18">
         <f t="shared" si="0"/>
         <v>0.40175841488978192</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="18">
         <f t="shared" si="0"/>
-        <v>0.14299321347779492</v>
+        <v>0.13120609596380528</v>
       </c>
       <c r="I5" s="16">
-        <f t="shared" si="0"/>
-        <v>0.15104166666666674</v>
+        <f>(I4/H4)-1</f>
+        <v>0.12967056099357954</v>
       </c>
       <c r="J5" s="16">
         <f t="shared" si="0"/>
-        <v>0.16742081447963808</v>
+        <v>0.14860709959936647</v>
       </c>
       <c r="K5" s="16">
-        <f t="shared" ref="K5" si="1">(K4/J4)-1</f>
-        <v>0.13116279069767445</v>
+        <f t="shared" si="0"/>
+        <v>0.15395846852693063</v>
       </c>
       <c r="L5" s="16">
-        <f t="shared" ref="L5" si="2">(L4/K4)-1</f>
-        <v>0.1411047149122806</v>
-      </c>
-      <c r="M5" s="45">
-        <f>(G5+F5+E5)/3</f>
-        <v>0.29281256188782862</v>
+        <f t="shared" ref="L5" si="1">(L4/K4)-1</f>
+        <v>0.13306621678616626</v>
+      </c>
+      <c r="M5" s="16">
+        <f t="shared" ref="M5" si="2">(M4/L4)-1</f>
+        <v>0.11743904708728836</v>
       </c>
       <c r="N5" s="45">
-        <f>(G21+F21+E21)/3</f>
-        <v>6.5927165252214168</v>
+        <f>(G5+F5+H5)/3</f>
+        <v>0.4355398816155272</v>
       </c>
       <c r="O5" s="45">
+        <f>(G21+F21+H21)/3</f>
+        <v>2.0267524302699047</v>
+      </c>
+      <c r="P5" s="45">
         <f>(G30+F30+E30)/3</f>
         <v>-0.50056919516481246</v>
       </c>
-      <c r="P5" s="19">
-        <f>(G106+F106+E106)/3</f>
-        <v>-3.8430459680599771</v>
-      </c>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="16"/>
+      <c r="Q5" s="19">
+        <f>(G106+F106+H106)/3</f>
+        <v>-1.2194359127004761</v>
+      </c>
+      <c r="R5" s="18"/>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
@@ -3150,12 +3172,13 @@
       <c r="AD5" s="16"/>
       <c r="AE5" s="16"/>
       <c r="AF5" s="16"/>
-      <c r="AI5" s="20"/>
+      <c r="AG5" s="16"/>
       <c r="AJ5" s="20"/>
       <c r="AK5" s="20"/>
       <c r="AL5" s="20"/>
-    </row>
-    <row r="6" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="AM5" s="20"/>
+    </row>
+    <row r="6" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -3177,8 +3200,9 @@
       <c r="G6" s="1">
         <v>1499000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="76"/>
+    </row>
+    <row r="7" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
@@ -3200,20 +3224,21 @@
       <c r="G7" s="10">
         <v>6900000000</v>
       </c>
-      <c r="M7" s="46" t="s">
+      <c r="H7" s="74"/>
+      <c r="N7" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="N7" s="46" t="s">
+      <c r="O7" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="O7" s="46" t="s">
+      <c r="P7" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="Q7" s="21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -3235,24 +3260,25 @@
       <c r="G8" s="2">
         <v>0.82150000000000001</v>
       </c>
-      <c r="M8" s="45">
+      <c r="H8" s="2"/>
+      <c r="N8" s="45">
         <f>G8</f>
         <v>0.82150000000000001</v>
       </c>
-      <c r="N8" s="45">
-        <f>G22</f>
-        <v>0.24929999999999999</v>
-      </c>
       <c r="O8" s="45">
+        <f>H22</f>
+        <v>0.34122723923797493</v>
+      </c>
+      <c r="P8" s="45">
         <f>G31</f>
         <v>0.22539999999999999</v>
       </c>
-      <c r="P8" s="19">
-        <f>G107/G4</f>
-        <v>0.40540540540540543</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q8" s="19">
+        <f>H107/H4</f>
+        <v>0.3630144195347858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -3274,8 +3300,9 @@
       <c r="G9" s="1">
         <v>1502000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>95</v>
       </c>
@@ -3308,21 +3335,22 @@
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
-      <c r="M10" s="46" t="s">
+      <c r="M10" s="18"/>
+      <c r="N10" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="O10" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="P10" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="Q10" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="Q10" s="18"/>
-    </row>
-    <row r="11" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="R10" s="18"/>
+    </row>
+    <row r="11" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -3344,24 +3372,25 @@
       <c r="G11" s="1">
         <v>950000000</v>
       </c>
-      <c r="M11" s="45">
+      <c r="H11" s="1"/>
+      <c r="N11" s="45">
         <f>(G10+F10+E10)/3</f>
         <v>0.41051960633031248</v>
       </c>
-      <c r="N11" s="45">
+      <c r="O11" s="45">
         <f>(G14+F14+E14)/3</f>
         <v>0.43828694165068605</v>
       </c>
-      <c r="O11" s="45">
+      <c r="P11" s="45">
         <f>(G81+F81+E81)/3</f>
         <v>0.38312075768395881</v>
       </c>
-      <c r="P11" s="19">
+      <c r="Q11" s="19">
         <f>(G90+F90+E90)/3</f>
         <v>6.0883618081982701E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -3383,8 +3412,9 @@
       <c r="G12" s="1">
         <v>1516000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:39" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -3406,20 +3436,21 @@
       <c r="G13" s="1">
         <v>2466000000</v>
       </c>
-      <c r="M13" s="46" t="s">
+      <c r="H13" s="1"/>
+      <c r="N13" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="N13" s="46" t="s">
+      <c r="O13" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="O13" s="46" t="s">
+      <c r="P13" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="P13" s="21" t="s">
+      <c r="Q13" s="62" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>100</v>
       </c>
@@ -3452,25 +3483,26 @@
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
-      <c r="M14" s="45">
+      <c r="M14" s="18"/>
+      <c r="N14" s="45">
         <f>G29/G73</f>
         <v>0.34046762589928059</v>
       </c>
-      <c r="N14" s="19">
+      <c r="O14" s="19">
         <f>G29/G55</f>
         <v>0.11803217358772915</v>
       </c>
-      <c r="O14" s="45">
+      <c r="P14" s="45">
         <f>(G29-G99)/G74</f>
         <v>0.11803217358772915</v>
       </c>
-      <c r="P14" s="23">
+      <c r="Q14" s="23">
         <f>(G62+G57)/G73</f>
         <v>0.42104316546762588</v>
       </c>
-      <c r="Q14" s="18"/>
-    </row>
-    <row r="15" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="R14" s="18"/>
+    </row>
+    <row r="15" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -3492,8 +3524,9 @@
       <c r="G15" s="1">
         <v>1041000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -3515,20 +3548,21 @@
       <c r="G16" s="1">
         <v>5009000000</v>
       </c>
-      <c r="M16" s="46" t="s">
+      <c r="H16" s="1"/>
+      <c r="N16" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="O16" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="P16" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="O16" s="21" t="s">
+      <c r="Q16" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="P16" s="49" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -3550,24 +3584,25 @@
       <c r="G17" s="1">
         <v>6508000000</v>
       </c>
-      <c r="M17" s="22">
+      <c r="H17" s="1"/>
+      <c r="N17" s="22">
         <f>(SUM(C36:G36)/5)</f>
         <v>0.14224609231543348</v>
       </c>
-      <c r="N17" s="47">
-        <f>O101/G4</f>
-        <v>8.6818002143112274</v>
-      </c>
-      <c r="O17" s="47">
-        <f>O101/G26</f>
-        <v>36.660854700854699</v>
-      </c>
-      <c r="P17" s="48">
-        <f>O101/G107</f>
-        <v>21.415107195301029</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="O17" s="77">
+        <f>P101/H4</f>
+        <v>7.0278781408272817</v>
+      </c>
+      <c r="P17" s="77">
+        <f>P101/H29</f>
+        <v>30.295766885662431</v>
+      </c>
+      <c r="Q17" s="78">
+        <f>P101/H107</f>
+        <v>19.359776809510002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
@@ -3589,8 +3624,9 @@
       <c r="G18" s="1">
         <v>24000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
@@ -3612,11 +3648,18 @@
       <c r="G19" s="1">
         <v>81000000</v>
       </c>
-      <c r="M19" s="50" t="s">
+      <c r="H19" s="1"/>
+      <c r="N19" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" s="21" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="P19" s="62" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
@@ -3638,12 +3681,38 @@
       <c r="G20" s="10">
         <v>2094000000</v>
       </c>
-      <c r="M20" s="51">
+      <c r="H20" s="10">
+        <v>3242000000</v>
+      </c>
+      <c r="I20" s="10">
+        <v>3890000001</v>
+      </c>
+      <c r="J20" s="10">
+        <v>4732000002</v>
+      </c>
+      <c r="K20" s="10">
+        <v>5324000003</v>
+      </c>
+      <c r="L20" s="10">
+        <v>6543000004</v>
+      </c>
+      <c r="M20" s="10">
+        <v>7942000005</v>
+      </c>
+      <c r="N20" s="48">
         <f>G41-G57-G62</f>
         <v>7281000000</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="77">
+        <f>P101/I4</f>
+        <v>6.2211749013323399</v>
+      </c>
+      <c r="P20" s="79">
+        <f>P101/I29</f>
+        <v>26.277792292798111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>101</v>
       </c>
@@ -3661,23 +3730,42 @@
         <v>14.24612533165492</v>
       </c>
       <c r="F21" s="18">
-        <f t="shared" ref="F21:G21" si="5">(F20/E20)-1</f>
+        <f t="shared" ref="F21:H21" si="5">(F20/E20)-1</f>
         <v>-1.0628849181205799</v>
       </c>
       <c r="G21" s="18">
         <f t="shared" si="5"/>
         <v>6.5949091621299116</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="O21" s="18"/>
+      <c r="H21" s="18">
+        <f t="shared" si="5"/>
+        <v>0.54823304680038198</v>
+      </c>
+      <c r="I21" s="18">
+        <f t="shared" ref="I21" si="6">(I20/H20)-1</f>
+        <v>0.19987661967921033</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" ref="J21" si="7">(J20/I20)-1</f>
+        <v>0.21645244236080918</v>
+      </c>
+      <c r="K21" s="18">
+        <f t="shared" ref="K21" si="8">(K20/J20)-1</f>
+        <v>0.12510566372565268</v>
+      </c>
+      <c r="L21" s="18">
+        <f t="shared" ref="L21" si="9">(L20/K20)-1</f>
+        <v>0.22896318563356699</v>
+      </c>
+      <c r="M21" s="18">
+        <f t="shared" ref="M21" si="10">(M20/L20)-1</f>
+        <v>0.2138162922428144</v>
+      </c>
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
-    </row>
-    <row r="22" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R21" s="18"/>
+    </row>
+    <row r="22" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>15</v>
       </c>
@@ -3699,8 +3787,32 @@
       <c r="G22" s="2">
         <v>0.24929999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="H22" s="75">
+        <f>H20/H4</f>
+        <v>0.34122723923797493</v>
+      </c>
+      <c r="I22" s="75">
+        <f t="shared" ref="I22:M22" si="11">I20/I4</f>
+        <v>0.3624336160439765</v>
+      </c>
+      <c r="J22" s="75">
+        <f t="shared" si="11"/>
+        <v>0.38384166142115511</v>
+      </c>
+      <c r="K22" s="75">
+        <f t="shared" si="11"/>
+        <v>0.37424434155771125</v>
+      </c>
+      <c r="L22" s="75">
+        <f t="shared" si="11"/>
+        <v>0.40591848154352006</v>
+      </c>
+      <c r="M22" s="75">
+        <f t="shared" si="11"/>
+        <v>0.44092827031978682</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
@@ -3722,8 +3834,9 @@
       <c r="G23" s="10">
         <v>1891000000</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="H23" s="74"/>
+    </row>
+    <row r="24" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>17</v>
       </c>
@@ -3745,8 +3858,9 @@
       <c r="G24" s="2">
         <v>0.22509999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -3768,8 +3882,9 @@
       <c r="G25" s="1">
         <v>98000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
@@ -3791,8 +3906,9 @@
       <c r="G26" s="10">
         <v>1989000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="H26" s="74"/>
+    </row>
+    <row r="27" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -3814,8 +3930,9 @@
       <c r="G27" s="2">
         <v>0.23680000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>21</v>
       </c>
@@ -3837,8 +3954,9 @@
       <c r="G28" s="1">
         <v>96000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>22</v>
       </c>
@@ -3860,8 +3978,26 @@
       <c r="G29" s="11">
         <v>1893000000</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="11">
+        <v>2204000000</v>
+      </c>
+      <c r="I29" s="11">
+        <v>2541000000</v>
+      </c>
+      <c r="J29" s="11">
+        <v>3167000000</v>
+      </c>
+      <c r="K29" s="11">
+        <v>3758000000</v>
+      </c>
+      <c r="L29" s="11">
+        <v>4588000000</v>
+      </c>
+      <c r="M29" s="11">
+        <v>5726000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>103</v>
       </c>
@@ -3879,23 +4015,42 @@
         <v>5.7988296687571088</v>
       </c>
       <c r="F30" s="18">
-        <f t="shared" ref="F30:G30" si="6">(F29/E29)-1</f>
+        <f t="shared" ref="F30:G30" si="12">(F29/E29)-1</f>
         <v>-0.92321574553363828</v>
       </c>
       <c r="G30" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-6.377321508717908</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="O30" s="18"/>
+      <c r="H30" s="18">
+        <f t="shared" ref="H30" si="13">(H29/G29)-1</f>
+        <v>0.1642894875858425</v>
+      </c>
+      <c r="I30" s="18">
+        <f t="shared" ref="I30" si="14">(I29/H29)-1</f>
+        <v>0.15290381125226871</v>
+      </c>
+      <c r="J30" s="18">
+        <f t="shared" ref="J30" si="15">(J29/I29)-1</f>
+        <v>0.24635970090515547</v>
+      </c>
+      <c r="K30" s="18">
+        <f t="shared" ref="K30" si="16">(K29/J29)-1</f>
+        <v>0.18661193558572786</v>
+      </c>
+      <c r="L30" s="18">
+        <f t="shared" ref="L30" si="17">(L29/K29)-1</f>
+        <v>0.22086216072378928</v>
+      </c>
+      <c r="M30" s="18">
+        <f t="shared" ref="M30" si="18">(M29/L29)-1</f>
+        <v>0.24803836094158682</v>
+      </c>
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
-    </row>
-    <row r="31" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R30" s="18"/>
+    </row>
+    <row r="31" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>23</v>
       </c>
@@ -3917,8 +4072,32 @@
       <c r="G31" s="2">
         <v>0.22539999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="H31" s="2">
+        <f>H29/H4</f>
+        <v>0.23197558151773498</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" ref="I31:M31" si="19">I29/I4</f>
+        <v>0.23674648281002517</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="19"/>
+        <v>0.25689487345879297</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="19"/>
+        <v>0.26416420638267962</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="19"/>
+        <v>0.28463304175196974</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="19"/>
+        <v>0.31789917832556075</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>24</v>
       </c>
@@ -3940,8 +4119,26 @@
       <c r="G32" s="12">
         <v>3.07</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H32" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="I32" s="12">
+        <v>4.03</v>
+      </c>
+      <c r="J32" s="12">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="K32" s="12">
+        <v>5.96</v>
+      </c>
+      <c r="L32" s="12">
+        <v>7.28</v>
+      </c>
+      <c r="M32" s="12">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>25</v>
       </c>
@@ -3963,8 +4160,9 @@
       <c r="G33" s="12">
         <v>3.07</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>26</v>
       </c>
@@ -3986,8 +4184,9 @@
       <c r="G34" s="1">
         <v>615891000</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>27</v>
       </c>
@@ -4009,8 +4208,9 @@
       <c r="G35" s="1">
         <v>615891000</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>120</v>
       </c>
@@ -4020,23 +4220,24 @@
         <v>1.7703355702125129E-2</v>
       </c>
       <c r="D36" s="25">
-        <f t="shared" ref="D36:G36" si="7">(D35-C35)/C35</f>
+        <f t="shared" ref="D36:G36" si="20">(D35-C35)/C35</f>
         <v>-1.7395398770117431E-2</v>
       </c>
       <c r="E36" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>-0.45493943941929316</v>
       </c>
       <c r="F36" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.1658619440644529</v>
       </c>
       <c r="G36" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>28</v>
       </c>
@@ -4058,8 +4259,9 @@
       <c r="G37" s="13" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>29</v>
       </c>
@@ -4081,8 +4283,11 @@
       <c r="G38" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H38" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>30</v>
       </c>
@@ -4104,8 +4309,9 @@
       <c r="G39" s="1">
         <v>7378000000</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>31</v>
       </c>
@@ -4127,8 +4333,9 @@
       <c r="G40" s="1">
         <v>2244000000</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>32</v>
       </c>
@@ -4150,8 +4357,9 @@
       <c r="G41" s="1">
         <v>9622000000</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>33</v>
       </c>
@@ -4173,8 +4381,9 @@
       <c r="G42" s="1">
         <v>4783000000</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>34</v>
       </c>
@@ -4196,8 +4405,9 @@
       <c r="G43" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>35</v>
       </c>
@@ -4219,8 +4429,9 @@
       <c r="G44" s="1">
         <v>456000000</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>36</v>
       </c>
@@ -4242,8 +4453,9 @@
       <c r="G45" s="10">
         <v>14861000000</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>37</v>
       </c>
@@ -4265,8 +4477,9 @@
       <c r="G46" s="1">
         <v>259000000</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>38</v>
       </c>
@@ -4288,8 +4501,9 @@
       <c r="G47" s="1">
         <v>650000000</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>39</v>
       </c>
@@ -4311,8 +4525,9 @@
       <c r="G48" s="1">
         <v>34000000</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>40</v>
       </c>
@@ -4334,8 +4549,9 @@
       <c r="G49" s="1">
         <v>684000000</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>41</v>
       </c>
@@ -4357,8 +4573,9 @@
       <c r="G50" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>42</v>
       </c>
@@ -4380,8 +4597,9 @@
       <c r="G51" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>43</v>
       </c>
@@ -4403,8 +4621,9 @@
       <c r="G52" s="1">
         <v>234000000</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>44</v>
       </c>
@@ -4426,8 +4645,9 @@
       <c r="G53" s="1">
         <v>1177000000</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>45</v>
       </c>
@@ -4449,8 +4669,9 @@
       <c r="G54" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>46</v>
       </c>
@@ -4472,8 +4693,9 @@
       <c r="G55" s="11">
         <v>16038000000</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H55" s="11"/>
+    </row>
+    <row r="56" spans="1:8" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>47</v>
       </c>
@@ -4495,8 +4717,9 @@
       <c r="G56" s="1">
         <v>137000000</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>48</v>
       </c>
@@ -4518,8 +4741,9 @@
       <c r="G57" s="1">
         <v>59000000</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>49</v>
       </c>
@@ -4541,8 +4765,9 @@
       <c r="G58" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>50</v>
       </c>
@@ -4564,8 +4789,9 @@
       <c r="G59" s="1">
         <v>1182000000</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>51</v>
       </c>
@@ -4587,8 +4813,9 @@
       <c r="G60" s="1">
         <v>6600000000</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>52</v>
       </c>
@@ -4610,8 +4837,9 @@
       <c r="G61" s="10">
         <v>7978000000</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
@@ -4633,8 +4861,9 @@
       <c r="G62" s="1">
         <v>2282000000</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>50</v>
       </c>
@@ -4656,8 +4885,9 @@
       <c r="G63" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>54</v>
       </c>
@@ -4679,8 +4909,9 @@
       <c r="G64" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>55</v>
       </c>
@@ -4702,8 +4933,9 @@
       <c r="G65" s="1">
         <v>218000000</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>56</v>
       </c>
@@ -4725,8 +4957,9 @@
       <c r="G66" s="1">
         <v>2500000000</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>57</v>
       </c>
@@ -4748,8 +4981,9 @@
       <c r="G67" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>58</v>
       </c>
@@ -4771,8 +5005,9 @@
       <c r="G68" s="10">
         <v>10478000000</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="H68" s="10"/>
+    </row>
+    <row r="69" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>59</v>
       </c>
@@ -4794,8 +5029,9 @@
       <c r="G69" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>60</v>
       </c>
@@ -4817,8 +5053,9 @@
       <c r="G70" s="1">
         <v>-5965000000</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>61</v>
       </c>
@@ -4840,8 +5077,9 @@
       <c r="G71" s="1">
         <v>-32000000</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>62</v>
       </c>
@@ -4863,8 +5101,9 @@
       <c r="G72" s="1">
         <v>11557000000</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>63</v>
       </c>
@@ -4886,9 +5125,10 @@
       <c r="G73" s="10">
         <v>5560000000</v>
       </c>
-      <c r="M73" s="40"/>
-    </row>
-    <row r="74" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H73" s="10"/>
+      <c r="N73" s="40"/>
+    </row>
+    <row r="74" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>64</v>
       </c>
@@ -4910,8 +5150,9 @@
       <c r="G74" s="11">
         <v>16038000000</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="H74" s="11"/>
+    </row>
+    <row r="75" spans="1:14" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>28</v>
       </c>
@@ -4933,8 +5174,9 @@
       <c r="G75" s="13" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="H75" s="13"/>
+    </row>
+    <row r="76" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>65</v>
       </c>
@@ -4956,8 +5198,11 @@
       <c r="G76" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="H76" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>66</v>
       </c>
@@ -4979,8 +5224,9 @@
       <c r="G77" s="1">
         <v>1893000000</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>13</v>
       </c>
@@ -5002,8 +5248,9 @@
       <c r="G78" s="1">
         <v>81000000</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>67</v>
       </c>
@@ -5025,8 +5272,9 @@
       <c r="G79" s="1">
         <v>-1000000</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>68</v>
       </c>
@@ -5048,33 +5296,34 @@
       <c r="G80" s="1">
         <v>930000000</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
         <v>105</v>
       </c>
       <c r="B81" s="18">
-        <f t="shared" ref="B81:G81" si="8">B80/B4</f>
+        <f t="shared" ref="B81:G81" si="21">B80/B4</f>
         <v>1.4973137199562326E-2</v>
       </c>
       <c r="C81" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.4757179999370205E-2</v>
       </c>
       <c r="D81" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2.030013491524563E-2</v>
       </c>
       <c r="E81" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.88862379036877337</v>
       </c>
       <c r="F81" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.15001101512744169</v>
       </c>
       <c r="G81" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.11072746755566139</v>
       </c>
       <c r="H81" s="18"/>
@@ -5087,8 +5336,9 @@
       <c r="O81" s="18"/>
       <c r="P81" s="18"/>
       <c r="Q81" s="18"/>
-    </row>
-    <row r="82" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R81" s="18"/>
+    </row>
+    <row r="82" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>69</v>
       </c>
@@ -5110,8 +5360,9 @@
       <c r="G82" s="1">
         <v>319000000</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>70</v>
       </c>
@@ -5133,12 +5384,13 @@
       <c r="G83" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N83" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="O83" s="67"/>
-    </row>
-    <row r="84" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="H83" s="1"/>
+      <c r="O83" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="P83" s="67"/>
+    </row>
+    <row r="84" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>34</v>
       </c>
@@ -5160,12 +5412,13 @@
       <c r="G84" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N84" s="68" t="s">
+      <c r="H84" s="1"/>
+      <c r="O84" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="O84" s="69"/>
-    </row>
-    <row r="85" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="P84" s="69"/>
+    </row>
+    <row r="85" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>47</v>
       </c>
@@ -5187,15 +5440,16 @@
       <c r="G85" s="1">
         <v>20000000</v>
       </c>
-      <c r="N85" s="53" t="s">
+      <c r="H85" s="1"/>
+      <c r="O85" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="O85" s="54">
+      <c r="P85" s="51">
         <f>G18</f>
         <v>24000000</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>71</v>
       </c>
@@ -5217,15 +5471,16 @@
       <c r="G86" s="1">
         <v>280000000</v>
       </c>
-      <c r="N86" s="53" t="s">
+      <c r="H86" s="1"/>
+      <c r="O86" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="O86" s="54">
+      <c r="P86" s="51">
         <f>G57</f>
         <v>59000000</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>72</v>
       </c>
@@ -5247,15 +5502,16 @@
       <c r="G87" s="1">
         <v>208000000</v>
       </c>
-      <c r="N87" s="53" t="s">
+      <c r="H87" s="1"/>
+      <c r="O87" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="O87" s="54">
+      <c r="P87" s="51">
         <f>G62</f>
         <v>2282000000</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>73</v>
       </c>
@@ -5277,15 +5533,16 @@
       <c r="G88" s="10">
         <v>3430000000</v>
       </c>
-      <c r="N88" s="55" t="s">
+      <c r="H88" s="10"/>
+      <c r="O88" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="O88" s="56">
-        <f>O85/(O86+O87)</f>
+      <c r="P88" s="53">
+        <f>P85/(P86+P87)</f>
         <v>1.0252029047415635E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>74</v>
       </c>
@@ -5307,40 +5564,41 @@
       <c r="G89" s="1">
         <v>-25000000</v>
       </c>
-      <c r="N89" s="53" t="s">
+      <c r="H89" s="1"/>
+      <c r="O89" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="O89" s="54">
+      <c r="P89" s="51">
         <f>G28</f>
         <v>96000000</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
         <v>106</v>
       </c>
       <c r="B90" s="18">
-        <f t="shared" ref="B90:G90" si="9">(-1*B89)/B4</f>
+        <f t="shared" ref="B90:G90" si="22">(-1*B89)/B4</f>
         <v>3.9115891230934202E-2</v>
       </c>
       <c r="C90" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>2.4814997871020827E-2</v>
       </c>
       <c r="D90" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>2.6107338261426746E-2</v>
       </c>
       <c r="E90" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>1.1062403369369299E-2</v>
       </c>
       <c r="F90" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>4.2261372284604186E-3</v>
       </c>
       <c r="G90" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>2.9765448267650911E-3</v>
       </c>
       <c r="H90" s="18"/>
@@ -5349,17 +5607,18 @@
       <c r="K90" s="18"/>
       <c r="L90" s="18"/>
       <c r="M90" s="18"/>
-      <c r="N90" s="53" t="s">
+      <c r="N90" s="18"/>
+      <c r="O90" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="O90" s="54">
+      <c r="P90" s="51">
         <f>G26</f>
         <v>1989000000</v>
       </c>
-      <c r="P90" s="18"/>
       <c r="Q90" s="18"/>
-    </row>
-    <row r="91" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="R90" s="18"/>
+    </row>
+    <row r="91" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>75</v>
       </c>
@@ -5381,15 +5640,16 @@
       <c r="G91" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N91" s="55" t="s">
+      <c r="H91" s="1"/>
+      <c r="O91" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="O91" s="56">
-        <f>O89/O90</f>
+      <c r="P91" s="53">
+        <f>P89/P90</f>
         <v>4.8265460030165915E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>76</v>
       </c>
@@ -5411,15 +5671,16 @@
       <c r="G92" s="1">
         <v>-4072000000</v>
       </c>
-      <c r="N92" s="57" t="s">
+      <c r="H92" s="1"/>
+      <c r="O92" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="O92" s="58">
-        <f>O88*(1-O91)</f>
+      <c r="P92" s="55">
+        <f>P88*(1-P91)</f>
         <v>9.7572101491994953E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>77</v>
       </c>
@@ -5441,12 +5702,13 @@
       <c r="G93" s="1">
         <v>4071000000</v>
       </c>
-      <c r="N93" s="70" t="s">
+      <c r="H93" s="1"/>
+      <c r="O93" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="O93" s="71"/>
-    </row>
-    <row r="94" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="P93" s="71"/>
+    </row>
+    <row r="94" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>78</v>
       </c>
@@ -5468,14 +5730,15 @@
       <c r="G94" s="1">
         <v>-2000000</v>
       </c>
-      <c r="N94" s="53" t="s">
+      <c r="H94" s="1"/>
+      <c r="O94" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="O94" s="59">
+      <c r="P94" s="56">
         <v>4.095E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>79</v>
       </c>
@@ -5497,15 +5760,16 @@
       <c r="G95" s="10">
         <v>-28000000</v>
       </c>
-      <c r="N95" s="53" t="s">
+      <c r="H95" s="10"/>
+      <c r="O95" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="O95" s="60" cm="1">
-        <f t="array" ref="O95">_FV(A1,"Beta")</f>
-        <v>1.573</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="P95" s="57" cm="1">
+        <f t="array" ref="P95">_FV(A1,"Beta")</f>
+        <v>1.579</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>80</v>
       </c>
@@ -5527,14 +5791,15 @@
       <c r="G96" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N96" s="53" t="s">
+      <c r="H96" s="1"/>
+      <c r="O96" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="O96" s="59">
+      <c r="P96" s="56">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>81</v>
       </c>
@@ -5556,15 +5821,16 @@
       <c r="G97" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N97" s="57" t="s">
+      <c r="H97" s="1"/>
+      <c r="O97" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="O97" s="58">
-        <f>(O94)+((O95)*(O96-O94))</f>
-        <v>0.10866765</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="P97" s="55">
+        <f>(P94)+((P95)*(P96-P94))</f>
+        <v>0.10892595000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>82</v>
       </c>
@@ -5586,12 +5852,13 @@
       <c r="G98" s="1">
         <v>-1500000000</v>
       </c>
-      <c r="N98" s="70" t="s">
+      <c r="H98" s="1"/>
+      <c r="O98" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="O98" s="71"/>
-    </row>
-    <row r="99" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="P98" s="71"/>
+    </row>
+    <row r="99" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>83</v>
       </c>
@@ -5613,15 +5880,16 @@
       <c r="G99" s="24">
         <v>0</v>
       </c>
-      <c r="N99" s="53" t="s">
+      <c r="H99" s="24"/>
+      <c r="O99" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="O99" s="54">
-        <f>O86+O87</f>
+      <c r="P99" s="51">
+        <f>P86+P87</f>
         <v>2341000000</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>84</v>
       </c>
@@ -5643,15 +5911,16 @@
       <c r="G100" s="1">
         <v>811000000</v>
       </c>
-      <c r="N100" s="55" t="s">
+      <c r="H100" s="1"/>
+      <c r="O100" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="O100" s="56">
-        <f>O99/O103</f>
-        <v>3.1105732383871047E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="P100" s="53">
+        <f>P99/P103</f>
+        <v>3.387212819672545E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>85</v>
       </c>
@@ -5673,15 +5942,16 @@
       <c r="G101" s="10">
         <v>-689000000</v>
       </c>
-      <c r="N101" s="53" t="s">
+      <c r="H101" s="10"/>
+      <c r="O101" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="O101" s="34" cm="1">
-        <f t="array" ref="O101">_FV(A1,"Market cap",TRUE)</f>
-        <v>72918440000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="P101" s="34" cm="1">
+        <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
+        <v>66771870216</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>86</v>
       </c>
@@ -5703,15 +5973,16 @@
       <c r="G102" s="1">
         <v>-337000000</v>
       </c>
-      <c r="N102" s="55" t="s">
+      <c r="H102" s="1"/>
+      <c r="O102" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="O102" s="56">
-        <f>O101/O103</f>
-        <v>0.96889426761612896</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="P102" s="53">
+        <f>P101/P103</f>
+        <v>0.96612787180327453</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>87</v>
       </c>
@@ -5733,15 +6004,16 @@
       <c r="G103" s="10">
         <v>2376000000</v>
       </c>
-      <c r="N103" s="57" t="s">
+      <c r="H103" s="10"/>
+      <c r="O103" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="O103" s="61">
-        <f>O99+O101</f>
-        <v>75259440000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="P103" s="58">
+        <f>P99+P101</f>
+        <v>69112870216</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>88</v>
       </c>
@@ -5763,12 +6035,13 @@
       <c r="G104" s="1">
         <v>9727000000</v>
       </c>
-      <c r="N104" s="68" t="s">
+      <c r="H104" s="1"/>
+      <c r="O104" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="O104" s="69"/>
-    </row>
-    <row r="105" spans="1:17" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P104" s="69"/>
+    </row>
+    <row r="105" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>89</v>
       </c>
@@ -5790,53 +6063,68 @@
       <c r="G105" s="11">
         <v>12103000000</v>
       </c>
-      <c r="N105" s="26" t="s">
+      <c r="H105" s="11"/>
+      <c r="O105" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="O105" s="27">
-        <f>(O100*O92)+(O102*O97)</f>
-        <v>0.10559096832803003</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="P105" s="27">
+        <f>(P100*P92)+(P102*P97)</f>
+        <v>0.10556689373066597</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
         <v>107</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="18">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:H106" si="23">(C107/B107)-1</f>
         <v>2.3434621675131275</v>
       </c>
       <c r="D106" s="18">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="23"/>
         <v>-0.80735067820879203</v>
       </c>
       <c r="E106" s="18">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="23"/>
         <v>-7.8579079928039066</v>
       </c>
       <c r="F106" s="18">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="23"/>
         <v>-4.2444345176082248</v>
       </c>
       <c r="G106" s="18">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="23"/>
         <v>0.57320460623220049</v>
       </c>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="18"/>
-      <c r="L106" s="18"/>
-      <c r="M106" s="18"/>
-      <c r="N106" s="72" t="s">
+      <c r="H106" s="18">
+        <f t="shared" si="23"/>
+        <v>1.2922173274596105E-2</v>
+      </c>
+      <c r="I106" s="80">
+        <v>3335000000</v>
+      </c>
+      <c r="J106" s="80">
+        <v>3943000000</v>
+      </c>
+      <c r="K106" s="80">
+        <v>4779000000</v>
+      </c>
+      <c r="L106" s="80">
+        <v>5327000000</v>
+      </c>
+      <c r="M106" s="80">
+        <v>6393000000</v>
+      </c>
+      <c r="N106" s="18"/>
+      <c r="O106" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="O106" s="73"/>
-      <c r="P106" s="18"/>
+      <c r="P106" s="73"/>
       <c r="Q106" s="18"/>
-    </row>
-    <row r="107" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R106" s="18"/>
+    </row>
+    <row r="107" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>90</v>
       </c>
@@ -5858,184 +6146,187 @@
       <c r="G107" s="1">
         <v>3405000000</v>
       </c>
-      <c r="H107" s="39">
-        <f>G107*(1+$O$107)</f>
-        <v>3904665499.3593912</v>
+      <c r="H107" s="1">
+        <v>3449000000</v>
       </c>
       <c r="I107" s="39">
-        <f>H107*(1+$O$107)</f>
-        <v>4477654232.5660858</v>
+        <f>H107*(1+$P$107)</f>
+        <v>3919955012.8867998</v>
       </c>
       <c r="J107" s="39">
-        <f>I107*(1+$O$107)</f>
-        <v>5134725991.1780748</v>
+        <f>I107*(1+$P$107)</f>
+        <v>4455218122.0807047</v>
       </c>
       <c r="K107" s="39">
-        <f>J107*(1+$O$107)</f>
-        <v>5888219508.492506</v>
+        <f>J107*(1+$P$107)</f>
+        <v>5063570487.4324074</v>
       </c>
       <c r="L107" s="39">
-        <f>K107*(1+$O$107)</f>
-        <v>6752284160.7828484</v>
-      </c>
-      <c r="M107" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="N107" s="28" t="s">
+        <f>K107*(1+$P$107)</f>
+        <v>5754992321.0543118</v>
+      </c>
+      <c r="M107" s="39">
+        <f>L107*(1+$P$107)</f>
+        <v>6540826615.8428211</v>
+      </c>
+      <c r="N107" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="O107" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="O107" s="42">
-        <f>(SUM(H5:L5)/5)</f>
-        <v>0.14674464004681095</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="H108" s="30"/>
+      <c r="P107" s="42">
+        <f>(SUM(I5:M5)/5)</f>
+        <v>0.13654827859866625</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
       <c r="K108" s="30"/>
-      <c r="L108" s="38">
-        <f>L107*(1+O108)/(O109-O108)</f>
-        <v>85879241909.979889</v>
-      </c>
-      <c r="M108" s="41" t="s">
+      <c r="L108" s="30"/>
+      <c r="M108" s="81">
+        <f>M106*(1+P108)/(P109-P108)</f>
+        <v>81333966056.901779</v>
+      </c>
+      <c r="N108" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="N108" s="35" t="s">
+      <c r="O108" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="O108" s="36">
+      <c r="P108" s="36">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="H109" s="38">
-        <f t="shared" ref="H109:J109" si="10">H108+H107</f>
-        <v>3904665499.3593912</v>
-      </c>
+    <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="I109" s="38">
-        <f t="shared" si="10"/>
-        <v>4477654232.5660858</v>
+        <f t="shared" ref="I109:K109" si="24">I108+I107</f>
+        <v>3919955012.8867998</v>
       </c>
       <c r="J109" s="38">
-        <f t="shared" si="10"/>
-        <v>5134725991.1780748</v>
+        <f t="shared" si="24"/>
+        <v>4455218122.0807047</v>
       </c>
       <c r="K109" s="38">
-        <f>K108+K107</f>
-        <v>5888219508.492506</v>
+        <f t="shared" si="24"/>
+        <v>5063570487.4324074</v>
       </c>
       <c r="L109" s="38">
         <f>L108+L107</f>
-        <v>92631526070.762741</v>
-      </c>
-      <c r="M109" s="41" t="s">
+        <v>5754992321.0543118</v>
+      </c>
+      <c r="M109" s="81">
+        <f>M108+M106</f>
+        <v>87726966056.901779</v>
+      </c>
+      <c r="N109" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="N109" s="29" t="s">
+      <c r="O109" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="P109" s="37">
+        <f>P105</f>
+        <v>0.10556689373066597</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="I110" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="O109" s="37">
-        <f>O105</f>
-        <v>0.10559096832803003</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="H110" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="I110" s="65"/>
-    </row>
-    <row r="111" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H111" s="31" t="s">
+      <c r="J110" s="65"/>
+    </row>
+    <row r="111" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I111" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="I111" s="34">
-        <f>NPV(O109,H109,I109,J109,K109,L109)</f>
-        <v>71012725603.417923</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H112" s="31" t="s">
+      <c r="J111" s="34">
+        <f>NPV(P109,I109,J109,K109,L109,M109)</f>
+        <v>67903856842.500877</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I112" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="I112" s="34">
+      <c r="J112" s="34">
         <f>G41</f>
         <v>9622000000</v>
       </c>
     </row>
-    <row r="113" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H113" s="31" t="s">
+    <row r="113" spans="9:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="I113" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="I113" s="34">
-        <f>O99</f>
+      <c r="J113" s="34">
+        <f>P99</f>
         <v>2341000000</v>
       </c>
     </row>
-    <row r="114" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H114" s="31" t="s">
+    <row r="114" spans="9:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="I114" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="I114" s="34">
-        <f>I111+I112-I113</f>
-        <v>78293725603.417923</v>
-      </c>
-    </row>
-    <row r="115" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H115" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="I115" s="52">
-        <f>G35*(1+(5*M17))</f>
-        <v>1053931440.2112232</v>
-      </c>
-    </row>
-    <row r="116" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H116" s="32" t="s">
+      <c r="J114" s="34">
+        <f>J111+J112-J113</f>
+        <v>75184856842.500885</v>
+      </c>
+    </row>
+    <row r="115" spans="9:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="I115" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="J115" s="49" cm="1">
+        <f t="array" ref="J115">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>639454800</v>
+      </c>
+    </row>
+    <row r="116" spans="9:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="I116" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="I116" s="63">
-        <f>I114/I115</f>
-        <v>74.287304293462128</v>
-      </c>
-    </row>
-    <row r="117" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H117" s="31" t="s">
+      <c r="J116" s="60">
+        <f>J114/J115</f>
+        <v>117.57649929674605</v>
+      </c>
+    </row>
+    <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="I117" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="I117" s="62" cm="1">
-        <f t="array" ref="I117">_FV(A1,"Price")</f>
-        <v>115.5</v>
-      </c>
-    </row>
-    <row r="118" spans="8:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H118" s="33" t="s">
+      <c r="J117" s="59" cm="1">
+        <f t="array" ref="J117">_FV(A1,"Price")</f>
+        <v>104.42</v>
+      </c>
+    </row>
+    <row r="118" spans="9:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I118" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="I118" s="43">
-        <f>I116/I117-1</f>
-        <v>-0.35681987624708111</v>
-      </c>
-    </row>
-    <row r="119" spans="8:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H119" s="33" t="s">
+      <c r="J118" s="43">
+        <f>J116/J117-1</f>
+        <v>0.12599597104717541</v>
+      </c>
+    </row>
+    <row r="119" spans="9:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I119" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="I119" s="44" t="str">
-        <f>IF(I116&gt;I117,"BUY","SELL")</f>
-        <v>SELL</v>
+      <c r="J119" s="44" t="str">
+        <f>IF(J116&gt;J117,"BUY","SELL")</f>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="N104:O104"/>
-    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="O98:P98"/>
+    <mergeCell ref="O104:P104"/>
+    <mergeCell ref="O106:P106"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/ABNB" display="ROIC.AI | ABNB" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6051,10 +6342,11 @@
     <hyperlink ref="F75" r:id="rId11" tooltip="https://www.sec.gov/Archives/edgar/data/1559720/000155972022000006/0001559720-22-000006-index.htm" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="G37" r:id="rId12" tooltip="https://www.sec.gov/Archives/edgar/data/1559720/000155972023000003/0001559720-23-000003-index.htm" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="G75" r:id="rId13" tooltip="https://www.sec.gov/Archives/edgar/data/1559720/000155972023000003/0001559720-23-000003-index.htm" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H1" r:id="rId14" display="https://finbox.com/NASDAQGS:ABNB/explorer/revenue_proj" xr:uid="{A9B4D051-77A7-D148-BC59-D386FC73E725}"/>
+    <hyperlink ref="I1" r:id="rId14" display="https://finbox.com/NASDAQGS:ABNB/explorer/revenue_proj" xr:uid="{A9B4D051-77A7-D148-BC59-D386FC73E725}"/>
     <hyperlink ref="A3" r:id="rId15" xr:uid="{1CB1F9AA-A62F-8349-B76A-1702B2216B3A}"/>
+    <hyperlink ref="H1" r:id="rId16" display="https://finbox.com/NASDAQGS:ABNB/models/dcf-ebitda-exit-5yr/" xr:uid="{0312FE5B-5EDF-6A43-A08F-28BF98DB7F16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId16"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
--- a/Technology/Software/Airbnb.xlsx
+++ b/Technology/Software/Airbnb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A924CAA9-4937-BE48-8941-AF8BCB9337AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AF8D9D-7D55-6E4B-80AC-10ECE784EEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,10 +558,10 @@
     <t>Forward P/S</t>
   </si>
   <si>
-    <t>Shares (No dilution)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Forward P/E</t>
+  </si>
+  <si>
+    <t>Shares</t>
   </si>
 </sst>
 </file>
@@ -574,7 +574,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -915,7 +915,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1044,6 +1044,19 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1074,20 +1087,6 @@
     <xf numFmtId="9" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2296,8 +2295,10 @@
     <v>144.63</v>
     <v>81.91</v>
     <v>1.579</v>
-    <v>-1.29</v>
-    <v>-1.2202999999999999E-2</v>
+    <v>2.39</v>
+    <v>2.2888000000000002E-2</v>
+    <v>-0.06</v>
+    <v>-5.6169999999999994E-4</v>
     <v>USD</v>
     <v>Airbnb, Inc. primarily operates a global platform for stays and experiences. The Company’s marketplace model connects hosts and guests online or through mobile devices to book spaces and experiences around the world. It partners with hosts throughout the process of setting up their listing and provide them with a range of tools to manage their listings, including scheduling, merchandising, integrated payments, community support, host protections, pricing guidance, and feedback from reviews. Its Website and mobile applications provide its guests a way to explore a variety of homes and experiences and an easy way to book them. Its hosts generally fall into two categories: individual and professional. Individual hosts list their spaces, including private rooms, primary homes, or vacation homes, on Airbnb. Professional hosts are often those who run property management or hospitality businesses and generally use application programming interfaces to list their properties on its platform.</v>
     <v>6811</v>
@@ -2305,24 +2306,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>888 Brannan St., SAN FRANCISCO, CA, 94103 US</v>
-    <v>106.52</v>
+    <v>107.61499999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45071.999886897655</v>
+    <v>45072.999932731247</v>
     <v>0</v>
-    <v>103.74</v>
-    <v>66771870216</v>
+    <v>104.99</v>
+    <v>68300160000</v>
     <v>AIRBNB, INC.</v>
     <v>AIRBNB, INC.</v>
-    <v>106.1</v>
+    <v>105.18</v>
     <v>34.800600000000003</v>
-    <v>105.71</v>
     <v>104.42</v>
+    <v>106.81</v>
+    <v>106.75</v>
     <v>639454800</v>
     <v>ABNB</v>
     <v>AIRBNB, INC. (XNAS:ABNB)</v>
-    <v>231</v>
-    <v>7735909</v>
+    <v>4680146</v>
+    <v>7754502</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2354,6 +2356,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2374,6 +2378,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2390,7 +2395,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2401,13 +2406,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2473,13 +2481,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2524,6 +2538,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2531,6 +2548,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2895,7 +2915,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3200,7 +3220,7 @@
       <c r="G6" s="1">
         <v>1499000000</v>
       </c>
-      <c r="H6" s="76"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -3224,7 +3244,7 @@
       <c r="G7" s="10">
         <v>6900000000</v>
       </c>
-      <c r="H7" s="74"/>
+      <c r="H7" s="64"/>
       <c r="N7" s="61" t="s">
         <v>112</v>
       </c>
@@ -3589,17 +3609,17 @@
         <f>(SUM(C36:G36)/5)</f>
         <v>0.14224609231543348</v>
       </c>
-      <c r="O17" s="77">
+      <c r="O17" s="66">
         <f>P101/H4</f>
-        <v>7.0278781408272817</v>
-      </c>
-      <c r="P17" s="77">
+        <v>7.1887338174928956</v>
+      </c>
+      <c r="P17" s="66">
         <f>P101/H29</f>
-        <v>30.295766885662431</v>
-      </c>
-      <c r="Q17" s="78">
+        <v>30.989183303085298</v>
+      </c>
+      <c r="Q17" s="67">
         <f>P101/H107</f>
-        <v>19.359776809510002</v>
+        <v>19.80288779356335</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3656,7 +3676,7 @@
         <v>161</v>
       </c>
       <c r="P19" s="62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3703,13 +3723,13 @@
         <f>G41-G57-G62</f>
         <v>7281000000</v>
       </c>
-      <c r="O20" s="77">
+      <c r="O20" s="66">
         <f>P101/I4</f>
-        <v>6.2211749013323399</v>
-      </c>
-      <c r="P20" s="79">
+        <v>6.3635665703903852</v>
+      </c>
+      <c r="P20" s="68">
         <f>P101/I29</f>
-        <v>26.277792292798111</v>
+        <v>26.879244391971664</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3787,27 +3807,27 @@
       <c r="G22" s="2">
         <v>0.24929999999999999</v>
       </c>
-      <c r="H22" s="75">
+      <c r="H22" s="65">
         <f>H20/H4</f>
         <v>0.34122723923797493</v>
       </c>
-      <c r="I22" s="75">
+      <c r="I22" s="65">
         <f t="shared" ref="I22:M22" si="11">I20/I4</f>
         <v>0.3624336160439765</v>
       </c>
-      <c r="J22" s="75">
+      <c r="J22" s="65">
         <f t="shared" si="11"/>
         <v>0.38384166142115511</v>
       </c>
-      <c r="K22" s="75">
+      <c r="K22" s="65">
         <f t="shared" si="11"/>
         <v>0.37424434155771125</v>
       </c>
-      <c r="L22" s="75">
+      <c r="L22" s="65">
         <f t="shared" si="11"/>
         <v>0.40591848154352006</v>
       </c>
-      <c r="M22" s="75">
+      <c r="M22" s="65">
         <f t="shared" si="11"/>
         <v>0.44092827031978682</v>
       </c>
@@ -3834,7 +3854,7 @@
       <c r="G23" s="10">
         <v>1891000000</v>
       </c>
-      <c r="H23" s="74"/>
+      <c r="H23" s="64"/>
     </row>
     <row r="24" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -3906,7 +3926,7 @@
       <c r="G26" s="10">
         <v>1989000000</v>
       </c>
-      <c r="H26" s="74"/>
+      <c r="H26" s="64"/>
     </row>
     <row r="27" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -5385,10 +5405,10 @@
         <v>93</v>
       </c>
       <c r="H83" s="1"/>
-      <c r="O83" s="66" t="s">
+      <c r="O83" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="P83" s="67"/>
+      <c r="P83" s="74"/>
     </row>
     <row r="84" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5413,10 +5433,10 @@
         <v>93</v>
       </c>
       <c r="H84" s="1"/>
-      <c r="O84" s="68" t="s">
+      <c r="O84" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="P84" s="69"/>
+      <c r="P84" s="76"/>
     </row>
     <row r="85" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5703,10 +5723,10 @@
         <v>4071000000</v>
       </c>
       <c r="H93" s="1"/>
-      <c r="O93" s="70" t="s">
+      <c r="O93" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="P93" s="71"/>
+      <c r="P93" s="78"/>
     </row>
     <row r="94" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
@@ -5853,10 +5873,10 @@
         <v>-1500000000</v>
       </c>
       <c r="H98" s="1"/>
-      <c r="O98" s="70" t="s">
+      <c r="O98" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="P98" s="71"/>
+      <c r="P98" s="78"/>
     </row>
     <row r="99" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5917,7 +5937,7 @@
       </c>
       <c r="P100" s="53">
         <f>P99/P103</f>
-        <v>3.387212819672545E-2</v>
+        <v>3.3139319909242716E-2</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -5948,7 +5968,7 @@
       </c>
       <c r="P101" s="34" cm="1">
         <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>66771870216</v>
+        <v>68300160000</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -5979,7 +5999,7 @@
       </c>
       <c r="P102" s="53">
         <f>P101/P103</f>
-        <v>0.96612787180327453</v>
+        <v>0.96686068009075732</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6010,7 +6030,7 @@
       </c>
       <c r="P103" s="58">
         <f>P99+P101</f>
-        <v>69112870216</v>
+        <v>70641160000</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6036,10 +6056,10 @@
         <v>9727000000</v>
       </c>
       <c r="H104" s="1"/>
-      <c r="O104" s="68" t="s">
+      <c r="O104" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="P104" s="69"/>
+      <c r="P104" s="76"/>
     </row>
     <row r="105" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
@@ -6069,7 +6089,7 @@
       </c>
       <c r="P105" s="27">
         <f>(P100*P92)+(P102*P97)</f>
-        <v>0.10556689373066597</v>
+        <v>0.10563956540508787</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -6101,26 +6121,26 @@
         <f t="shared" si="23"/>
         <v>1.2922173274596105E-2</v>
       </c>
-      <c r="I106" s="80">
+      <c r="I106" s="69">
         <v>3335000000</v>
       </c>
-      <c r="J106" s="80">
+      <c r="J106" s="69">
         <v>3943000000</v>
       </c>
-      <c r="K106" s="80">
+      <c r="K106" s="69">
         <v>4779000000</v>
       </c>
-      <c r="L106" s="80">
+      <c r="L106" s="69">
         <v>5327000000</v>
       </c>
-      <c r="M106" s="80">
+      <c r="M106" s="69">
         <v>6393000000</v>
       </c>
       <c r="N106" s="18"/>
-      <c r="O106" s="72" t="s">
+      <c r="O106" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="P106" s="73"/>
+      <c r="P106" s="80"/>
       <c r="Q106" s="18"/>
       <c r="R106" s="18"/>
     </row>
@@ -6185,9 +6205,9 @@
       <c r="J108" s="30"/>
       <c r="K108" s="30"/>
       <c r="L108" s="30"/>
-      <c r="M108" s="81">
+      <c r="M108" s="70">
         <f>M106*(1+P108)/(P109-P108)</f>
-        <v>81333966056.901779</v>
+        <v>81260668594.656815</v>
       </c>
       <c r="N108" s="41" t="s">
         <v>143</v>
@@ -6216,9 +6236,9 @@
         <f>L108+L107</f>
         <v>5754992321.0543118</v>
       </c>
-      <c r="M109" s="81">
+      <c r="M109" s="70">
         <f>M108+M106</f>
-        <v>87726966056.901779</v>
+        <v>87653668594.656815</v>
       </c>
       <c r="N109" s="41" t="s">
         <v>139</v>
@@ -6228,14 +6248,14 @@
       </c>
       <c r="P109" s="37">
         <f>P105</f>
-        <v>0.10556689373066597</v>
+        <v>0.10563956540508787</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="I110" s="64" t="s">
+      <c r="I110" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="J110" s="65"/>
+      <c r="J110" s="72"/>
     </row>
     <row r="111" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I111" s="31" t="s">
@@ -6243,7 +6263,7 @@
       </c>
       <c r="J111" s="34">
         <f>NPV(P109,I109,J109,K109,L109,M109)</f>
-        <v>67903856842.500877</v>
+        <v>67839577019.331116</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6270,16 +6290,16 @@
       </c>
       <c r="J114" s="34">
         <f>J111+J112-J113</f>
-        <v>75184856842.500885</v>
-      </c>
-    </row>
-    <row r="115" spans="9:10" ht="40" x14ac:dyDescent="0.25">
+        <v>75120577019.331116</v>
+      </c>
+    </row>
+    <row r="115" spans="9:10" ht="20" x14ac:dyDescent="0.25">
       <c r="I115" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="J115" s="49" cm="1">
-        <f t="array" ref="J115">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>639454800</v>
+        <v>163</v>
+      </c>
+      <c r="J115" s="49">
+        <f>G35*(1+(5*N17))</f>
+        <v>1053931440.2112232</v>
       </c>
     </row>
     <row r="116" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6288,7 +6308,7 @@
       </c>
       <c r="J116" s="60">
         <f>J114/J115</f>
-        <v>117.57649929674605</v>
+        <v>71.276531046721459</v>
       </c>
     </row>
     <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6297,7 +6317,7 @@
       </c>
       <c r="J117" s="59" cm="1">
         <f t="array" ref="J117">_FV(A1,"Price")</f>
-        <v>104.42</v>
+        <v>106.81</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6306,7 +6326,7 @@
       </c>
       <c r="J118" s="43">
         <f>J116/J117-1</f>
-        <v>0.12599597104717541</v>
+        <v>-0.33267923371667951</v>
       </c>
     </row>
     <row r="119" spans="9:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6315,7 +6335,7 @@
       </c>
       <c r="J119" s="44" t="str">
         <f>IF(J116&gt;J117,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>

--- a/Technology/Software/Airbnb.xlsx
+++ b/Technology/Software/Airbnb.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AF8D9D-7D55-6E4B-80AC-10ECE784EEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F939B8-9418-C349-B0AF-CB8104B44EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>CAPEX as % of Revenue</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>3yr Rev Growth</t>
   </si>
   <si>
@@ -528,9 +525,6 @@
     <t>Cash + Securities</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>Discount Rate (WACC)</t>
   </si>
   <si>
@@ -561,7 +555,25 @@
     <t xml:space="preserve"> Forward P/E</t>
   </si>
   <si>
-    <t>Shares</t>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Shares (5% dilution)</t>
   </si>
 </sst>
 </file>
@@ -915,7 +927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -988,7 +1000,6 @@
     <xf numFmtId="10" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1045,7 +1056,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1057,6 +1067,15 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1350,11 +1369,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$107</c:f>
+              <c:f>'Sheet 1'!$A$108</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1394,7 +1413,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$G$107</c:f>
+              <c:f>'Sheet 1'!$B$108:$G$108</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2172,6 +2191,66 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7229999999999999E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -2294,11 +2373,9 @@
     <v>Powered by Refinitiv</v>
     <v>144.63</v>
     <v>81.91</v>
-    <v>1.579</v>
-    <v>2.39</v>
-    <v>2.2888000000000002E-2</v>
-    <v>-0.06</v>
-    <v>-5.6169999999999994E-4</v>
+    <v>1.6120000000000001</v>
+    <v>0.5</v>
+    <v>3.9229999999999994E-3</v>
     <v>USD</v>
     <v>Airbnb, Inc. primarily operates a global platform for stays and experiences. The Company’s marketplace model connects hosts and guests online or through mobile devices to book spaces and experiences around the world. It partners with hosts throughout the process of setting up their listing and provide them with a range of tools to manage their listings, including scheduling, merchandising, integrated payments, community support, host protections, pricing guidance, and feedback from reviews. Its Website and mobile applications provide its guests a way to explore a variety of homes and experiences and an easy way to book them. Its hosts generally fall into two categories: individual and professional. Individual hosts list their spaces, including private rooms, primary homes, or vacation homes, on Airbnb. Professional hosts are often those who run property management or hospitality businesses and generally use application programming interfaces to list their properties on its platform.</v>
     <v>6811</v>
@@ -2306,25 +2383,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>888 Brannan St., SAN FRANCISCO, CA, 94103 US</v>
-    <v>107.61499999999999</v>
+    <v>128.62</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.999932731247</v>
+    <v>45099.999539687502</v>
     <v>0</v>
-    <v>104.99</v>
-    <v>68300160000</v>
+    <v>125.35</v>
+    <v>81824636208</v>
     <v>AIRBNB, INC.</v>
     <v>AIRBNB, INC.</v>
-    <v>105.18</v>
-    <v>34.800600000000003</v>
-    <v>104.42</v>
-    <v>106.81</v>
-    <v>106.75</v>
+    <v>126.58</v>
+    <v>42.645899999999997</v>
+    <v>127.46</v>
+    <v>127.96</v>
     <v>639454800</v>
     <v>ABNB</v>
     <v>AIRBNB, INC. (XNAS:ABNB)</v>
-    <v>4680146</v>
-    <v>7754502</v>
+    <v>8858</v>
+    <v>6447232</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2356,8 +2432,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2378,7 +2452,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2395,7 +2468,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2406,16 +2479,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2481,19 +2551,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2538,9 +2602,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2548,9 +2609,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2912,10 +2970,10 @@
   <dimension ref="A1:AM119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2972,34 +3030,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
@@ -3010,7 +3068,7 @@
     </row>
     <row r="3" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B3" s="24">
         <v>13900</v>
@@ -3030,7 +3088,9 @@
       <c r="G3" s="24">
         <v>63200</v>
       </c>
-      <c r="H3" s="24"/>
+      <c r="H3" s="75">
+        <v>64912</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -3081,40 +3141,40 @@
       <c r="G4" s="1">
         <v>8399000000</v>
       </c>
-      <c r="H4" s="1">
-        <v>9501000000</v>
+      <c r="H4" s="15">
+        <v>9513000000</v>
       </c>
       <c r="I4" s="15">
-        <v>10733000000</v>
+        <v>10757000000</v>
       </c>
       <c r="J4" s="15">
-        <v>12328000000</v>
+        <v>12341000000</v>
       </c>
       <c r="K4" s="15">
-        <v>14226000000</v>
+        <v>14474000000</v>
       </c>
       <c r="L4" s="15">
-        <v>16119000000</v>
+        <v>16285000000</v>
       </c>
       <c r="M4" s="15">
         <v>18012000000</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="N4" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="O4" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="O4" s="46" t="s">
+      <c r="Q4" s="21" t="s">
         <v>109</v>
-      </c>
-      <c r="P4" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="18">
@@ -3137,45 +3197,45 @@
         <f t="shared" si="0"/>
         <v>0.40175841488978192</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="16">
         <f t="shared" si="0"/>
-        <v>0.13120609596380528</v>
+        <v>0.13263483748065252</v>
       </c>
       <c r="I5" s="16">
         <f>(I4/H4)-1</f>
-        <v>0.12967056099357954</v>
+        <v>0.13076842215915074</v>
       </c>
       <c r="J5" s="16">
         <f t="shared" si="0"/>
-        <v>0.14860709959936647</v>
+        <v>0.14725295156642182</v>
       </c>
       <c r="K5" s="16">
         <f t="shared" si="0"/>
-        <v>0.15395846852693063</v>
+        <v>0.17283850579369586</v>
       </c>
       <c r="L5" s="16">
         <f t="shared" ref="L5" si="1">(L4/K4)-1</f>
-        <v>0.13306621678616626</v>
+        <v>0.12512090645295015</v>
       </c>
       <c r="M5" s="16">
         <f t="shared" ref="M5" si="2">(M4/L4)-1</f>
-        <v>0.11743904708728836</v>
-      </c>
-      <c r="N5" s="45">
+        <v>0.10604851089960077</v>
+      </c>
+      <c r="N5" s="44">
         <f>(G5+F5+H5)/3</f>
-        <v>0.4355398816155272</v>
-      </c>
-      <c r="O5" s="45">
+        <v>0.43601612878780965</v>
+      </c>
+      <c r="O5" s="44">
         <f>(G21+F21+H21)/3</f>
-        <v>2.0267524302699047</v>
-      </c>
-      <c r="P5" s="45">
+        <v>2.0288218349181055</v>
+      </c>
+      <c r="P5" s="44">
         <f>(G30+F30+E30)/3</f>
         <v>-0.50056919516481246</v>
       </c>
       <c r="Q5" s="19">
-        <f>(G106+F106+H106)/3</f>
-        <v>-1.2194359127004761</v>
+        <f>(G107+F107+H107)/3</f>
+        <v>-1.2289317521522627</v>
       </c>
       <c r="R5" s="18"/>
       <c r="S5" s="16"/>
@@ -3244,18 +3304,18 @@
       <c r="G7" s="10">
         <v>6900000000</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="N7" s="61" t="s">
+      <c r="H7" s="63"/>
+      <c r="N7" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="O7" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="O7" s="46" t="s">
+      <c r="Q7" s="21" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="21" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -3281,21 +3341,21 @@
         <v>0.82150000000000001</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="N8" s="45">
+      <c r="N8" s="44">
         <f>G8</f>
         <v>0.82150000000000001</v>
       </c>
-      <c r="O8" s="45">
+      <c r="O8" s="44">
         <f>H22</f>
-        <v>0.34122723923797493</v>
-      </c>
-      <c r="P8" s="45">
+        <v>0.34216335540838855</v>
+      </c>
+      <c r="P8" s="44">
         <f>G31</f>
         <v>0.22539999999999999</v>
       </c>
       <c r="Q8" s="19">
-        <f>H107/H4</f>
-        <v>0.3630144195347858</v>
+        <f>H108/H4</f>
+        <v>0.35235992851886894</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -3324,7 +3384,7 @@
     </row>
     <row r="10" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="18">
         <f>B9/B4</f>
@@ -3356,17 +3416,17 @@
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
-      <c r="N10" s="61" t="s">
+      <c r="N10" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="O10" s="62" t="s">
+      <c r="P10" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="P10" s="62" t="s">
+      <c r="Q10" s="61" t="s">
         <v>98</v>
-      </c>
-      <c r="Q10" s="62" t="s">
-        <v>99</v>
       </c>
       <c r="R10" s="18"/>
     </row>
@@ -3393,15 +3453,15 @@
         <v>950000000</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="N11" s="45">
+      <c r="N11" s="44">
         <f>(G10+F10+E10)/3</f>
         <v>0.41051960633031248</v>
       </c>
-      <c r="O11" s="45">
+      <c r="O11" s="44">
         <f>(G14+F14+E14)/3</f>
         <v>0.43828694165068605</v>
       </c>
-      <c r="P11" s="45">
+      <c r="P11" s="44">
         <f>(G81+F81+E81)/3</f>
         <v>0.38312075768395881</v>
       </c>
@@ -3457,22 +3517,22 @@
         <v>2466000000</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="N13" s="61" t="s">
+      <c r="N13" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="O13" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="P13" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="O13" s="61" t="s">
+      <c r="Q13" s="61" t="s">
         <v>117</v>
-      </c>
-      <c r="P13" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q13" s="62" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="18">
         <f>B13/B4</f>
@@ -3504,7 +3564,7 @@
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="45">
+      <c r="N14" s="44">
         <f>G29/G73</f>
         <v>0.34046762589928059</v>
       </c>
@@ -3512,7 +3572,7 @@
         <f>G29/G55</f>
         <v>0.11803217358772915</v>
       </c>
-      <c r="P14" s="45">
+      <c r="P14" s="44">
         <f>(G29-G99)/G74</f>
         <v>0.11803217358772915</v>
       </c>
@@ -3569,17 +3629,17 @@
         <v>5009000000</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="N16" s="61" t="s">
-        <v>121</v>
+      <c r="N16" s="60" t="s">
+        <v>119</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P16" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q16" s="47" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="Q16" s="46" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3609,17 +3669,17 @@
         <f>(SUM(C36:G36)/5)</f>
         <v>0.14224609231543348</v>
       </c>
-      <c r="O17" s="66">
+      <c r="O17" s="64">
         <f>P101/H4</f>
-        <v>7.1887338174928956</v>
-      </c>
-      <c r="P17" s="66">
+        <v>8.6013493333333333</v>
+      </c>
+      <c r="P17" s="64">
         <f>P101/H29</f>
-        <v>30.989183303085298</v>
-      </c>
-      <c r="Q17" s="67">
-        <f>P101/H107</f>
-        <v>19.80288779356335</v>
+        <v>35.935281602108034</v>
+      </c>
+      <c r="Q17" s="65">
+        <f>P101/H108</f>
+        <v>24.410690992840095</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3669,14 +3729,17 @@
         <v>81000000</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="N19" s="63" t="s">
+      <c r="N19" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="P19" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q19" s="46" t="s">
         <v>160</v>
-      </c>
-      <c r="O19" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="P19" s="62" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3701,40 +3764,44 @@
       <c r="G20" s="10">
         <v>2094000000</v>
       </c>
-      <c r="H20" s="10">
-        <v>3242000000</v>
-      </c>
-      <c r="I20" s="10">
-        <v>3890000001</v>
-      </c>
-      <c r="J20" s="10">
-        <v>4732000002</v>
-      </c>
-      <c r="K20" s="10">
+      <c r="H20" s="72">
+        <v>3255000000</v>
+      </c>
+      <c r="I20" s="72">
+        <v>3883000001</v>
+      </c>
+      <c r="J20" s="72">
+        <v>4701000002</v>
+      </c>
+      <c r="K20" s="72">
         <v>5324000003</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="72">
         <v>6543000004</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="72">
         <v>7942000005</v>
       </c>
-      <c r="N20" s="48">
+      <c r="N20" s="47">
         <f>G41-G57-G62</f>
         <v>7281000000</v>
       </c>
-      <c r="O20" s="66">
+      <c r="O20" s="64">
         <f>P101/I4</f>
-        <v>6.3635665703903852</v>
-      </c>
-      <c r="P20" s="68">
+        <v>7.6066409043413588</v>
+      </c>
+      <c r="P20" s="66">
         <f>P101/I29</f>
-        <v>26.879244391971664</v>
+        <v>31.195057646969119</v>
+      </c>
+      <c r="Q20" s="65">
+        <f>P101/I106</f>
+        <v>21.60306165659895</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="18">
@@ -3757,27 +3824,27 @@
         <f t="shared" si="5"/>
         <v>6.5949091621299116</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="16">
         <f t="shared" si="5"/>
-        <v>0.54823304680038198</v>
-      </c>
-      <c r="I21" s="18">
+        <v>0.55444126074498556</v>
+      </c>
+      <c r="I21" s="16">
         <f t="shared" ref="I21" si="6">(I20/H20)-1</f>
-        <v>0.19987661967921033</v>
-      </c>
-      <c r="J21" s="18">
+        <v>0.19293394807987707</v>
+      </c>
+      <c r="J21" s="16">
         <f t="shared" ref="J21" si="7">(J20/I20)-1</f>
-        <v>0.21645244236080918</v>
-      </c>
-      <c r="K21" s="18">
+        <v>0.21066185959035244</v>
+      </c>
+      <c r="K21" s="16">
         <f t="shared" ref="K21" si="8">(K20/J20)-1</f>
-        <v>0.12510566372565268</v>
-      </c>
-      <c r="L21" s="18">
+        <v>0.13252499483832159</v>
+      </c>
+      <c r="L21" s="16">
         <f t="shared" ref="L21" si="9">(L20/K20)-1</f>
         <v>0.22896318563356699</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="16">
         <f t="shared" ref="M21" si="10">(M20/L20)-1</f>
         <v>0.2138162922428144</v>
       </c>
@@ -3807,27 +3874,27 @@
       <c r="G22" s="2">
         <v>0.24929999999999999</v>
       </c>
-      <c r="H22" s="65">
+      <c r="H22" s="73">
         <f>H20/H4</f>
-        <v>0.34122723923797493</v>
-      </c>
-      <c r="I22" s="65">
+        <v>0.34216335540838855</v>
+      </c>
+      <c r="I22" s="73">
         <f t="shared" ref="I22:M22" si="11">I20/I4</f>
-        <v>0.3624336160439765</v>
-      </c>
-      <c r="J22" s="65">
+        <v>0.36097424941898298</v>
+      </c>
+      <c r="J22" s="73">
         <f t="shared" si="11"/>
-        <v>0.38384166142115511</v>
-      </c>
-      <c r="K22" s="65">
+        <v>0.38092537087756262</v>
+      </c>
+      <c r="K22" s="73">
         <f t="shared" si="11"/>
-        <v>0.37424434155771125</v>
-      </c>
-      <c r="L22" s="65">
+        <v>0.3678319747823684</v>
+      </c>
+      <c r="L22" s="73">
         <f t="shared" si="11"/>
-        <v>0.40591848154352006</v>
-      </c>
-      <c r="M22" s="65">
+        <v>0.40178078010439056</v>
+      </c>
+      <c r="M22" s="73">
         <f t="shared" si="11"/>
         <v>0.44092827031978682</v>
       </c>
@@ -3854,7 +3921,7 @@
       <c r="G23" s="10">
         <v>1891000000</v>
       </c>
-      <c r="H23" s="64"/>
+      <c r="H23" s="63"/>
     </row>
     <row r="24" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -3926,7 +3993,7 @@
       <c r="G26" s="10">
         <v>1989000000</v>
       </c>
-      <c r="H26" s="64"/>
+      <c r="H26" s="63"/>
     </row>
     <row r="27" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -3998,28 +4065,28 @@
       <c r="G29" s="11">
         <v>1893000000</v>
       </c>
-      <c r="H29" s="11">
-        <v>2204000000</v>
-      </c>
-      <c r="I29" s="11">
-        <v>2541000000</v>
-      </c>
-      <c r="J29" s="11">
+      <c r="H29" s="69">
+        <v>2277000000</v>
+      </c>
+      <c r="I29" s="69">
+        <v>2623000000</v>
+      </c>
+      <c r="J29" s="69">
         <v>3167000000</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="69">
         <v>3758000000</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="69">
         <v>4588000000</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="69">
         <v>5726000000</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="18">
@@ -4042,27 +4109,27 @@
         <f t="shared" si="12"/>
         <v>-6.377321508717908</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="16">
         <f t="shared" ref="H30" si="13">(H29/G29)-1</f>
-        <v>0.1642894875858425</v>
-      </c>
-      <c r="I30" s="18">
+        <v>0.20285261489698891</v>
+      </c>
+      <c r="I30" s="16">
         <f t="shared" ref="I30" si="14">(I29/H29)-1</f>
-        <v>0.15290381125226871</v>
-      </c>
-      <c r="J30" s="18">
+        <v>0.15195432586736946</v>
+      </c>
+      <c r="J30" s="16">
         <f t="shared" ref="J30" si="15">(J29/I29)-1</f>
-        <v>0.24635970090515547</v>
-      </c>
-      <c r="K30" s="18">
+        <v>0.2073961113229128</v>
+      </c>
+      <c r="K30" s="16">
         <f t="shared" ref="K30" si="16">(K29/J29)-1</f>
         <v>0.18661193558572786</v>
       </c>
-      <c r="L30" s="18">
+      <c r="L30" s="16">
         <f t="shared" ref="L30" si="17">(L29/K29)-1</f>
         <v>0.22086216072378928</v>
       </c>
-      <c r="M30" s="18">
+      <c r="M30" s="16">
         <f t="shared" ref="M30" si="18">(M29/L29)-1</f>
         <v>0.24803836094158682</v>
       </c>
@@ -4092,27 +4159,27 @@
       <c r="G31" s="2">
         <v>0.22539999999999999</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="70">
         <f>H29/H4</f>
-        <v>0.23197558151773498</v>
-      </c>
-      <c r="I31" s="2">
+        <v>0.23935666982024598</v>
+      </c>
+      <c r="I31" s="70">
         <f t="shared" ref="I31:M31" si="19">I29/I4</f>
-        <v>0.23674648281002517</v>
-      </c>
-      <c r="J31" s="2">
+        <v>0.24384121967091196</v>
+      </c>
+      <c r="J31" s="70">
         <f t="shared" si="19"/>
-        <v>0.25689487345879297</v>
-      </c>
-      <c r="K31" s="2">
+        <v>0.2566242605947654</v>
+      </c>
+      <c r="K31" s="70">
         <f t="shared" si="19"/>
-        <v>0.26416420638267962</v>
-      </c>
-      <c r="L31" s="2">
+        <v>0.25963797153516649</v>
+      </c>
+      <c r="L31" s="70">
         <f t="shared" si="19"/>
-        <v>0.28463304175196974</v>
-      </c>
-      <c r="M31" s="2">
+        <v>0.28173165489714463</v>
+      </c>
+      <c r="M31" s="70">
         <f t="shared" si="19"/>
         <v>0.31789917832556075</v>
       </c>
@@ -4139,22 +4206,22 @@
       <c r="G32" s="12">
         <v>3.07</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="71">
         <v>3.5</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="71">
         <v>4.03</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="71">
         <v>5.0199999999999996</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="71">
         <v>5.96</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="71">
         <v>7.28</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="71">
         <v>9.09</v>
       </c>
     </row>
@@ -4232,7 +4299,7 @@
     </row>
     <row r="36" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="25">
@@ -4262,22 +4329,22 @@
         <v>28</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H37" s="13"/>
     </row>
@@ -4286,25 +4353,25 @@
         <v>29</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -4312,7 +4379,7 @@
         <v>30</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="1">
         <v>2140877000</v>
@@ -4336,7 +4403,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="1">
         <v>1188431000</v>
@@ -4360,7 +4427,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="1">
         <v>3329308000</v>
@@ -4384,7 +4451,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" s="1">
         <v>2305011000</v>
@@ -4408,22 +4475,22 @@
         <v>34</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H43" s="1"/>
     </row>
@@ -4432,7 +4499,7 @@
         <v>35</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" s="1">
         <v>240213000</v>
@@ -4456,7 +4523,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" s="10">
         <v>5874532000</v>
@@ -4480,7 +4547,7 @@
         <v>37</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" s="1">
         <v>309408000</v>
@@ -4504,7 +4571,7 @@
         <v>38</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" s="1">
         <v>289861000</v>
@@ -4528,7 +4595,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C48" s="1">
         <v>28756000</v>
@@ -4552,7 +4619,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" s="1">
         <v>318617000</v>
@@ -4576,22 +4643,22 @@
         <v>41</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H50" s="1"/>
     </row>
@@ -4600,22 +4667,22 @@
         <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H51" s="1"/>
     </row>
@@ -4624,7 +4691,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" s="1">
         <v>110532000</v>
@@ -4648,7 +4715,7 @@
         <v>44</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C53" s="1">
         <v>738557000</v>
@@ -4672,22 +4739,22 @@
         <v>45</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H54" s="1"/>
     </row>
@@ -4696,7 +4763,7 @@
         <v>46</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" s="11">
         <v>6613089000</v>
@@ -4720,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C56" s="1">
         <v>70630000</v>
@@ -4744,10 +4811,10 @@
         <v>48</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D57" s="1">
         <v>38022000</v>
@@ -4768,7 +4835,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="1">
         <v>159901000</v>
@@ -4783,7 +4850,7 @@
         <v>334728000</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H58" s="1"/>
     </row>
@@ -4792,19 +4859,19 @@
         <v>50</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G59" s="1">
         <v>1182000000</v>
@@ -4816,7 +4883,7 @@
         <v>51</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C60" s="1">
         <v>3505479000</v>
@@ -4840,7 +4907,7 @@
         <v>52</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C61" s="10">
         <v>3736010000</v>
@@ -4864,10 +4931,10 @@
         <v>53</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D62" s="1">
         <v>381374000</v>
@@ -4888,22 +4955,22 @@
         <v>50</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H63" s="1"/>
     </row>
@@ -4912,22 +4979,22 @@
         <v>54</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H64" s="1"/>
     </row>
@@ -4936,7 +5003,7 @@
         <v>55</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" s="1">
         <v>3394387000</v>
@@ -4960,7 +5027,7 @@
         <v>56</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" s="1">
         <v>3394387000</v>
@@ -4984,22 +5051,22 @@
         <v>57</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H67" s="1"/>
     </row>
@@ -5008,7 +5075,7 @@
         <v>58</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" s="10">
         <v>7130397000</v>
@@ -5032,7 +5099,7 @@
         <v>59</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" s="1">
         <v>26000</v>
@@ -5047,7 +5114,7 @@
         <v>63000</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H69" s="1"/>
     </row>
@@ -5056,7 +5123,7 @@
         <v>60</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" s="1">
         <v>-768888000</v>
@@ -5080,7 +5147,7 @@
         <v>61</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C71" s="1">
         <v>-7912000</v>
@@ -5104,7 +5171,7 @@
         <v>62</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C72" s="1">
         <v>259466000</v>
@@ -5128,7 +5195,7 @@
         <v>63</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C73" s="10">
         <v>-517308000</v>
@@ -5146,14 +5213,14 @@
         <v>5560000000</v>
       </c>
       <c r="H73" s="10"/>
-      <c r="N73" s="40"/>
+      <c r="N73" s="39"/>
     </row>
     <row r="74" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="11">
         <v>6613089000</v>
@@ -5177,22 +5244,22 @@
         <v>28</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H75" s="13"/>
     </row>
@@ -5201,25 +5268,25 @@
         <v>65</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5320,7 +5387,7 @@
     </row>
     <row r="81" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B81" s="18">
         <f t="shared" ref="B81:G81" si="21">B80/B4</f>
@@ -5387,56 +5454,56 @@
         <v>70</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H83" s="1"/>
-      <c r="O83" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="P83" s="74"/>
+      <c r="O83" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="P83" s="79"/>
     </row>
     <row r="84" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H84" s="1"/>
-      <c r="O84" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="P84" s="76"/>
+      <c r="O84" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="P84" s="81"/>
     </row>
     <row r="85" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5461,10 +5528,10 @@
         <v>20000000</v>
       </c>
       <c r="H85" s="1"/>
-      <c r="O85" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="P85" s="51">
+      <c r="O85" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="P85" s="50">
         <f>G18</f>
         <v>24000000</v>
       </c>
@@ -5492,10 +5559,10 @@
         <v>280000000</v>
       </c>
       <c r="H86" s="1"/>
-      <c r="O86" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="P86" s="51">
+      <c r="O86" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="P86" s="50">
         <f>G57</f>
         <v>59000000</v>
       </c>
@@ -5523,10 +5590,10 @@
         <v>208000000</v>
       </c>
       <c r="H87" s="1"/>
-      <c r="O87" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="P87" s="51">
+      <c r="O87" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="P87" s="50">
         <f>G62</f>
         <v>2282000000</v>
       </c>
@@ -5554,10 +5621,10 @@
         <v>3430000000</v>
       </c>
       <c r="H88" s="10"/>
-      <c r="O88" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="P88" s="53">
+      <c r="O88" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="P88" s="52">
         <f>P85/(P86+P87)</f>
         <v>1.0252029047415635E-2</v>
       </c>
@@ -5585,17 +5652,17 @@
         <v>-25000000</v>
       </c>
       <c r="H89" s="1"/>
-      <c r="O89" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="P89" s="51">
+      <c r="O89" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="P89" s="50">
         <f>G28</f>
         <v>96000000</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B90" s="18">
         <f t="shared" ref="B90:G90" si="22">(-1*B89)/B4</f>
@@ -5628,10 +5695,10 @@
       <c r="L90" s="18"/>
       <c r="M90" s="18"/>
       <c r="N90" s="18"/>
-      <c r="O90" s="50" t="s">
+      <c r="O90" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="P90" s="51">
+      <c r="P90" s="50">
         <f>G26</f>
         <v>1989000000</v>
       </c>
@@ -5652,19 +5719,19 @@
         <v>-400298000</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H91" s="1"/>
-      <c r="O91" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="P91" s="53">
+      <c r="O91" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="P91" s="52">
         <f>P89/P90</f>
         <v>4.8265460030165915E-2</v>
       </c>
@@ -5692,10 +5759,10 @@
         <v>-4072000000</v>
       </c>
       <c r="H92" s="1"/>
-      <c r="O92" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="P92" s="55">
+      <c r="O92" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P92" s="54">
         <f>P88*(1-P91)</f>
         <v>9.7572101491994953E-3</v>
       </c>
@@ -5723,17 +5790,17 @@
         <v>4071000000</v>
       </c>
       <c r="H93" s="1"/>
-      <c r="O93" s="77" t="s">
-        <v>130</v>
-      </c>
-      <c r="P93" s="78"/>
+      <c r="O93" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="P93" s="83"/>
     </row>
     <row r="94" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94" s="1">
         <v>-3290000</v>
@@ -5751,11 +5818,12 @@
         <v>-2000000</v>
       </c>
       <c r="H94" s="1"/>
-      <c r="O94" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="P94" s="56">
-        <v>4.095E-2</v>
+      <c r="O94" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="P94" s="55">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -5781,12 +5849,12 @@
         <v>-28000000</v>
       </c>
       <c r="H95" s="10"/>
-      <c r="O95" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="P95" s="57" cm="1">
+      <c r="O95" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="P95" s="56" cm="1">
         <f t="array" ref="P95">_FV(A1,"Beta")</f>
-        <v>1.579</v>
+        <v>1.6120000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -5794,13 +5862,13 @@
         <v>80</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E96" s="1">
         <v>-5000000</v>
@@ -5809,13 +5877,13 @@
         <v>-2207883000</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H96" s="1"/>
-      <c r="O96" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="P96" s="56">
+      <c r="O96" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="P96" s="55">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5824,30 +5892,30 @@
         <v>81</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E97" s="1">
         <v>3650870000</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H97" s="1"/>
-      <c r="O97" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="P97" s="55">
+      <c r="O97" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="P97" s="54">
         <f>(P94)+((P95)*(P96-P94))</f>
-        <v>0.10892595000000001</v>
+        <v>0.11262324000000001</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -5855,28 +5923,28 @@
         <v>82</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G98" s="1">
         <v>-1500000000</v>
       </c>
       <c r="H98" s="1"/>
-      <c r="O98" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="P98" s="78"/>
+      <c r="O98" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="P98" s="83"/>
     </row>
     <row r="99" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5901,10 +5969,10 @@
         <v>0</v>
       </c>
       <c r="H99" s="24"/>
-      <c r="O99" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="P99" s="51">
+      <c r="O99" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="P99" s="50">
         <f>P86+P87</f>
         <v>2341000000</v>
       </c>
@@ -5932,12 +6000,12 @@
         <v>811000000</v>
       </c>
       <c r="H100" s="1"/>
-      <c r="O100" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="P100" s="53">
+      <c r="O100" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="P100" s="52">
         <f>P99/P103</f>
-        <v>3.3139319909242716E-2</v>
+        <v>2.781420191745056E-2</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -5963,12 +6031,12 @@
         <v>-689000000</v>
       </c>
       <c r="H101" s="10"/>
-      <c r="O101" s="50" t="s">
-        <v>137</v>
+      <c r="O101" s="49" t="s">
+        <v>135</v>
       </c>
       <c r="P101" s="34" cm="1">
         <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>68300160000</v>
+        <v>81824636208</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -5994,12 +6062,12 @@
         <v>-337000000</v>
       </c>
       <c r="H102" s="1"/>
-      <c r="O102" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="P102" s="53">
+      <c r="O102" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="P102" s="52">
         <f>P101/P103</f>
-        <v>0.96686068009075732</v>
+        <v>0.97218579808254946</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6025,12 +6093,12 @@
         <v>2376000000</v>
       </c>
       <c r="H103" s="10"/>
-      <c r="O103" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="P103" s="58">
+      <c r="O103" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="P103" s="57">
         <f>P99+P101</f>
-        <v>70641160000</v>
+        <v>84165636208</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6056,10 +6124,10 @@
         <v>9727000000</v>
       </c>
       <c r="H104" s="1"/>
-      <c r="O104" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="P104" s="76"/>
+      <c r="O104" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="P104" s="81"/>
     </row>
     <row r="105" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
@@ -6085,190 +6153,222 @@
       </c>
       <c r="H105" s="11"/>
       <c r="O105" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P105" s="27">
         <f>(P100*P92)+(P102*P97)</f>
-        <v>0.10563956540508787</v>
+        <v>0.10976210347528335</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="18">
-        <f t="shared" ref="C106:H106" si="23">(C107/B107)-1</f>
-        <v>2.3434621675131275</v>
-      </c>
-      <c r="D106" s="18">
+        <v>163</v>
+      </c>
+      <c r="B106" s="1">
+        <f t="shared" ref="B106:F106" si="23">(B23*(1-$P$91))+B78+B89+B82</f>
+        <v>84904974.358974367</v>
+      </c>
+      <c r="C106" s="1">
         <f t="shared" si="23"/>
-        <v>-0.80735067820879203</v>
-      </c>
-      <c r="E106" s="18">
+        <v>430645312.21719456</v>
+      </c>
+      <c r="D106" s="1">
         <f t="shared" si="23"/>
-        <v>-7.8579079928039066</v>
-      </c>
-      <c r="F106" s="18">
+        <v>131756203.61990952</v>
+      </c>
+      <c r="E106" s="1">
         <f t="shared" si="23"/>
-        <v>-4.2444345176082248</v>
-      </c>
-      <c r="G106" s="18">
+        <v>-3612971903.46908</v>
+      </c>
+      <c r="F106" s="1">
         <f t="shared" si="23"/>
-        <v>0.57320460623220049</v>
-      </c>
-      <c r="H106" s="18">
-        <f t="shared" si="23"/>
-        <v>1.2922173274596105E-2</v>
-      </c>
-      <c r="I106" s="69">
-        <v>3335000000</v>
-      </c>
-      <c r="J106" s="69">
-        <v>3943000000</v>
-      </c>
-      <c r="K106" s="69">
-        <v>4779000000</v>
-      </c>
-      <c r="L106" s="69">
-        <v>5327000000</v>
-      </c>
-      <c r="M106" s="69">
-        <v>6393000000</v>
-      </c>
-      <c r="N106" s="18"/>
-      <c r="O106" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="P106" s="80"/>
+        <v>1159515817.4962292</v>
+      </c>
+      <c r="G106" s="1">
+        <f>(G23*(1-$P$91))+G78+G89+G82</f>
+        <v>2174730015.0829563</v>
+      </c>
+      <c r="H106" s="15">
+        <v>3333000000</v>
+      </c>
+      <c r="I106" s="38">
+        <f>H106*(1+$P$107)</f>
+        <v>3787640729.2947545</v>
+      </c>
+      <c r="J106" s="38">
+        <f t="shared" ref="J106:M106" si="24">I106*(1+$P$107)</f>
+        <v>4304297117.9755478</v>
+      </c>
+      <c r="K106" s="38">
+        <f t="shared" si="24"/>
+        <v>4891428465.3555994</v>
+      </c>
+      <c r="L106" s="38">
+        <f t="shared" si="24"/>
+        <v>5558647968.7406549</v>
+      </c>
+      <c r="M106" s="38">
+        <f t="shared" si="24"/>
+        <v>6316880121.8762856</v>
+      </c>
+      <c r="N106" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="O106" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="P106" s="85"/>
       <c r="Q106" s="18"/>
       <c r="R106" s="18"/>
     </row>
     <row r="107" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B107" s="1">
+      <c r="A107" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="18">
+        <f t="shared" ref="C107:H107" si="25">(C108/B108)-1</f>
+        <v>2.3434621675131275</v>
+      </c>
+      <c r="D107" s="18">
+        <f t="shared" si="25"/>
+        <v>-0.80735067820879203</v>
+      </c>
+      <c r="E107" s="18">
+        <f t="shared" si="25"/>
+        <v>-7.8579079928039066</v>
+      </c>
+      <c r="F107" s="18">
+        <f t="shared" si="25"/>
+        <v>-4.2444345176082248</v>
+      </c>
+      <c r="G107" s="18">
+        <f t="shared" si="25"/>
+        <v>0.57320460623220049</v>
+      </c>
+      <c r="H107" s="18">
+        <f t="shared" si="25"/>
+        <v>-1.5565345080763571E-2</v>
+      </c>
+      <c r="I107" s="67">
+        <v>3902000000</v>
+      </c>
+      <c r="J107" s="67">
+        <v>4668000000</v>
+      </c>
+      <c r="K107" s="67">
+        <v>5525000000</v>
+      </c>
+      <c r="L107" s="67">
+        <v>6378000000</v>
+      </c>
+      <c r="M107" s="67">
+        <v>7573000000</v>
+      </c>
+      <c r="N107" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="O107" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="P107" s="41">
+        <f>(SUM(I5:M5)/5)</f>
+        <v>0.13640585937436386</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A108" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="B108" s="1">
         <v>151021000</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C108" s="1">
         <v>504933000</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D108" s="1">
         <v>97275000</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E108" s="1">
         <v>-667103000</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F108" s="1">
         <v>2164372000</v>
       </c>
-      <c r="G107" s="1">
+      <c r="G108" s="1">
         <v>3405000000</v>
       </c>
-      <c r="H107" s="1">
-        <v>3449000000</v>
-      </c>
-      <c r="I107" s="39">
-        <f>H107*(1+$P$107)</f>
-        <v>3919955012.8867998</v>
-      </c>
-      <c r="J107" s="39">
-        <f>I107*(1+$P$107)</f>
-        <v>4455218122.0807047</v>
-      </c>
-      <c r="K107" s="39">
-        <f>J107*(1+$P$107)</f>
-        <v>5063570487.4324074</v>
-      </c>
-      <c r="L107" s="39">
-        <f>K107*(1+$P$107)</f>
-        <v>5754992321.0543118</v>
-      </c>
-      <c r="M107" s="39">
-        <f>L107*(1+$P$107)</f>
-        <v>6540826615.8428211</v>
-      </c>
-      <c r="N107" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="O107" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="P107" s="42">
-        <f>(SUM(I5:M5)/5)</f>
-        <v>0.13654827859866625</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="H108" s="1">
+        <v>3352000000</v>
+      </c>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
       <c r="K108" s="30"/>
       <c r="L108" s="30"/>
-      <c r="M108" s="70">
-        <f>M106*(1+P108)/(P109-P108)</f>
-        <v>81260668594.656815</v>
-      </c>
-      <c r="N108" s="41" t="s">
-        <v>143</v>
+      <c r="M108" s="68">
+        <f>M107*(1+P108)/(P109-P108)</f>
+        <v>91577776880.720001</v>
+      </c>
+      <c r="N108" s="40" t="s">
+        <v>141</v>
       </c>
       <c r="O108" s="35" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P108" s="36">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="I109" s="38">
-        <f t="shared" ref="I109:K109" si="24">I108+I107</f>
-        <v>3919955012.8867998</v>
-      </c>
-      <c r="J109" s="38">
-        <f t="shared" si="24"/>
-        <v>4455218122.0807047</v>
-      </c>
-      <c r="K109" s="38">
-        <f t="shared" si="24"/>
-        <v>5063570487.4324074</v>
-      </c>
-      <c r="L109" s="38">
+      <c r="I109" s="68">
+        <f t="shared" ref="I109:K109" si="26">I108+I107</f>
+        <v>3902000000</v>
+      </c>
+      <c r="J109" s="68">
+        <f t="shared" si="26"/>
+        <v>4668000000</v>
+      </c>
+      <c r="K109" s="68">
+        <f t="shared" si="26"/>
+        <v>5525000000</v>
+      </c>
+      <c r="L109" s="68">
         <f>L108+L107</f>
-        <v>5754992321.0543118</v>
-      </c>
-      <c r="M109" s="70">
-        <f>M108+M106</f>
-        <v>87653668594.656815</v>
-      </c>
-      <c r="N109" s="41" t="s">
-        <v>139</v>
+        <v>6378000000</v>
+      </c>
+      <c r="M109" s="68">
+        <f>M108+M107</f>
+        <v>99150776880.720001</v>
+      </c>
+      <c r="N109" s="40" t="s">
+        <v>137</v>
       </c>
       <c r="O109" s="29" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P109" s="37">
         <f>P105</f>
-        <v>0.10563956540508787</v>
+        <v>0.10976210347528335</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="I110" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="J110" s="72"/>
+      <c r="I110" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="J110" s="77"/>
     </row>
     <row r="111" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I111" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J111" s="34">
         <f>NPV(P109,I109,J109,K109,L109,M109)</f>
-        <v>67839577019.331116</v>
+        <v>74458023048.565369</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I112" s="31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J112" s="34">
         <f>G41</f>
@@ -6277,7 +6377,7 @@
     </row>
     <row r="113" spans="9:10" ht="20" x14ac:dyDescent="0.25">
       <c r="I113" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J113" s="34">
         <f>P99</f>
@@ -6286,54 +6386,54 @@
     </row>
     <row r="114" spans="9:10" ht="20" x14ac:dyDescent="0.25">
       <c r="I114" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J114" s="34">
         <f>J111+J112-J113</f>
-        <v>75120577019.331116</v>
+        <v>81739023048.565369</v>
       </c>
     </row>
     <row r="115" spans="9:10" ht="20" x14ac:dyDescent="0.25">
       <c r="I115" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="J115" s="49">
-        <f>G35*(1+(5*N17))</f>
-        <v>1053931440.2112232</v>
+        <v>166</v>
+      </c>
+      <c r="J115" s="48">
+        <f>G35*(1+(5*0.05))</f>
+        <v>769863750</v>
       </c>
     </row>
     <row r="116" spans="9:10" ht="20" x14ac:dyDescent="0.25">
       <c r="I116" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="J116" s="60">
+        <v>145</v>
+      </c>
+      <c r="J116" s="59">
         <f>J114/J115</f>
-        <v>71.276531046721459</v>
+        <v>106.17336255742055</v>
       </c>
     </row>
     <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
       <c r="I117" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="J117" s="59" cm="1">
+        <v>146</v>
+      </c>
+      <c r="J117" s="58" cm="1">
         <f t="array" ref="J117">_FV(A1,"Price")</f>
-        <v>106.81</v>
+        <v>127.96</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I118" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="J118" s="43">
+        <v>147</v>
+      </c>
+      <c r="J118" s="42">
         <f>J116/J117-1</f>
-        <v>-0.33267923371667951</v>
+        <v>-0.17026131168005199</v>
       </c>
     </row>
     <row r="119" spans="9:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I119" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="J119" s="44" t="str">
+        <v>148</v>
+      </c>
+      <c r="J119" s="43" t="str">
         <f>IF(J116&gt;J117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -6365,8 +6465,9 @@
     <hyperlink ref="I1" r:id="rId14" display="https://finbox.com/NASDAQGS:ABNB/explorer/revenue_proj" xr:uid="{A9B4D051-77A7-D148-BC59-D386FC73E725}"/>
     <hyperlink ref="A3" r:id="rId15" xr:uid="{1CB1F9AA-A62F-8349-B76A-1702B2216B3A}"/>
     <hyperlink ref="H1" r:id="rId16" display="https://finbox.com/NASDAQGS:ABNB/models/dcf-ebitda-exit-5yr/" xr:uid="{0312FE5B-5EDF-6A43-A08F-28BF98DB7F16}"/>
+    <hyperlink ref="N107" r:id="rId17" xr:uid="{B4B9DE89-C2B1-3A4E-A1A4-E1E7BF8A8724}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId17"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
--- a/Technology/Software/Airbnb.xlsx
+++ b/Technology/Software/Airbnb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F939B8-9418-C349-B0AF-CB8104B44EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E259F6F5-823C-7848-B86A-24CA15B3ABBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2209,12 +2209,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2231,14 +2232,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2246,6 +2247,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2374,8 +2376,8 @@
     <v>144.63</v>
     <v>81.91</v>
     <v>1.6120000000000001</v>
-    <v>0.5</v>
-    <v>3.9229999999999994E-3</v>
+    <v>-3.23</v>
+    <v>-2.5242000000000001E-2</v>
     <v>USD</v>
     <v>Airbnb, Inc. primarily operates a global platform for stays and experiences. The Company’s marketplace model connects hosts and guests online or through mobile devices to book spaces and experiences around the world. It partners with hosts throughout the process of setting up their listing and provide them with a range of tools to manage their listings, including scheduling, merchandising, integrated payments, community support, host protections, pricing guidance, and feedback from reviews. Its Website and mobile applications provide its guests a way to explore a variety of homes and experiences and an easy way to book them. Its hosts generally fall into two categories: individual and professional. Individual hosts list their spaces, including private rooms, primary homes, or vacation homes, on Airbnb. Professional hosts are often those who run property management or hospitality businesses and generally use application programming interfaces to list their properties on its platform.</v>
     <v>6811</v>
@@ -2383,24 +2385,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>888 Brannan St., SAN FRANCISCO, CA, 94103 US</v>
-    <v>128.62</v>
+    <v>126.8</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.999539687502</v>
+    <v>45100.999527719534</v>
     <v>0</v>
-    <v>125.35</v>
-    <v>81824636208</v>
+    <v>124</v>
+    <v>79759200000</v>
     <v>AIRBNB, INC.</v>
     <v>AIRBNB, INC.</v>
-    <v>126.58</v>
-    <v>42.645899999999997</v>
-    <v>127.46</v>
+    <v>125.99</v>
+    <v>41.569499999999998</v>
     <v>127.96</v>
+    <v>124.73</v>
     <v>639454800</v>
     <v>ABNB</v>
     <v>AIRBNB, INC. (XNAS:ABNB)</v>
-    <v>8858</v>
-    <v>6447232</v>
+    <v>6375</v>
+    <v>6381129</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2970,10 +2972,10 @@
   <dimension ref="A1:AM119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K101" sqref="K101"/>
+      <selection pane="bottomRight" activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3671,15 +3673,15 @@
       </c>
       <c r="O17" s="64">
         <f>P101/H4</f>
-        <v>8.6013493333333333</v>
+        <v>8.3842321034374017</v>
       </c>
       <c r="P17" s="64">
         <f>P101/H29</f>
-        <v>35.935281602108034</v>
+        <v>35.028194993412384</v>
       </c>
       <c r="Q17" s="65">
         <f>P101/H108</f>
-        <v>24.410690992840095</v>
+        <v>23.794510739856801</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3788,15 +3790,15 @@
       </c>
       <c r="O20" s="64">
         <f>P101/I4</f>
-        <v>7.6066409043413588</v>
+        <v>7.4146323324346941</v>
       </c>
       <c r="P20" s="66">
         <f>P101/I29</f>
-        <v>31.195057646969119</v>
+        <v>30.40762485703393</v>
       </c>
       <c r="Q20" s="65">
         <f>P101/I106</f>
-        <v>21.60306165659895</v>
+        <v>21.057752226370976</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5823,7 +5825,7 @@
       </c>
       <c r="P94" s="55">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -5915,7 +5917,7 @@
       </c>
       <c r="P97" s="54">
         <f>(P94)+((P95)*(P96-P94))</f>
-        <v>0.11262324000000001</v>
+        <v>0.11252532000000001</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6005,7 +6007,7 @@
       </c>
       <c r="P100" s="52">
         <f>P99/P103</f>
-        <v>2.781420191745056E-2</v>
+        <v>2.8513937846680031E-2</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6036,7 +6038,7 @@
       </c>
       <c r="P101" s="34" cm="1">
         <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>81824636208</v>
+        <v>79759200000</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6067,7 +6069,7 @@
       </c>
       <c r="P102" s="52">
         <f>P101/P103</f>
-        <v>0.97218579808254946</v>
+        <v>0.97148606215332001</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6098,7 +6100,7 @@
       </c>
       <c r="P103" s="57">
         <f>P99+P101</f>
-        <v>84165636208</v>
+        <v>82100200000</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6157,7 +6159,7 @@
       </c>
       <c r="P105" s="27">
         <f>(P100*P92)+(P102*P97)</f>
-        <v>0.10976210347528335</v>
+        <v>0.10959499650309351</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -6307,7 +6309,7 @@
       <c r="L108" s="30"/>
       <c r="M108" s="68">
         <f>M107*(1+P108)/(P109-P108)</f>
-        <v>91577776880.720001</v>
+        <v>91758677473.509232</v>
       </c>
       <c r="N108" s="40" t="s">
         <v>141</v>
@@ -6338,7 +6340,7 @@
       </c>
       <c r="M109" s="68">
         <f>M108+M107</f>
-        <v>99150776880.720001</v>
+        <v>99331677473.509232</v>
       </c>
       <c r="N109" s="40" t="s">
         <v>137</v>
@@ -6348,7 +6350,7 @@
       </c>
       <c r="P109" s="37">
         <f>P105</f>
-        <v>0.10976210347528335</v>
+        <v>0.10959499650309351</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6363,7 +6365,7 @@
       </c>
       <c r="J111" s="34">
         <f>NPV(P109,I109,J109,K109,L109,M109)</f>
-        <v>74458023048.565369</v>
+        <v>74615975213.700043</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6390,7 +6392,7 @@
       </c>
       <c r="J114" s="34">
         <f>J111+J112-J113</f>
-        <v>81739023048.565369</v>
+        <v>81896975213.700043</v>
       </c>
     </row>
     <row r="115" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6408,7 +6410,7 @@
       </c>
       <c r="J116" s="59">
         <f>J114/J115</f>
-        <v>106.17336255742055</v>
+        <v>106.37853154366606</v>
       </c>
     </row>
     <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6417,7 +6419,7 @@
       </c>
       <c r="J117" s="58" cm="1">
         <f t="array" ref="J117">_FV(A1,"Price")</f>
-        <v>127.96</v>
+        <v>124.73</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6426,7 +6428,7 @@
       </c>
       <c r="J118" s="42">
         <f>J116/J117-1</f>
-        <v>-0.17026131168005199</v>
+        <v>-0.14712954747321372</v>
       </c>
     </row>
     <row r="119" spans="9:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">

--- a/Technology/Software/Airbnb.xlsx
+++ b/Technology/Software/Airbnb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E259F6F5-823C-7848-B86A-24CA15B3ABBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144286EA-A52C-1E41-9346-241AB81A9FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -574,19 +574,26 @@
   </si>
   <si>
     <t>Shares (5% dilution)</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -749,7 +756,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -798,19 +805,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -843,46 +837,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -927,7 +881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -955,51 +909,24 @@
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1007,62 +934,35 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1071,39 +971,77 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2235,7 +2173,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2375,9 +2313,11 @@
     <v>Powered by Refinitiv</v>
     <v>144.63</v>
     <v>81.91</v>
-    <v>1.6120000000000001</v>
-    <v>-3.23</v>
-    <v>-2.5242000000000001E-2</v>
+    <v>1.6140000000000001</v>
+    <v>3.06</v>
+    <v>2.4460000000000003E-2</v>
+    <v>0.04</v>
+    <v>3.121E-4</v>
     <v>USD</v>
     <v>Airbnb, Inc. primarily operates a global platform for stays and experiences. The Company’s marketplace model connects hosts and guests online or through mobile devices to book spaces and experiences around the world. It partners with hosts throughout the process of setting up their listing and provide them with a range of tools to manage their listings, including scheduling, merchandising, integrated payments, community support, host protections, pricing guidance, and feedback from reviews. Its Website and mobile applications provide its guests a way to explore a variety of homes and experiences and an easy way to book them. Its hosts generally fall into two categories: individual and professional. Individual hosts list their spaces, including private rooms, primary homes, or vacation homes, on Airbnb. Professional hosts are often those who run property management or hospitality businesses and generally use application programming interfaces to list their properties on its platform.</v>
     <v>6811</v>
@@ -2385,24 +2325,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>888 Brannan St., SAN FRANCISCO, CA, 94103 US</v>
-    <v>126.8</v>
+    <v>131.13999999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45100.999527719534</v>
+    <v>45107.999744085158</v>
     <v>0</v>
-    <v>124</v>
-    <v>79759200000</v>
+    <v>127.02</v>
+    <v>81952527168</v>
     <v>AIRBNB, INC.</v>
     <v>AIRBNB, INC.</v>
-    <v>125.99</v>
-    <v>41.569499999999998</v>
-    <v>127.96</v>
-    <v>124.73</v>
+    <v>127.25</v>
+    <v>41.692799999999998</v>
+    <v>125.1</v>
+    <v>128.16</v>
+    <v>128.19999999999999</v>
     <v>639454800</v>
     <v>ABNB</v>
     <v>AIRBNB, INC. (XNAS:ABNB)</v>
-    <v>6375</v>
-    <v>6381129</v>
+    <v>4604635</v>
+    <v>5878730</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2434,6 +2375,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2454,6 +2397,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2470,7 +2414,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2481,13 +2425,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2553,13 +2500,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2604,6 +2557,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2611,6 +2567,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2975,7 +2934,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J100" sqref="J100"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3090,7 +3049,7 @@
       <c r="G3" s="24">
         <v>63200</v>
       </c>
-      <c r="H3" s="75">
+      <c r="H3" s="49">
         <v>64912</v>
       </c>
       <c r="I3" s="1"/>
@@ -3161,13 +3120,13 @@
       <c r="M4" s="15">
         <v>18012000000</v>
       </c>
-      <c r="N4" s="45" t="s">
+      <c r="N4" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="O4" s="45" t="s">
+      <c r="O4" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="34" t="s">
         <v>108</v>
       </c>
       <c r="Q4" s="21" t="s">
@@ -3223,15 +3182,15 @@
         <f t="shared" ref="M5" si="2">(M4/L4)-1</f>
         <v>0.10604851089960077</v>
       </c>
-      <c r="N5" s="44">
+      <c r="N5" s="30">
         <f>(G5+F5+H5)/3</f>
         <v>0.43601612878780965</v>
       </c>
-      <c r="O5" s="44">
+      <c r="O5" s="30">
         <f>(G21+F21+H21)/3</f>
         <v>2.0288218349181055</v>
       </c>
-      <c r="P5" s="44">
+      <c r="P5" s="30">
         <f>(G30+F30+E30)/3</f>
         <v>-0.50056919516481246</v>
       </c>
@@ -3306,14 +3265,14 @@
       <c r="G7" s="10">
         <v>6900000000</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="N7" s="60" t="s">
+      <c r="H7" s="37"/>
+      <c r="N7" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="P7" s="60" t="s">
+      <c r="P7" s="34" t="s">
         <v>112</v>
       </c>
       <c r="Q7" s="21" t="s">
@@ -3343,15 +3302,15 @@
         <v>0.82150000000000001</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="N8" s="44">
+      <c r="N8" s="30">
         <f>G8</f>
         <v>0.82150000000000001</v>
       </c>
-      <c r="O8" s="44">
+      <c r="O8" s="30">
         <f>H22</f>
         <v>0.34216335540838855</v>
       </c>
-      <c r="P8" s="44">
+      <c r="P8" s="30">
         <f>G31</f>
         <v>0.22539999999999999</v>
       </c>
@@ -3418,16 +3377,16 @@
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
-      <c r="N10" s="60" t="s">
+      <c r="N10" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="O10" s="61" t="s">
+      <c r="O10" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="P10" s="61" t="s">
+      <c r="P10" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="Q10" s="61" t="s">
+      <c r="Q10" s="35" t="s">
         <v>98</v>
       </c>
       <c r="R10" s="18"/>
@@ -3455,15 +3414,15 @@
         <v>950000000</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="N11" s="44">
+      <c r="N11" s="30">
         <f>(G10+F10+E10)/3</f>
         <v>0.41051960633031248</v>
       </c>
-      <c r="O11" s="44">
+      <c r="O11" s="30">
         <f>(G14+F14+E14)/3</f>
         <v>0.43828694165068605</v>
       </c>
-      <c r="P11" s="44">
+      <c r="P11" s="30">
         <f>(G81+F81+E81)/3</f>
         <v>0.38312075768395881</v>
       </c>
@@ -3519,16 +3478,16 @@
         <v>2466000000</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="N13" s="60" t="s">
+      <c r="N13" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="O13" s="60" t="s">
+      <c r="O13" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="P13" s="60" t="s">
+      <c r="P13" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="Q13" s="61" t="s">
+      <c r="Q13" s="35" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3566,7 +3525,7 @@
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="44">
+      <c r="N14" s="30">
         <f>G29/G73</f>
         <v>0.34046762589928059</v>
       </c>
@@ -3574,7 +3533,7 @@
         <f>G29/G55</f>
         <v>0.11803217358772915</v>
       </c>
-      <c r="P14" s="44">
+      <c r="P14" s="30">
         <f>(G29-G99)/G74</f>
         <v>0.11803217358772915</v>
       </c>
@@ -3631,7 +3590,7 @@
         <v>5009000000</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="N16" s="60" t="s">
+      <c r="N16" s="34" t="s">
         <v>119</v>
       </c>
       <c r="O16" s="21" t="s">
@@ -3640,7 +3599,7 @@
       <c r="P16" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="Q16" s="46" t="s">
+      <c r="Q16" s="32" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3671,17 +3630,17 @@
         <f>(SUM(C36:G36)/5)</f>
         <v>0.14224609231543348</v>
       </c>
-      <c r="O17" s="64">
+      <c r="O17" s="38">
         <f>P101/H4</f>
-        <v>8.3842321034374017</v>
-      </c>
-      <c r="P17" s="64">
+        <v>8.6147931428571436</v>
+      </c>
+      <c r="P17" s="38">
         <f>P101/H29</f>
-        <v>35.028194993412384</v>
-      </c>
-      <c r="Q17" s="65">
+        <v>35.99144803162055</v>
+      </c>
+      <c r="Q17" s="39">
         <f>P101/H108</f>
-        <v>23.794510739856801</v>
+        <v>24.448844620525058</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3731,16 +3690,16 @@
         <v>81000000</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="N19" s="62" t="s">
+      <c r="N19" s="36" t="s">
         <v>157</v>
       </c>
       <c r="O19" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="P19" s="61" t="s">
+      <c r="P19" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="Q19" s="46" t="s">
+      <c r="Q19" s="32" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3766,39 +3725,39 @@
       <c r="G20" s="10">
         <v>2094000000</v>
       </c>
-      <c r="H20" s="72">
+      <c r="H20" s="46">
         <v>3255000000</v>
       </c>
-      <c r="I20" s="72">
+      <c r="I20" s="46">
         <v>3883000001</v>
       </c>
-      <c r="J20" s="72">
+      <c r="J20" s="46">
         <v>4701000002</v>
       </c>
-      <c r="K20" s="72">
+      <c r="K20" s="46">
         <v>5324000003</v>
       </c>
-      <c r="L20" s="72">
+      <c r="L20" s="46">
         <v>6543000004</v>
       </c>
-      <c r="M20" s="72">
+      <c r="M20" s="46">
         <v>7942000005</v>
       </c>
-      <c r="N20" s="47">
+      <c r="N20" s="33">
         <f>G41-G57-G62</f>
         <v>7281000000</v>
       </c>
-      <c r="O20" s="64">
+      <c r="O20" s="38">
         <f>P101/I4</f>
-        <v>7.4146323324346941</v>
-      </c>
-      <c r="P20" s="66">
+        <v>7.6185299960955657</v>
+      </c>
+      <c r="P20" s="40">
         <f>P101/I29</f>
-        <v>30.40762485703393</v>
-      </c>
-      <c r="Q20" s="65">
+        <v>31.243815161265726</v>
+      </c>
+      <c r="Q20" s="39">
         <f>P101/I106</f>
-        <v>21.057752226370976</v>
+        <v>21.636826992104734</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3854,7 +3813,7 @@
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
     </row>
-    <row r="22" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>15</v>
       </c>
@@ -3876,29 +3835,35 @@
       <c r="G22" s="2">
         <v>0.24929999999999999</v>
       </c>
-      <c r="H22" s="73">
+      <c r="H22" s="47">
         <f>H20/H4</f>
         <v>0.34216335540838855</v>
       </c>
-      <c r="I22" s="73">
+      <c r="I22" s="47">
         <f t="shared" ref="I22:M22" si="11">I20/I4</f>
         <v>0.36097424941898298</v>
       </c>
-      <c r="J22" s="73">
+      <c r="J22" s="47">
         <f t="shared" si="11"/>
         <v>0.38092537087756262</v>
       </c>
-      <c r="K22" s="73">
+      <c r="K22" s="47">
         <f t="shared" si="11"/>
         <v>0.3678319747823684</v>
       </c>
-      <c r="L22" s="73">
+      <c r="L22" s="47">
         <f t="shared" si="11"/>
         <v>0.40178078010439056</v>
       </c>
-      <c r="M22" s="73">
+      <c r="M22" s="47">
         <f t="shared" si="11"/>
         <v>0.44092827031978682</v>
+      </c>
+      <c r="P22" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q22" s="32" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3923,7 +3888,15 @@
       <c r="G23" s="10">
         <v>1891000000</v>
       </c>
-      <c r="H23" s="63"/>
+      <c r="H23" s="37"/>
+      <c r="P23" s="72">
+        <f>G99/P101</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="73">
+        <f>H108/P101</f>
+        <v>4.0901728303368967E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -3995,7 +3968,7 @@
       <c r="G26" s="10">
         <v>1989000000</v>
       </c>
-      <c r="H26" s="63"/>
+      <c r="H26" s="37"/>
     </row>
     <row r="27" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -4067,22 +4040,22 @@
       <c r="G29" s="11">
         <v>1893000000</v>
       </c>
-      <c r="H29" s="69">
+      <c r="H29" s="43">
         <v>2277000000</v>
       </c>
-      <c r="I29" s="69">
+      <c r="I29" s="43">
         <v>2623000000</v>
       </c>
-      <c r="J29" s="69">
+      <c r="J29" s="43">
         <v>3167000000</v>
       </c>
-      <c r="K29" s="69">
+      <c r="K29" s="43">
         <v>3758000000</v>
       </c>
-      <c r="L29" s="69">
+      <c r="L29" s="43">
         <v>4588000000</v>
       </c>
-      <c r="M29" s="69">
+      <c r="M29" s="43">
         <v>5726000000</v>
       </c>
     </row>
@@ -4161,27 +4134,27 @@
       <c r="G31" s="2">
         <v>0.22539999999999999</v>
       </c>
-      <c r="H31" s="70">
+      <c r="H31" s="44">
         <f>H29/H4</f>
         <v>0.23935666982024598</v>
       </c>
-      <c r="I31" s="70">
+      <c r="I31" s="44">
         <f t="shared" ref="I31:M31" si="19">I29/I4</f>
         <v>0.24384121967091196</v>
       </c>
-      <c r="J31" s="70">
+      <c r="J31" s="44">
         <f t="shared" si="19"/>
         <v>0.2566242605947654</v>
       </c>
-      <c r="K31" s="70">
+      <c r="K31" s="44">
         <f t="shared" si="19"/>
         <v>0.25963797153516649</v>
       </c>
-      <c r="L31" s="70">
+      <c r="L31" s="44">
         <f t="shared" si="19"/>
         <v>0.28173165489714463</v>
       </c>
-      <c r="M31" s="70">
+      <c r="M31" s="44">
         <f t="shared" si="19"/>
         <v>0.31789917832556075</v>
       </c>
@@ -4208,22 +4181,22 @@
       <c r="G32" s="12">
         <v>3.07</v>
       </c>
-      <c r="H32" s="71">
+      <c r="H32" s="45">
         <v>3.5</v>
       </c>
-      <c r="I32" s="71">
+      <c r="I32" s="45">
         <v>4.03</v>
       </c>
-      <c r="J32" s="71">
+      <c r="J32" s="45">
         <v>5.0199999999999996</v>
       </c>
-      <c r="K32" s="71">
+      <c r="K32" s="45">
         <v>5.96</v>
       </c>
-      <c r="L32" s="71">
+      <c r="L32" s="45">
         <v>7.28</v>
       </c>
-      <c r="M32" s="71">
+      <c r="M32" s="45">
         <v>9.09</v>
       </c>
     </row>
@@ -5215,7 +5188,7 @@
         <v>5560000000</v>
       </c>
       <c r="H73" s="10"/>
-      <c r="N73" s="39"/>
+      <c r="N73" s="28"/>
     </row>
     <row r="74" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
@@ -5474,10 +5447,10 @@
         <v>92</v>
       </c>
       <c r="H83" s="1"/>
-      <c r="O83" s="78" t="s">
+      <c r="O83" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="P83" s="79"/>
+      <c r="P83" s="76"/>
     </row>
     <row r="84" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5502,10 +5475,10 @@
         <v>92</v>
       </c>
       <c r="H84" s="1"/>
-      <c r="O84" s="80" t="s">
+      <c r="O84" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="P84" s="81"/>
+      <c r="P84" s="77"/>
     </row>
     <row r="85" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5530,10 +5503,10 @@
         <v>20000000</v>
       </c>
       <c r="H85" s="1"/>
-      <c r="O85" s="49" t="s">
+      <c r="O85" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="P85" s="50">
+      <c r="P85" s="51">
         <f>G18</f>
         <v>24000000</v>
       </c>
@@ -5561,10 +5534,10 @@
         <v>280000000</v>
       </c>
       <c r="H86" s="1"/>
-      <c r="O86" s="49" t="s">
+      <c r="O86" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="P86" s="50">
+      <c r="P86" s="51">
         <f>G57</f>
         <v>59000000</v>
       </c>
@@ -5592,10 +5565,10 @@
         <v>208000000</v>
       </c>
       <c r="H87" s="1"/>
-      <c r="O87" s="49" t="s">
+      <c r="O87" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="P87" s="50">
+      <c r="P87" s="51">
         <f>G62</f>
         <v>2282000000</v>
       </c>
@@ -5623,10 +5596,10 @@
         <v>3430000000</v>
       </c>
       <c r="H88" s="10"/>
-      <c r="O88" s="51" t="s">
+      <c r="O88" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="P88" s="52">
+      <c r="P88" s="53">
         <f>P85/(P86+P87)</f>
         <v>1.0252029047415635E-2</v>
       </c>
@@ -5654,10 +5627,10 @@
         <v>-25000000</v>
       </c>
       <c r="H89" s="1"/>
-      <c r="O89" s="49" t="s">
+      <c r="O89" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="P89" s="50">
+      <c r="P89" s="51">
         <f>G28</f>
         <v>96000000</v>
       </c>
@@ -5697,10 +5670,10 @@
       <c r="L90" s="18"/>
       <c r="M90" s="18"/>
       <c r="N90" s="18"/>
-      <c r="O90" s="49" t="s">
+      <c r="O90" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="P90" s="50">
+      <c r="P90" s="51">
         <f>G26</f>
         <v>1989000000</v>
       </c>
@@ -5730,10 +5703,10 @@
         <v>92</v>
       </c>
       <c r="H91" s="1"/>
-      <c r="O91" s="51" t="s">
+      <c r="O91" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="P91" s="52">
+      <c r="P91" s="53">
         <f>P89/P90</f>
         <v>4.8265460030165915E-2</v>
       </c>
@@ -5761,10 +5734,10 @@
         <v>-4072000000</v>
       </c>
       <c r="H92" s="1"/>
-      <c r="O92" s="53" t="s">
+      <c r="O92" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="P92" s="54">
+      <c r="P92" s="53">
         <f>P88*(1-P91)</f>
         <v>9.7572101491994953E-3</v>
       </c>
@@ -5792,10 +5765,10 @@
         <v>4071000000</v>
       </c>
       <c r="H93" s="1"/>
-      <c r="O93" s="82" t="s">
+      <c r="O93" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="P93" s="83"/>
+      <c r="P93" s="78"/>
     </row>
     <row r="94" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
@@ -5820,12 +5793,12 @@
         <v>-2000000</v>
       </c>
       <c r="H94" s="1"/>
-      <c r="O94" s="49" t="s">
+      <c r="O94" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="P94" s="55">
+      <c r="P94" s="54">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -5851,12 +5824,12 @@
         <v>-28000000</v>
       </c>
       <c r="H95" s="10"/>
-      <c r="O95" s="49" t="s">
+      <c r="O95" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="P95" s="56" cm="1">
+      <c r="P95" s="55" cm="1">
         <f t="array" ref="P95">_FV(A1,"Beta")</f>
-        <v>1.6120000000000001</v>
+        <v>1.6140000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -5882,10 +5855,10 @@
         <v>92</v>
       </c>
       <c r="H96" s="1"/>
-      <c r="O96" s="49" t="s">
+      <c r="O96" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="P96" s="55">
+      <c r="P96" s="54">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5912,12 +5885,12 @@
         <v>92</v>
       </c>
       <c r="H97" s="1"/>
-      <c r="O97" s="53" t="s">
+      <c r="O97" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="P97" s="54">
+      <c r="P97" s="53">
         <f>(P94)+((P95)*(P96-P94))</f>
-        <v>0.11252532000000001</v>
+        <v>0.11191244</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -5943,10 +5916,10 @@
         <v>-1500000000</v>
       </c>
       <c r="H98" s="1"/>
-      <c r="O98" s="82" t="s">
+      <c r="O98" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="P98" s="83"/>
+      <c r="P98" s="78"/>
     </row>
     <row r="99" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5971,10 +5944,10 @@
         <v>0</v>
       </c>
       <c r="H99" s="24"/>
-      <c r="O99" s="49" t="s">
+      <c r="O99" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="P99" s="50">
+      <c r="P99" s="51">
         <f>P86+P87</f>
         <v>2341000000</v>
       </c>
@@ -6002,12 +5975,12 @@
         <v>811000000</v>
       </c>
       <c r="H100" s="1"/>
-      <c r="O100" s="51" t="s">
+      <c r="O100" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="P100" s="52">
+      <c r="P100" s="53">
         <f>P99/P103</f>
-        <v>2.8513937846680031E-2</v>
+        <v>2.7772001939535686E-2</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6033,12 +6006,12 @@
         <v>-689000000</v>
       </c>
       <c r="H101" s="10"/>
-      <c r="O101" s="49" t="s">
+      <c r="O101" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="P101" s="34" cm="1">
+      <c r="P101" s="56" cm="1">
         <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>79759200000</v>
+        <v>81952527168</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6064,12 +6037,12 @@
         <v>-337000000</v>
       </c>
       <c r="H102" s="1"/>
-      <c r="O102" s="51" t="s">
+      <c r="O102" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="P102" s="52">
+      <c r="P102" s="53">
         <f>P101/P103</f>
-        <v>0.97148606215332001</v>
+        <v>0.97222799806046434</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6095,12 +6068,12 @@
         <v>2376000000</v>
       </c>
       <c r="H103" s="10"/>
-      <c r="O103" s="53" t="s">
+      <c r="O103" s="52" t="s">
         <v>137</v>
       </c>
       <c r="P103" s="57">
         <f>P99+P101</f>
-        <v>82100200000</v>
+        <v>84293527168</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6126,10 +6099,10 @@
         <v>9727000000</v>
       </c>
       <c r="H104" s="1"/>
-      <c r="O104" s="80" t="s">
+      <c r="O104" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="P104" s="81"/>
+      <c r="P104" s="77"/>
     </row>
     <row r="105" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
@@ -6154,12 +6127,12 @@
         <v>12103000000</v>
       </c>
       <c r="H105" s="11"/>
-      <c r="O105" s="26" t="s">
+      <c r="O105" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="P105" s="27">
+      <c r="P105" s="59">
         <f>(P100*P92)+(P102*P97)</f>
-        <v>0.10959499650309351</v>
+        <v>0.10907538475844986</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -6193,33 +6166,33 @@
       <c r="H106" s="15">
         <v>3333000000</v>
       </c>
-      <c r="I106" s="38">
+      <c r="I106" s="27">
         <f>H106*(1+$P$107)</f>
         <v>3787640729.2947545</v>
       </c>
-      <c r="J106" s="38">
+      <c r="J106" s="27">
         <f t="shared" ref="J106:M106" si="24">I106*(1+$P$107)</f>
         <v>4304297117.9755478</v>
       </c>
-      <c r="K106" s="38">
+      <c r="K106" s="27">
         <f t="shared" si="24"/>
         <v>4891428465.3555994</v>
       </c>
-      <c r="L106" s="38">
+      <c r="L106" s="27">
         <f t="shared" si="24"/>
         <v>5558647968.7406549</v>
       </c>
-      <c r="M106" s="38">
+      <c r="M106" s="27">
         <f t="shared" si="24"/>
         <v>6316880121.8762856</v>
       </c>
-      <c r="N106" s="30" t="s">
+      <c r="N106" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="O106" s="84" t="s">
+      <c r="O106" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="P106" s="85"/>
+      <c r="P106" s="79"/>
       <c r="Q106" s="18"/>
       <c r="R106" s="18"/>
     </row>
@@ -6252,34 +6225,34 @@
         <f t="shared" si="25"/>
         <v>-1.5565345080763571E-2</v>
       </c>
-      <c r="I107" s="67">
+      <c r="I107" s="41">
         <v>3902000000</v>
       </c>
-      <c r="J107" s="67">
+      <c r="J107" s="41">
         <v>4668000000</v>
       </c>
-      <c r="K107" s="67">
+      <c r="K107" s="41">
         <v>5525000000</v>
       </c>
-      <c r="L107" s="67">
+      <c r="L107" s="41">
         <v>6378000000</v>
       </c>
-      <c r="M107" s="67">
+      <c r="M107" s="41">
         <v>7573000000</v>
       </c>
-      <c r="N107" s="30" t="s">
+      <c r="N107" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="O107" s="28" t="s">
+      <c r="O107" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="P107" s="41">
+      <c r="P107" s="61">
         <f>(SUM(I5:M5)/5)</f>
         <v>0.13640585937436386</v>
       </c>
     </row>
     <row r="108" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A108" s="74" t="s">
+      <c r="A108" s="48" t="s">
         <v>162</v>
       </c>
       <c r="B108" s="1">
@@ -6303,139 +6276,139 @@
       <c r="H108" s="1">
         <v>3352000000</v>
       </c>
-      <c r="I108" s="30"/>
-      <c r="J108" s="30"/>
-      <c r="K108" s="30"/>
-      <c r="L108" s="30"/>
-      <c r="M108" s="68">
+      <c r="I108" s="26"/>
+      <c r="J108" s="26"/>
+      <c r="K108" s="26"/>
+      <c r="L108" s="26"/>
+      <c r="M108" s="42">
         <f>M107*(1+P108)/(P109-P108)</f>
-        <v>91758677473.509232</v>
-      </c>
-      <c r="N108" s="40" t="s">
+        <v>92325774330.992386</v>
+      </c>
+      <c r="N108" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="O108" s="35" t="s">
+      <c r="O108" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="P108" s="36">
+      <c r="P108" s="63">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="I109" s="68">
+      <c r="I109" s="42">
         <f t="shared" ref="I109:K109" si="26">I108+I107</f>
         <v>3902000000</v>
       </c>
-      <c r="J109" s="68">
+      <c r="J109" s="42">
         <f t="shared" si="26"/>
         <v>4668000000</v>
       </c>
-      <c r="K109" s="68">
+      <c r="K109" s="42">
         <f t="shared" si="26"/>
         <v>5525000000</v>
       </c>
-      <c r="L109" s="68">
+      <c r="L109" s="42">
         <f>L108+L107</f>
         <v>6378000000</v>
       </c>
-      <c r="M109" s="68">
+      <c r="M109" s="42">
         <f>M108+M107</f>
-        <v>99331677473.509232</v>
-      </c>
-      <c r="N109" s="40" t="s">
+        <v>99898774330.992386</v>
+      </c>
+      <c r="N109" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="O109" s="29" t="s">
+      <c r="O109" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="P109" s="37">
+      <c r="P109" s="61">
         <f>P105</f>
-        <v>0.10959499650309351</v>
+        <v>0.10907538475844986</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="I110" s="76" t="s">
+      <c r="I110" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="J110" s="77"/>
+      <c r="J110" s="74"/>
     </row>
     <row r="111" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I111" s="31" t="s">
+      <c r="I111" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="J111" s="34">
+      <c r="J111" s="56">
         <f>NPV(P109,I109,J109,K109,L109,M109)</f>
-        <v>74615975213.700043</v>
+        <v>75111174803.137756</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I112" s="31" t="s">
+      <c r="I112" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="J112" s="34">
+      <c r="J112" s="56">
         <f>G41</f>
         <v>9622000000</v>
       </c>
     </row>
     <row r="113" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I113" s="31" t="s">
+      <c r="I113" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="J113" s="34">
+      <c r="J113" s="56">
         <f>P99</f>
         <v>2341000000</v>
       </c>
     </row>
     <row r="114" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I114" s="31" t="s">
+      <c r="I114" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="J114" s="34">
+      <c r="J114" s="56">
         <f>J111+J112-J113</f>
-        <v>81896975213.700043</v>
+        <v>82392174803.137756</v>
       </c>
     </row>
     <row r="115" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I115" s="31" t="s">
+      <c r="I115" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="J115" s="48">
+      <c r="J115" s="65">
         <f>G35*(1+(5*0.05))</f>
         <v>769863750</v>
       </c>
     </row>
     <row r="116" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I116" s="32" t="s">
+      <c r="I116" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="J116" s="59">
+      <c r="J116" s="67">
         <f>J114/J115</f>
-        <v>106.37853154366606</v>
+        <v>107.0217617119104</v>
       </c>
     </row>
     <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I117" s="31" t="s">
+      <c r="I117" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="J117" s="58" cm="1">
+      <c r="J117" s="68" cm="1">
         <f t="array" ref="J117">_FV(A1,"Price")</f>
-        <v>124.73</v>
+        <v>128.16</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I118" s="33" t="s">
+      <c r="I118" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="J118" s="42">
+      <c r="J118" s="69">
         <f>J116/J117-1</f>
-        <v>-0.14712954747321372</v>
+        <v>-0.16493631623041194</v>
       </c>
     </row>
     <row r="119" spans="9:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I119" s="33" t="s">
+      <c r="I119" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="J119" s="43" t="str">
+      <c r="J119" s="70" t="str">
         <f>IF(J116&gt;J117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/Airbnb.xlsx
+++ b/Technology/Software/Airbnb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144286EA-A52C-1E41-9346-241AB81A9FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AD76E4-BC29-2C4C-8F40-31C8D86B2EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2138,7 +2138,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2152,10 +2151,12 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2169,14 +2170,14 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -2186,6 +2187,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2313,11 +2315,11 @@
     <v>Powered by Refinitiv</v>
     <v>144.63</v>
     <v>81.91</v>
-    <v>1.6140000000000001</v>
-    <v>3.06</v>
-    <v>2.4460000000000003E-2</v>
-    <v>0.04</v>
-    <v>3.121E-4</v>
+    <v>1.615</v>
+    <v>2.16</v>
+    <v>1.6854000000000001E-2</v>
+    <v>-0.14000000000000001</v>
+    <v>-1.0739999999999999E-3</v>
     <v>USD</v>
     <v>Airbnb, Inc. primarily operates a global platform for stays and experiences. The Company’s marketplace model connects hosts and guests online or through mobile devices to book spaces and experiences around the world. It partners with hosts throughout the process of setting up their listing and provide them with a range of tools to manage their listings, including scheduling, merchandising, integrated payments, community support, host protections, pricing guidance, and feedback from reviews. Its Website and mobile applications provide its guests a way to explore a variety of homes and experiences and an easy way to book them. Its hosts generally fall into two categories: individual and professional. Individual hosts list their spaces, including private rooms, primary homes, or vacation homes, on Airbnb. Professional hosts are often those who run property management or hospitality businesses and generally use application programming interfaces to list their properties on its platform.</v>
     <v>6811</v>
@@ -2325,25 +2327,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>888 Brannan St., SAN FRANCISCO, CA, 94103 US</v>
-    <v>131.13999999999999</v>
+    <v>131.62</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45107.999744085158</v>
+    <v>45114.998710497654</v>
     <v>0</v>
-    <v>127.02</v>
-    <v>81952527168</v>
+    <v>128.06</v>
+    <v>83333740000</v>
     <v>AIRBNB, INC.</v>
     <v>AIRBNB, INC.</v>
-    <v>127.25</v>
-    <v>41.692799999999998</v>
-    <v>125.1</v>
     <v>128.16</v>
-    <v>128.19999999999999</v>
+    <v>42.712600000000002</v>
+    <v>128.16</v>
+    <v>130.32</v>
+    <v>130.18</v>
     <v>639454800</v>
     <v>ABNB</v>
     <v>AIRBNB, INC. (XNAS:ABNB)</v>
-    <v>4604635</v>
-    <v>5878730</v>
+    <v>3149193</v>
+    <v>5735790</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2931,10 +2933,10 @@
   <dimension ref="A1:AM119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3632,15 +3634,15 @@
       </c>
       <c r="O17" s="38">
         <f>P101/H4</f>
-        <v>8.6147931428571436</v>
+        <v>8.7599852832965421</v>
       </c>
       <c r="P17" s="38">
         <f>P101/H29</f>
-        <v>35.99144803162055</v>
+        <v>36.598041282389111</v>
       </c>
       <c r="Q17" s="39">
         <f>P101/H108</f>
-        <v>24.448844620525058</v>
+        <v>24.860900954653939</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3749,15 +3751,15 @@
       </c>
       <c r="O20" s="38">
         <f>P101/I4</f>
-        <v>7.6185299960955657</v>
+        <v>7.7469313005484803</v>
       </c>
       <c r="P20" s="40">
         <f>P101/I29</f>
-        <v>31.243815161265726</v>
+        <v>31.770392680137249</v>
       </c>
       <c r="Q20" s="39">
         <f>P101/I106</f>
-        <v>21.636826992104734</v>
+        <v>22.001490097904945</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3895,7 +3897,7 @@
       </c>
       <c r="Q23" s="73">
         <f>H108/P101</f>
-        <v>4.0901728303368967E-2</v>
+        <v>4.0223803707837909E-2</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -5798,7 +5800,7 @@
       </c>
       <c r="P94" s="54">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -5829,7 +5831,7 @@
       </c>
       <c r="P95" s="55" cm="1">
         <f t="array" ref="P95">_FV(A1,"Beta")</f>
-        <v>1.6140000000000001</v>
+        <v>1.615</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -5890,7 +5892,7 @@
       </c>
       <c r="P97" s="53">
         <f>(P94)+((P95)*(P96-P94))</f>
-        <v>0.11191244</v>
+        <v>0.11080785000000001</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -5980,7 +5982,7 @@
       </c>
       <c r="P100" s="53">
         <f>P99/P103</f>
-        <v>2.7772001939535686E-2</v>
+        <v>2.7324273175500739E-2</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6011,7 +6013,7 @@
       </c>
       <c r="P101" s="56" cm="1">
         <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>81952527168</v>
+        <v>83333740000</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6042,7 +6044,7 @@
       </c>
       <c r="P102" s="53">
         <f>P101/P103</f>
-        <v>0.97222799806046434</v>
+        <v>0.97267572682449921</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6073,7 +6075,7 @@
       </c>
       <c r="P103" s="57">
         <f>P99+P101</f>
-        <v>84293527168</v>
+        <v>85674740000</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6132,7 +6134,7 @@
       </c>
       <c r="P105" s="59">
         <f>(P100*P92)+(P102*P97)</f>
-        <v>0.10907538475844986</v>
+        <v>0.1080467147121576</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -6282,7 +6284,7 @@
       <c r="L108" s="26"/>
       <c r="M108" s="42">
         <f>M107*(1+P108)/(P109-P108)</f>
-        <v>92325774330.992386</v>
+        <v>93469380780.497452</v>
       </c>
       <c r="N108" s="29" t="s">
         <v>141</v>
@@ -6313,7 +6315,7 @@
       </c>
       <c r="M109" s="42">
         <f>M108+M107</f>
-        <v>99898774330.992386</v>
+        <v>101042380780.49745</v>
       </c>
       <c r="N109" s="29" t="s">
         <v>137</v>
@@ -6323,7 +6325,7 @@
       </c>
       <c r="P109" s="61">
         <f>P105</f>
-        <v>0.10907538475844986</v>
+        <v>0.1080467147121576</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6338,7 +6340,7 @@
       </c>
       <c r="J111" s="56">
         <f>NPV(P109,I109,J109,K109,L109,M109)</f>
-        <v>75111174803.137756</v>
+        <v>76109986794.487518</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6365,7 +6367,7 @@
       </c>
       <c r="J114" s="56">
         <f>J111+J112-J113</f>
-        <v>82392174803.137756</v>
+        <v>83390986794.487518</v>
       </c>
     </row>
     <row r="115" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6383,7 +6385,7 @@
       </c>
       <c r="J116" s="67">
         <f>J114/J115</f>
-        <v>107.0217617119104</v>
+        <v>108.31914971251409</v>
       </c>
     </row>
     <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6392,7 +6394,7 @@
       </c>
       <c r="J117" s="68" cm="1">
         <f t="array" ref="J117">_FV(A1,"Price")</f>
-        <v>128.16</v>
+        <v>130.32</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6401,7 +6403,7 @@
       </c>
       <c r="J118" s="69">
         <f>J116/J117-1</f>
-        <v>-0.16493631623041194</v>
+        <v>-0.16882174867622701</v>
       </c>
     </row>
     <row r="119" spans="9:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">

--- a/Technology/Software/Airbnb.xlsx
+++ b/Technology/Software/Airbnb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AD76E4-BC29-2C4C-8F40-31C8D86B2EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1A4355-26FA-AD4F-890B-4431D72F7F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1083,7 +1083,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1093,12 +1093,21 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2800"/>
-              <a:t>ABNB</a:t>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Airbnb</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.45940028181449682"/>
+          <c:y val="2.5008686306617435E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1112,7 +1121,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -1132,10 +1141,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.3294314381270907E-2"/>
-          <c:y val="0.14431654676258993"/>
-          <c:w val="0.85821070234113728"/>
-          <c:h val="0.69052701146169693"/>
+          <c:x val="9.7252049215628758E-2"/>
+          <c:y val="0.13697824178651727"/>
+          <c:w val="0.83685009930339216"/>
+          <c:h val="0.72444519224962645"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1189,12 +1198,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$4:$G$4</c:f>
+              <c:f>'Sheet 1'!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2561721000</c:v>
                 </c:pt>
@@ -1213,12 +1252,15 @@
                 <c:pt idx="5">
                   <c:v>8399000000</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>9514000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-44E5-E441-9589-5796F7243A58}"/>
+              <c16:uniqueId val="{00000000-22AC-5A45-BE43-DB1CBF0F3BCA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1227,11 +1269,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$20</c:f>
+              <c:f>'Sheet 1'!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1269,36 +1311,69 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$20:$G$20</c:f>
+              <c:f>'Sheet 1'!$B$29:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>36646000</c:v>
+                  <c:v>-70046000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155577000</c:v>
+                  <c:v>-16860000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-287573000</c:v>
+                  <c:v>-674339000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4384374000</c:v>
+                  <c:v>-4584716000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>275711000</c:v>
+                  <c:v>-352034000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2094000000</c:v>
+                  <c:v>1893000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2349000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-44E5-E441-9589-5796F7243A58}"/>
+              <c16:uniqueId val="{00000001-22AC-5A45-BE43-DB1CBF0F3BCA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1349,12 +1424,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$108:$G$108</c:f>
+              <c:f>'Sheet 1'!$B$108:$H$108</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>151021000</c:v>
                 </c:pt>
@@ -1373,12 +1478,15 @@
                 <c:pt idx="5">
                   <c:v>3405000000</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>3352000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-44E5-E441-9589-5796F7243A58}"/>
+              <c16:uniqueId val="{00000002-22AC-5A45-BE43-DB1CBF0F3BCA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1392,11 +1500,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="809251248"/>
-        <c:axId val="808933104"/>
+        <c:axId val="1522505984"/>
+        <c:axId val="1522507712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="809251248"/>
+        <c:axId val="1522505984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1424,7 +1532,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1436,7 +1544,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="808933104"/>
+        <c:crossAx val="1522507712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1444,7 +1552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="808933104"/>
+        <c:axId val="1522507712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1480,7 +1588,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1492,7 +1600,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="809251248"/>
+        <c:crossAx val="1522505984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1510,10 +1618,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.29820359202591312"/>
-          <c:y val="0.89229215053154332"/>
-          <c:w val="0.47299717120519252"/>
-          <c:h val="5.4485490226181904E-2"/>
+          <c:x val="0.34362678528695034"/>
+          <c:y val="0.8985800404865032"/>
+          <c:w val="0.31274642942609926"/>
+          <c:h val="6.2376588490769339E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1529,7 +1637,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -2093,22 +2201,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>33866</xdr:colOff>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>12699</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F34882-052D-33E8-7D67-B51B0FC63E19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D61AAF7-508B-E6A1-24E5-3B53A35709B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2136,8 +2244,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2146,21 +2253,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2170,24 +2278,12 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2316,10 +2412,8 @@
     <v>144.63</v>
     <v>81.91</v>
     <v>1.615</v>
-    <v>2.16</v>
-    <v>1.6854000000000001E-2</v>
-    <v>-0.14000000000000001</v>
-    <v>-1.0739999999999999E-3</v>
+    <v>1.39</v>
+    <v>1.0666E-2</v>
     <v>USD</v>
     <v>Airbnb, Inc. primarily operates a global platform for stays and experiences. The Company’s marketplace model connects hosts and guests online or through mobile devices to book spaces and experiences around the world. It partners with hosts throughout the process of setting up their listing and provide them with a range of tools to manage their listings, including scheduling, merchandising, integrated payments, community support, host protections, pricing guidance, and feedback from reviews. Its Website and mobile applications provide its guests a way to explore a variety of homes and experiences and an easy way to book them. Its hosts generally fall into two categories: individual and professional. Individual hosts list their spaces, including private rooms, primary homes, or vacation homes, on Airbnb. Professional hosts are often those who run property management or hospitality businesses and generally use application programming interfaces to list their properties on its platform.</v>
     <v>6811</v>
@@ -2327,25 +2421,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>888 Brannan St., SAN FRANCISCO, CA, 94103 US</v>
-    <v>131.62</v>
+    <v>133.339</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45114.998710497654</v>
+    <v>45117.999785497654</v>
     <v>0</v>
-    <v>128.06</v>
-    <v>83333740000</v>
+    <v>129.61000000000001</v>
+    <v>84222591708</v>
     <v>AIRBNB, INC.</v>
     <v>AIRBNB, INC.</v>
-    <v>128.16</v>
-    <v>42.712600000000002</v>
-    <v>128.16</v>
+    <v>130.18</v>
+    <v>43.895699999999998</v>
     <v>130.32</v>
-    <v>130.18</v>
+    <v>131.71</v>
     <v>639454800</v>
     <v>ABNB</v>
     <v>AIRBNB, INC. (XNAS:ABNB)</v>
-    <v>3149193</v>
-    <v>5735790</v>
+    <v>942</v>
+    <v>5451235</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2377,8 +2470,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2399,7 +2490,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2416,7 +2506,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2427,16 +2517,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2502,19 +2589,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2559,9 +2640,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2569,9 +2647,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2933,10 +3008,10 @@
   <dimension ref="A1:AM119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I102" sqref="I102"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3105,13 +3180,13 @@
         <v>8399000000</v>
       </c>
       <c r="H4" s="15">
-        <v>9513000000</v>
+        <v>9514000000</v>
       </c>
       <c r="I4" s="15">
-        <v>10757000000</v>
+        <v>10755000000</v>
       </c>
       <c r="J4" s="15">
-        <v>12341000000</v>
+        <v>12328000000</v>
       </c>
       <c r="K4" s="15">
         <v>14474000000</v>
@@ -3120,7 +3195,7 @@
         <v>16285000000</v>
       </c>
       <c r="M4" s="15">
-        <v>18012000000</v>
+        <v>18425000000</v>
       </c>
       <c r="N4" s="31" t="s">
         <v>106</v>
@@ -3162,19 +3237,19 @@
       </c>
       <c r="H5" s="16">
         <f t="shared" si="0"/>
-        <v>0.13263483748065252</v>
+        <v>0.13275389927372316</v>
       </c>
       <c r="I5" s="16">
         <f>(I4/H4)-1</f>
-        <v>0.13076842215915074</v>
+        <v>0.13043935253310912</v>
       </c>
       <c r="J5" s="16">
         <f t="shared" si="0"/>
-        <v>0.14725295156642182</v>
+        <v>0.1462575546257554</v>
       </c>
       <c r="K5" s="16">
         <f t="shared" si="0"/>
-        <v>0.17283850579369586</v>
+        <v>0.17407527579493842</v>
       </c>
       <c r="L5" s="16">
         <f t="shared" ref="L5" si="1">(L4/K4)-1</f>
@@ -3182,15 +3257,15 @@
       </c>
       <c r="M5" s="16">
         <f t="shared" ref="M5" si="2">(M4/L4)-1</f>
-        <v>0.10604851089960077</v>
+        <v>0.1314092723365059</v>
       </c>
       <c r="N5" s="30">
         <f>(G5+F5+H5)/3</f>
-        <v>0.43601612878780965</v>
+        <v>0.43605581605216653</v>
       </c>
       <c r="O5" s="30">
         <f>(G21+F21+H21)/3</f>
-        <v>2.0288218349181055</v>
+        <v>2.0283442799992901</v>
       </c>
       <c r="P5" s="30">
         <f>(G30+F30+E30)/3</f>
@@ -3310,7 +3385,7 @@
       </c>
       <c r="O8" s="30">
         <f>H22</f>
-        <v>0.34216335540838855</v>
+        <v>0.34181206642842127</v>
       </c>
       <c r="P8" s="30">
         <f>G31</f>
@@ -3318,7 +3393,7 @@
       </c>
       <c r="Q8" s="19">
         <f>H108/H4</f>
-        <v>0.35235992851886894</v>
+        <v>0.35232289257935673</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -3634,15 +3709,15 @@
       </c>
       <c r="O17" s="38">
         <f>P101/H4</f>
-        <v>8.7599852832965421</v>
+        <v>8.8524901942400671</v>
       </c>
       <c r="P17" s="38">
         <f>P101/H29</f>
-        <v>36.598041282389111</v>
+        <v>35.854658028097063</v>
       </c>
       <c r="Q17" s="39">
         <f>P101/H108</f>
-        <v>24.860900954653939</v>
+        <v>25.126071511933173</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3728,22 +3803,22 @@
         <v>2094000000</v>
       </c>
       <c r="H20" s="46">
-        <v>3255000000</v>
+        <v>3252000000</v>
       </c>
       <c r="I20" s="46">
-        <v>3883000001</v>
+        <v>3833000000</v>
       </c>
       <c r="J20" s="46">
-        <v>4701000002</v>
+        <v>4571000000</v>
       </c>
       <c r="K20" s="46">
         <v>5324000003</v>
       </c>
       <c r="L20" s="46">
-        <v>6543000004</v>
+        <v>6432000000</v>
       </c>
       <c r="M20" s="46">
-        <v>7942000005</v>
+        <v>7193000000</v>
       </c>
       <c r="N20" s="33">
         <f>G41-G57-G62</f>
@@ -3751,15 +3826,15 @@
       </c>
       <c r="O20" s="38">
         <f>P101/I4</f>
-        <v>7.7469313005484803</v>
+        <v>7.8310173601115762</v>
       </c>
       <c r="P20" s="40">
         <f>P101/I29</f>
-        <v>31.770392680137249</v>
+        <v>32.109261040030496</v>
       </c>
       <c r="Q20" s="39">
         <f>P101/I106</f>
-        <v>22.001490097904945</v>
+        <v>22.012213406071037</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3789,27 +3864,27 @@
       </c>
       <c r="H21" s="16">
         <f t="shared" si="5"/>
-        <v>0.55444126074498556</v>
+        <v>0.55300859598853869</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" ref="I21" si="6">(I20/H20)-1</f>
-        <v>0.19293394807987707</v>
+        <v>0.17865928659286601</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" ref="J21" si="7">(J20/I20)-1</f>
-        <v>0.21066185959035244</v>
+        <v>0.1925384816070963</v>
       </c>
       <c r="K21" s="16">
         <f t="shared" ref="K21" si="8">(K20/J20)-1</f>
-        <v>0.13252499483832159</v>
+        <v>0.16473419448698312</v>
       </c>
       <c r="L21" s="16">
         <f t="shared" ref="L21" si="9">(L20/K20)-1</f>
-        <v>0.22896318563356699</v>
+        <v>0.20811419916898144</v>
       </c>
       <c r="M21" s="16">
         <f t="shared" ref="M21" si="10">(M20/L20)-1</f>
-        <v>0.2138162922428144</v>
+        <v>0.11831467661691542</v>
       </c>
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
@@ -3839,15 +3914,15 @@
       </c>
       <c r="H22" s="47">
         <f>H20/H4</f>
-        <v>0.34216335540838855</v>
+        <v>0.34181206642842127</v>
       </c>
       <c r="I22" s="47">
         <f t="shared" ref="I22:M22" si="11">I20/I4</f>
-        <v>0.36097424941898298</v>
+        <v>0.35639237563923759</v>
       </c>
       <c r="J22" s="47">
         <f t="shared" si="11"/>
-        <v>0.38092537087756262</v>
+        <v>0.37078195976638545</v>
       </c>
       <c r="K22" s="47">
         <f t="shared" si="11"/>
@@ -3855,11 +3930,11 @@
       </c>
       <c r="L22" s="47">
         <f t="shared" si="11"/>
-        <v>0.40178078010439056</v>
+        <v>0.39496469143383484</v>
       </c>
       <c r="M22" s="47">
         <f t="shared" si="11"/>
-        <v>0.44092827031978682</v>
+        <v>0.39039348710990501</v>
       </c>
       <c r="P22" s="71" t="s">
         <v>167</v>
@@ -3897,7 +3972,7 @@
       </c>
       <c r="Q23" s="73">
         <f>H108/P101</f>
-        <v>4.0223803707837909E-2</v>
+        <v>3.9799297694630378E-2</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -4043,7 +4118,7 @@
         <v>1893000000</v>
       </c>
       <c r="H29" s="43">
-        <v>2277000000</v>
+        <v>2349000000</v>
       </c>
       <c r="I29" s="43">
         <v>2623000000</v>
@@ -4055,10 +4130,10 @@
         <v>3758000000</v>
       </c>
       <c r="L29" s="43">
-        <v>4588000000</v>
+        <v>4449000000</v>
       </c>
       <c r="M29" s="43">
-        <v>5726000000</v>
+        <v>4860000000</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -4088,11 +4163,11 @@
       </c>
       <c r="H30" s="16">
         <f t="shared" ref="H30" si="13">(H29/G29)-1</f>
-        <v>0.20285261489698891</v>
+        <v>0.24088748019017436</v>
       </c>
       <c r="I30" s="16">
         <f t="shared" ref="I30" si="14">(I29/H29)-1</f>
-        <v>0.15195432586736946</v>
+        <v>0.1166453810131971</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" ref="J30" si="15">(J29/I29)-1</f>
@@ -4104,11 +4179,11 @@
       </c>
       <c r="L30" s="16">
         <f t="shared" ref="L30" si="17">(L29/K29)-1</f>
-        <v>0.22086216072378928</v>
+        <v>0.18387440127727506</v>
       </c>
       <c r="M30" s="16">
         <f t="shared" ref="M30" si="18">(M29/L29)-1</f>
-        <v>0.24803836094158682</v>
+        <v>9.2380310182063274E-2</v>
       </c>
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
@@ -4138,15 +4213,15 @@
       </c>
       <c r="H31" s="44">
         <f>H29/H4</f>
-        <v>0.23935666982024598</v>
+        <v>0.24689930628547405</v>
       </c>
       <c r="I31" s="44">
         <f t="shared" ref="I31:M31" si="19">I29/I4</f>
-        <v>0.24384121967091196</v>
+        <v>0.24388656438865644</v>
       </c>
       <c r="J31" s="44">
         <f t="shared" si="19"/>
-        <v>0.2566242605947654</v>
+        <v>0.25689487345879297</v>
       </c>
       <c r="K31" s="44">
         <f t="shared" si="19"/>
@@ -4154,11 +4229,11 @@
       </c>
       <c r="L31" s="44">
         <f t="shared" si="19"/>
-        <v>0.28173165489714463</v>
+        <v>0.27319619281547436</v>
       </c>
       <c r="M31" s="44">
         <f t="shared" si="19"/>
-        <v>0.31789917832556075</v>
+        <v>0.26377204884667571</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -4184,10 +4259,10 @@
         <v>3.07</v>
       </c>
       <c r="H32" s="45">
-        <v>3.5</v>
+        <v>3.73</v>
       </c>
       <c r="I32" s="45">
-        <v>4.03</v>
+        <v>4.16</v>
       </c>
       <c r="J32" s="45">
         <v>5.0199999999999996</v>
@@ -4196,10 +4271,10 @@
         <v>5.96</v>
       </c>
       <c r="L32" s="45">
-        <v>7.28</v>
+        <v>7.06</v>
       </c>
       <c r="M32" s="45">
-        <v>9.09</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -5800,7 +5875,7 @@
       </c>
       <c r="P94" s="54">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -5892,7 +5967,7 @@
       </c>
       <c r="P97" s="53">
         <f>(P94)+((P95)*(P96-P94))</f>
-        <v>0.11080785000000001</v>
+        <v>0.11076480000000001</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -5982,7 +6057,7 @@
       </c>
       <c r="P100" s="53">
         <f>P99/P103</f>
-        <v>2.7324273175500739E-2</v>
+        <v>2.7043702251828471E-2</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6013,7 +6088,7 @@
       </c>
       <c r="P101" s="56" cm="1">
         <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>83333740000</v>
+        <v>84222591708</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6044,7 +6119,7 @@
       </c>
       <c r="P102" s="53">
         <f>P101/P103</f>
-        <v>0.97267572682449921</v>
+        <v>0.97295629774817149</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6075,7 +6150,7 @@
       </c>
       <c r="P103" s="57">
         <f>P99+P101</f>
-        <v>85674740000</v>
+        <v>86563591708</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6134,7 +6209,7 @@
       </c>
       <c r="P105" s="59">
         <f>(P100*P92)+(P102*P97)</f>
-        <v>0.1080467147121576</v>
+        <v>0.10803318081490015</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -6166,27 +6241,27 @@
         <v>2174730015.0829563</v>
       </c>
       <c r="H106" s="15">
-        <v>3333000000</v>
+        <v>3352000000</v>
       </c>
       <c r="I106" s="27">
         <f>H106*(1+$P$107)</f>
-        <v>3787640729.2947545</v>
+        <v>3826175503.3126812</v>
       </c>
       <c r="J106" s="27">
         <f t="shared" ref="J106:M106" si="24">I106*(1+$P$107)</f>
-        <v>4304297117.9755478</v>
+        <v>4367428097.3001337</v>
       </c>
       <c r="K106" s="27">
         <f t="shared" si="24"/>
-        <v>4891428465.3555994</v>
+        <v>4985246538.8929844</v>
       </c>
       <c r="L106" s="27">
         <f t="shared" si="24"/>
-        <v>5558647968.7406549</v>
+        <v>5690461869.059268</v>
       </c>
       <c r="M106" s="27">
         <f t="shared" si="24"/>
-        <v>6316880121.8762856</v>
+        <v>6495437292.9383841</v>
       </c>
       <c r="N106" s="26" t="s">
         <v>164</v>
@@ -6228,19 +6303,19 @@
         <v>-1.5565345080763571E-2</v>
       </c>
       <c r="I107" s="41">
-        <v>3902000000</v>
+        <v>3904000000</v>
       </c>
       <c r="J107" s="41">
-        <v>4668000000</v>
+        <v>4641000000</v>
       </c>
       <c r="K107" s="41">
-        <v>5525000000</v>
+        <v>5522000000</v>
       </c>
       <c r="L107" s="41">
         <v>6378000000</v>
       </c>
       <c r="M107" s="41">
-        <v>7573000000</v>
+        <v>7181000000</v>
       </c>
       <c r="N107" s="26" t="s">
         <v>165</v>
@@ -6250,7 +6325,7 @@
       </c>
       <c r="P107" s="61">
         <f>(SUM(I5:M5)/5)</f>
-        <v>0.13640585937436386</v>
+        <v>0.14146047234865181</v>
       </c>
     </row>
     <row r="108" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6284,7 +6359,7 @@
       <c r="L108" s="26"/>
       <c r="M108" s="42">
         <f>M107*(1+P108)/(P109-P108)</f>
-        <v>93469380780.497452</v>
+        <v>88645586351.898087</v>
       </c>
       <c r="N108" s="29" t="s">
         <v>141</v>
@@ -6299,15 +6374,15 @@
     <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="I109" s="42">
         <f t="shared" ref="I109:K109" si="26">I108+I107</f>
-        <v>3902000000</v>
+        <v>3904000000</v>
       </c>
       <c r="J109" s="42">
         <f t="shared" si="26"/>
-        <v>4668000000</v>
+        <v>4641000000</v>
       </c>
       <c r="K109" s="42">
         <f t="shared" si="26"/>
-        <v>5525000000</v>
+        <v>5522000000</v>
       </c>
       <c r="L109" s="42">
         <f>L108+L107</f>
@@ -6315,7 +6390,7 @@
       </c>
       <c r="M109" s="42">
         <f>M108+M107</f>
-        <v>101042380780.49745</v>
+        <v>95826586351.898087</v>
       </c>
       <c r="N109" s="29" t="s">
         <v>137</v>
@@ -6325,7 +6400,7 @@
       </c>
       <c r="P109" s="61">
         <f>P105</f>
-        <v>0.1080467147121576</v>
+        <v>0.10803318081490015</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6340,7 +6415,7 @@
       </c>
       <c r="J111" s="56">
         <f>NPV(P109,I109,J109,K109,L109,M109)</f>
-        <v>76109986794.487518</v>
+        <v>72968891211.210129</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6367,7 +6442,7 @@
       </c>
       <c r="J114" s="56">
         <f>J111+J112-J113</f>
-        <v>83390986794.487518</v>
+        <v>80249891211.210129</v>
       </c>
     </row>
     <row r="115" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6385,7 +6460,7 @@
       </c>
       <c r="J116" s="67">
         <f>J114/J115</f>
-        <v>108.31914971251409</v>
+        <v>104.23908283928179</v>
       </c>
     </row>
     <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6394,7 +6469,7 @@
       </c>
       <c r="J117" s="68" cm="1">
         <f t="array" ref="J117">_FV(A1,"Price")</f>
-        <v>130.32</v>
+        <v>131.71</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6403,7 +6478,7 @@
       </c>
       <c r="J118" s="69">
         <f>J116/J117-1</f>
-        <v>-0.16882174867622701</v>
+        <v>-0.20857123347291939</v>
       </c>
     </row>
     <row r="119" spans="9:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">

--- a/Technology/Software/Airbnb.xlsx
+++ b/Technology/Software/Airbnb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1A4355-26FA-AD4F-890B-4431D72F7F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63B87C3-3704-2B4D-BF08-921E18A7DCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2254,6 +2254,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2265,7 +2266,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2284,6 +2285,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2409,11 +2411,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>144.63</v>
+    <v>150.78</v>
     <v>81.91</v>
-    <v>1.615</v>
-    <v>1.39</v>
-    <v>1.0666E-2</v>
+    <v>1.6220000000000001</v>
+    <v>1.03</v>
+    <v>6.9769999999999997E-3</v>
+    <v>-0.3</v>
+    <v>-2.0180000000000003E-3</v>
     <v>USD</v>
     <v>Airbnb, Inc. primarily operates a global platform for stays and experiences. The Company’s marketplace model connects hosts and guests online or through mobile devices to book spaces and experiences around the world. It partners with hosts throughout the process of setting up their listing and provide them with a range of tools to manage their listings, including scheduling, merchandising, integrated payments, community support, host protections, pricing guidance, and feedback from reviews. Its Website and mobile applications provide its guests a way to explore a variety of homes and experiences and an easy way to book them. Its hosts generally fall into two categories: individual and professional. Individual hosts list their spaces, including private rooms, primary homes, or vacation homes, on Airbnb. Professional hosts are often those who run property management or hospitality businesses and generally use application programming interfaces to list their properties on its platform.</v>
     <v>6811</v>
@@ -2421,24 +2425,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>888 Brannan St., SAN FRANCISCO, CA, 94103 US</v>
-    <v>133.339</v>
+    <v>150.78</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45117.999785497654</v>
+    <v>45132.99997861094</v>
     <v>0</v>
-    <v>129.61000000000001</v>
-    <v>84222591708</v>
+    <v>147.46</v>
+    <v>95054956020</v>
     <v>AIRBNB, INC.</v>
     <v>AIRBNB, INC.</v>
-    <v>130.18</v>
-    <v>43.895699999999998</v>
-    <v>130.32</v>
-    <v>131.71</v>
+    <v>147.61000000000001</v>
+    <v>49.198099999999997</v>
+    <v>147.62</v>
+    <v>148.65</v>
+    <v>148.35</v>
     <v>639454800</v>
     <v>ABNB</v>
     <v>AIRBNB, INC. (XNAS:ABNB)</v>
-    <v>942</v>
-    <v>5451235</v>
+    <v>4121251</v>
+    <v>5296107</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2470,6 +2475,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2490,6 +2497,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2506,7 +2514,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2517,13 +2525,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2589,13 +2600,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2640,6 +2657,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2647,6 +2667,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3008,10 +3031,10 @@
   <dimension ref="A1:AM119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3709,15 +3732,15 @@
       </c>
       <c r="O17" s="38">
         <f>P101/H4</f>
-        <v>8.8524901942400671</v>
+        <v>9.9910611751103637</v>
       </c>
       <c r="P17" s="38">
         <f>P101/H29</f>
-        <v>35.854658028097063</v>
+        <v>40.466137088122608</v>
       </c>
       <c r="Q17" s="39">
         <f>P101/H108</f>
-        <v>25.126071511933173</v>
+        <v>28.35768377684964</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3773,7 +3796,7 @@
       <c r="O19" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="P19" s="35" t="s">
+      <c r="P19" s="21" t="s">
         <v>159</v>
       </c>
       <c r="Q19" s="32" t="s">
@@ -3826,15 +3849,15 @@
       </c>
       <c r="O20" s="38">
         <f>P101/I4</f>
-        <v>7.8310173601115762</v>
+        <v>8.8382106945606687</v>
       </c>
       <c r="P20" s="40">
         <f>P101/I29</f>
-        <v>32.109261040030496</v>
+        <v>36.239022500953105</v>
       </c>
       <c r="Q20" s="39">
         <f>P101/I106</f>
-        <v>22.012213406071037</v>
+        <v>24.843334012698048</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3972,7 +3995,7 @@
       </c>
       <c r="Q23" s="73">
         <f>H108/P101</f>
-        <v>3.9799297694630378E-2</v>
+        <v>3.526381096104788E-2</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -5875,7 +5898,7 @@
       </c>
       <c r="P94" s="54">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -5906,7 +5929,7 @@
       </c>
       <c r="P95" s="55" cm="1">
         <f t="array" ref="P95">_FV(A1,"Beta")</f>
-        <v>1.615</v>
+        <v>1.6220000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -5967,7 +5990,7 @@
       </c>
       <c r="P97" s="53">
         <f>(P94)+((P95)*(P96-P94))</f>
-        <v>0.11076480000000001</v>
+        <v>0.11191536000000001</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6057,7 +6080,7 @@
       </c>
       <c r="P100" s="53">
         <f>P99/P103</f>
-        <v>2.7043702251828471E-2</v>
+        <v>2.4035905551553719E-2</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6088,7 +6111,7 @@
       </c>
       <c r="P101" s="56" cm="1">
         <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>84222591708</v>
+        <v>95054956020</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6119,7 +6142,7 @@
       </c>
       <c r="P102" s="53">
         <f>P101/P103</f>
-        <v>0.97295629774817149</v>
+        <v>0.97596409444844623</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6150,7 +6173,7 @@
       </c>
       <c r="P103" s="57">
         <f>P99+P101</f>
-        <v>86563591708</v>
+        <v>97395956020</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6209,7 +6232,7 @@
       </c>
       <c r="P105" s="59">
         <f>(P100*P92)+(P102*P97)</f>
-        <v>0.10803318081490015</v>
+        <v>0.10945989635886469</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -6359,7 +6382,7 @@
       <c r="L108" s="26"/>
       <c r="M108" s="42">
         <f>M107*(1+P108)/(P109-P108)</f>
-        <v>88645586351.898087</v>
+        <v>87148165192.218552</v>
       </c>
       <c r="N108" s="29" t="s">
         <v>141</v>
@@ -6390,7 +6413,7 @@
       </c>
       <c r="M109" s="42">
         <f>M108+M107</f>
-        <v>95826586351.898087</v>
+        <v>94329165192.218552</v>
       </c>
       <c r="N109" s="29" t="s">
         <v>137</v>
@@ -6400,7 +6423,7 @@
       </c>
       <c r="P109" s="61">
         <f>P105</f>
-        <v>0.10803318081490015</v>
+        <v>0.10945989635886469</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6415,7 +6438,7 @@
       </c>
       <c r="J111" s="56">
         <f>NPV(P109,I109,J109,K109,L109,M109)</f>
-        <v>72968891211.210129</v>
+        <v>71658509665.108353</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6442,7 +6465,7 @@
       </c>
       <c r="J114" s="56">
         <f>J111+J112-J113</f>
-        <v>80249891211.210129</v>
+        <v>78939509665.108353</v>
       </c>
     </row>
     <row r="115" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6460,7 +6483,7 @@
       </c>
       <c r="J116" s="67">
         <f>J114/J115</f>
-        <v>104.23908283928179</v>
+        <v>102.53698744110027</v>
       </c>
     </row>
     <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6469,7 +6492,7 @@
       </c>
       <c r="J117" s="68" cm="1">
         <f t="array" ref="J117">_FV(A1,"Price")</f>
-        <v>131.71</v>
+        <v>148.65</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6478,7 +6501,7 @@
       </c>
       <c r="J118" s="69">
         <f>J116/J117-1</f>
-        <v>-0.20857123347291939</v>
+        <v>-0.310211991650856</v>
       </c>
     </row>
     <row r="119" spans="9:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">

--- a/Technology/Software/Airbnb.xlsx
+++ b/Technology/Software/Airbnb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63B87C3-3704-2B4D-BF08-921E18A7DCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBD547D-EA75-7148-A3CC-F84B1EF3B9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="171">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -567,19 +567,25 @@
     <t>Unlevered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>GBV YoY</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
+  </si>
+  <si>
     <t>Shares (5% dilution)</t>
-  </si>
-  <si>
-    <t>Dividend Yield</t>
-  </si>
-  <si>
-    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
@@ -595,7 +601,7 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -707,6 +713,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -881,7 +894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -926,13 +939,8 @@
     </xf>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -965,8 +973,6 @@
     <xf numFmtId="169" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -979,43 +985,17 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1026,23 +1006,108 @@
     <xf numFmtId="170" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1096,18 +1161,9 @@
               <a:rPr lang="en-US" sz="2400"/>
               <a:t>Airbnb</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.45940028181449682"/>
-          <c:y val="2.5008686306617435E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1141,22 +1197,22 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.7252049215628758E-2"/>
-          <c:y val="0.13697824178651727"/>
-          <c:w val="0.83685009930339216"/>
-          <c:h val="0.72444519224962645"/>
+          <c:x val="0.10817733990147782"/>
+          <c:y val="0.15051920418344653"/>
+          <c:w val="0.82088669950738913"/>
+          <c:h val="0.6727777844563323"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$4</c:f>
+              <c:f>'Sheet 1'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1200,10 +1256,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$H$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2017</c:v>
                 </c:pt>
@@ -1224,16 +1280,31 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$4:$H$4</c:f>
+              <c:f>'Sheet 1'!$B$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2561721000</c:v>
                 </c:pt>
@@ -1253,14 +1324,29 @@
                   <c:v>8399000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9514000000</c:v>
+                  <c:v>9845000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11131000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12652000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14335000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16204000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18663000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-22AC-5A45-BE43-DB1CBF0F3BCA}"/>
+              <c16:uniqueId val="{00000000-4FF7-F84B-97F3-A2630AED0A87}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1269,7 +1355,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$29</c:f>
+              <c:f>'Sheet 1'!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1313,10 +1399,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$H$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2017</c:v>
                 </c:pt>
@@ -1337,16 +1423,31 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$29:$H$29</c:f>
+              <c:f>'Sheet 1'!$B$30:$M$30</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-70046000</c:v>
                 </c:pt>
@@ -1366,14 +1467,29 @@
                   <c:v>1893000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2349000000</c:v>
+                  <c:v>2673000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2901000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3372000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4201000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5195000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6122000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-22AC-5A45-BE43-DB1CBF0F3BCA}"/>
+              <c16:uniqueId val="{00000001-4FF7-F84B-97F3-A2630AED0A87}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1382,7 +1498,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$108</c:f>
+              <c:f>'Sheet 1'!$A$109</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1426,10 +1542,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$H$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2017</c:v>
                 </c:pt>
@@ -1450,16 +1566,31 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$108:$H$108</c:f>
+              <c:f>'Sheet 1'!$B$109:$M$109</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>151021000</c:v>
                 </c:pt>
@@ -1479,14 +1610,29 @@
                   <c:v>3405000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3352000000</c:v>
+                  <c:v>3659000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4015000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4740000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5501000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6418000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7528000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-22AC-5A45-BE43-DB1CBF0F3BCA}"/>
+              <c16:uniqueId val="{00000002-4FF7-F84B-97F3-A2630AED0A87}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1498,13 +1644,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1522505984"/>
-        <c:axId val="1522507712"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1541661920"/>
+        <c:axId val="1541667824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1522505984"/>
+        <c:axId val="1541661920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,7 +1690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1522507712"/>
+        <c:crossAx val="1541667824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1552,9 +1698,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1522507712"/>
+        <c:axId val="1541667824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-5000000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1600,7 +1747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1522505984"/>
+        <c:crossAx val="1541661920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1618,10 +1765,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34362678528695034"/>
-          <c:y val="0.8985800404865032"/>
-          <c:w val="0.31274642942609926"/>
-          <c:h val="6.2376588490769339E-2"/>
+          <c:x val="0.34676751612944939"/>
+          <c:y val="0.87939388110837302"/>
+          <c:w val="0.31171937990509807"/>
+          <c:h val="6.259085171605458E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1728,7 +1875,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1966,7 +2113,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2201,22 +2347,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D61AAF7-508B-E6A1-24E5-3B53A35709B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F54300EE-8DD0-087D-4EFD-BE612E12CFC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,38 +2390,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2411,13 +2557,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>150.78</v>
+    <v>154.94999999999999</v>
     <v>81.91</v>
-    <v>1.6220000000000001</v>
-    <v>1.03</v>
-    <v>6.9769999999999997E-3</v>
-    <v>-0.3</v>
-    <v>-2.0180000000000003E-3</v>
+    <v>1.6339999999999999</v>
+    <v>-2.2000000000000002</v>
+    <v>-1.8008E-2</v>
+    <v>-0.51</v>
+    <v>-4.2509999999999996E-3</v>
     <v>USD</v>
     <v>Airbnb, Inc. primarily operates a global platform for stays and experiences. The Company’s marketplace model connects hosts and guests online or through mobile devices to book spaces and experiences around the world. It partners with hosts throughout the process of setting up their listing and provide them with a range of tools to manage their listings, including scheduling, merchandising, integrated payments, community support, host protections, pricing guidance, and feedback from reviews. Its Website and mobile applications provide its guests a way to explore a variety of homes and experiences and an easy way to book them. Its hosts generally fall into two categories: individual and professional. Individual hosts list their spaces, including private rooms, primary homes, or vacation homes, on Airbnb. Professional hosts are often those who run property management or hospitality businesses and generally use application programming interfaces to list their properties on its platform.</v>
     <v>6811</v>
@@ -2425,25 +2571,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>888 Brannan St., SAN FRANCISCO, CA, 94103 US</v>
-    <v>150.78</v>
+    <v>123.48</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45132.99997861094</v>
+    <v>45218.998799003908</v>
     <v>0</v>
-    <v>147.46</v>
-    <v>95054956020</v>
+    <v>119.33</v>
+    <v>77654613492</v>
     <v>AIRBNB, INC.</v>
     <v>AIRBNB, INC.</v>
-    <v>147.61000000000001</v>
-    <v>49.198099999999997</v>
-    <v>147.62</v>
-    <v>148.65</v>
-    <v>148.35</v>
-    <v>639454800</v>
+    <v>122.39</v>
+    <v>35.712699999999998</v>
+    <v>122.17</v>
+    <v>119.97</v>
+    <v>119.46</v>
+    <v>647283600</v>
     <v>ABNB</v>
     <v>AIRBNB, INC. (XNAS:ABNB)</v>
-    <v>4121251</v>
-    <v>5296107</v>
+    <v>4374408</v>
+    <v>7989489</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -3028,13 +3174,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM119"/>
+  <dimension ref="A1:AM121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3149,7 +3295,7 @@
       <c r="G3" s="24">
         <v>63200</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="44">
         <v>64912</v>
       </c>
       <c r="I3" s="1"/>
@@ -3180,1129 +3326,1152 @@
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
     </row>
-    <row r="4" spans="1:39" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="18">
+        <f>(C3/B3)-1</f>
+        <v>0.50863309352517994</v>
+      </c>
+      <c r="D4" s="18">
+        <f>(D3/C3)-1</f>
+        <v>0.40200286123032902</v>
+      </c>
+      <c r="E4" s="18">
+        <f>(E3/D3)-1</f>
+        <v>-0.18741496598639451</v>
+      </c>
+      <c r="F4" s="18">
+        <f t="shared" ref="F4" si="0">(F3/E3)-1</f>
+        <v>0.96232733361239009</v>
+      </c>
+      <c r="G4" s="18">
+        <f t="shared" ref="G4" si="1">(G3/F3)-1</f>
+        <v>0.34812286689419802</v>
+      </c>
+      <c r="H4" s="16">
+        <f t="shared" ref="H4" si="2">(H3/G3)-1</f>
+        <v>2.7088607594936809E-2</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+    </row>
+    <row r="5" spans="1:39" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>2561721000</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>3651985000</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <v>4805239000</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="1">
         <v>3378199000</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F5" s="1">
         <v>5991760000</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G5" s="1">
         <v>8399000000</v>
       </c>
-      <c r="H4" s="15">
-        <v>9514000000</v>
-      </c>
-      <c r="I4" s="15">
-        <v>10755000000</v>
-      </c>
-      <c r="J4" s="15">
-        <v>12328000000</v>
-      </c>
-      <c r="K4" s="15">
-        <v>14474000000</v>
-      </c>
-      <c r="L4" s="15">
-        <v>16285000000</v>
-      </c>
-      <c r="M4" s="15">
-        <v>18425000000</v>
-      </c>
-      <c r="N4" s="31" t="s">
+      <c r="H5" s="15">
+        <v>9845000000</v>
+      </c>
+      <c r="I5" s="15">
+        <v>11131000000</v>
+      </c>
+      <c r="J5" s="15">
+        <v>12652000000</v>
+      </c>
+      <c r="K5" s="15">
+        <v>14335000000</v>
+      </c>
+      <c r="L5" s="15">
+        <v>16204000000</v>
+      </c>
+      <c r="M5" s="15">
+        <v>18663000000</v>
+      </c>
+      <c r="N5" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O5" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P5" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q5" s="21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="6" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="18">
-        <f>(C4/B4)-1</f>
+      <c r="B6" s="1"/>
+      <c r="C6" s="18">
+        <f>(C5/B5)-1</f>
         <v>0.42559825991979605</v>
       </c>
-      <c r="D5" s="18">
-        <f>(D4/C4)-1</f>
+      <c r="D6" s="18">
+        <f>(D5/C5)-1</f>
         <v>0.31578826309527552</v>
       </c>
-      <c r="E5" s="18">
-        <f>(E4/D4)-1</f>
+      <c r="E6" s="18">
+        <f>(E5/D5)-1</f>
         <v>-0.29697586321929048</v>
       </c>
-      <c r="F5" s="18">
-        <f t="shared" ref="F5:K5" si="0">(F4/E4)-1</f>
+      <c r="F6" s="18">
+        <f t="shared" ref="F6:K6" si="3">(F5/E5)-1</f>
         <v>0.77365513399299446</v>
       </c>
-      <c r="G5" s="18">
-        <f t="shared" si="0"/>
+      <c r="G6" s="18">
+        <f t="shared" si="3"/>
         <v>0.40175841488978192</v>
       </c>
-      <c r="H5" s="16">
-        <f t="shared" si="0"/>
-        <v>0.13275389927372316</v>
-      </c>
-      <c r="I5" s="16">
-        <f>(I4/H4)-1</f>
-        <v>0.13043935253310912</v>
-      </c>
-      <c r="J5" s="16">
-        <f t="shared" si="0"/>
-        <v>0.1462575546257554</v>
-      </c>
-      <c r="K5" s="16">
-        <f t="shared" si="0"/>
-        <v>0.17407527579493842</v>
-      </c>
-      <c r="L5" s="16">
-        <f t="shared" ref="L5" si="1">(L4/K4)-1</f>
-        <v>0.12512090645295015</v>
-      </c>
-      <c r="M5" s="16">
-        <f t="shared" ref="M5" si="2">(M4/L4)-1</f>
-        <v>0.1314092723365059</v>
-      </c>
-      <c r="N5" s="30">
-        <f>(G5+F5+H5)/3</f>
-        <v>0.43605581605216653</v>
-      </c>
-      <c r="O5" s="30">
-        <f>(G21+F21+H21)/3</f>
-        <v>2.0283442799992901</v>
-      </c>
-      <c r="P5" s="30">
-        <f>(G30+F30+E30)/3</f>
+      <c r="H6" s="16">
+        <f t="shared" si="3"/>
+        <v>0.17216335278009276</v>
+      </c>
+      <c r="I6" s="16">
+        <f>(I5/H5)-1</f>
+        <v>0.13062468257998994</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="3"/>
+        <v>0.13664540472554121</v>
+      </c>
+      <c r="K6" s="16">
+        <f t="shared" si="3"/>
+        <v>0.13302244704394561</v>
+      </c>
+      <c r="L6" s="16">
+        <f t="shared" ref="L6" si="4">(L5/K5)-1</f>
+        <v>0.13038018835019183</v>
+      </c>
+      <c r="M6" s="16">
+        <f t="shared" ref="M6" si="5">(M5/L5)-1</f>
+        <v>0.15175265366576163</v>
+      </c>
+      <c r="N6" s="27">
+        <f>(G6+F6+H6)/3</f>
+        <v>0.44919230055428971</v>
+      </c>
+      <c r="O6" s="27">
+        <f>(G22+F22+H22)/3</f>
+        <v>2.0620914942622637</v>
+      </c>
+      <c r="P6" s="27">
+        <f>(G31+F31+E31)/3</f>
         <v>-0.50056919516481246</v>
       </c>
-      <c r="Q5" s="19">
-        <f>(G107+F107+H107)/3</f>
-        <v>-1.2289317521522627</v>
-      </c>
-      <c r="R5" s="18"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="20"/>
-      <c r="AM5" s="20"/>
-    </row>
-    <row r="6" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="Q6" s="19">
+        <f>(G108+F108+H108)/3</f>
+        <v>-1.1988779097636184</v>
+      </c>
+      <c r="R6" s="18"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+    </row>
+    <row r="7" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>647690000</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>864032000</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>1196313000</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>876042000</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F7" s="1">
         <v>1155833000</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G7" s="1">
         <v>1499000000</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B8" s="10">
         <v>1914031000</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C8" s="10">
         <v>2787953000</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D8" s="10">
         <v>3608926000</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E8" s="10">
         <v>2502157000</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F8" s="10">
         <v>4835927000</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G8" s="10">
         <v>6900000000</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="N7" s="34" t="s">
+      <c r="H8" s="34"/>
+      <c r="N8" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="O7" s="31" t="s">
+      <c r="O8" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="P7" s="34" t="s">
+      <c r="P8" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="Q8" s="21" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.74719999999999998</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.76339999999999997</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.751</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.74070000000000003</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.80710000000000004</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.82150000000000001</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="N8" s="30">
-        <f>G8</f>
-        <v>0.82150000000000001</v>
-      </c>
-      <c r="O8" s="30">
-        <f>H22</f>
-        <v>0.34181206642842127</v>
-      </c>
-      <c r="P8" s="30">
-        <f>G31</f>
-        <v>0.22539999999999999</v>
-      </c>
-      <c r="Q8" s="19">
-        <f>H108/H4</f>
-        <v>0.35232289257935673</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.74719999999999998</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.76339999999999997</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.751</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.74070000000000003</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.80710000000000004</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.82150000000000001</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="N9" s="27">
+        <f>G9</f>
+        <v>0.82150000000000001</v>
+      </c>
+      <c r="O9" s="27">
+        <f>H23</f>
+        <v>0.35185373285931948</v>
+      </c>
+      <c r="P9" s="27">
+        <f>H32</f>
+        <v>0.27150837988826815</v>
+      </c>
+      <c r="Q9" s="19">
+        <f>H107/H5</f>
+        <v>0.37166074149314371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>400749000</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <v>579193000</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>976695000</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="1">
         <v>2752872000</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F10" s="1">
         <v>1425048000</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G10" s="1">
         <v>1502000000</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="18">
-        <f>B9/B4</f>
+      <c r="B11" s="18">
+        <f>B10/B5</f>
         <v>0.15643741063136851</v>
       </c>
-      <c r="C10" s="18">
-        <f t="shared" ref="C10:G10" si="3">C9/C4</f>
+      <c r="C11" s="18">
+        <f t="shared" ref="C11:G11" si="6">C10/C5</f>
         <v>0.15859676313018811</v>
       </c>
-      <c r="D10" s="18">
-        <f t="shared" si="3"/>
+      <c r="D11" s="18">
+        <f t="shared" si="6"/>
         <v>0.20325627924022094</v>
       </c>
-      <c r="E10" s="18">
-        <f t="shared" si="3"/>
+      <c r="E11" s="18">
+        <f t="shared" si="6"/>
         <v>0.81489337957888208</v>
       </c>
-      <c r="F10" s="18">
-        <f t="shared" si="3"/>
+      <c r="F11" s="18">
+        <f t="shared" si="6"/>
         <v>0.23783462622000881</v>
       </c>
-      <c r="G10" s="18">
-        <f t="shared" si="3"/>
+      <c r="G11" s="18">
+        <f t="shared" si="6"/>
         <v>0.17883081319204666</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="34" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="O10" s="35" t="s">
+      <c r="O11" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="P10" s="35" t="s">
+      <c r="P11" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="Q10" s="35" t="s">
+      <c r="Q11" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="R10" s="18"/>
-    </row>
-    <row r="11" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1">
-        <v>327156000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>479487000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>697181000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1134851000</v>
-      </c>
-      <c r="F11" s="1">
-        <v>835324000</v>
-      </c>
-      <c r="G11" s="1">
-        <v>950000000</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="N11" s="30">
-        <f>(G10+F10+E10)/3</f>
-        <v>0.41051960633031248</v>
-      </c>
-      <c r="O11" s="30">
-        <f>(G14+F14+E14)/3</f>
-        <v>0.43828694165068605</v>
-      </c>
-      <c r="P11" s="30">
-        <f>(G81+F81+E81)/3</f>
-        <v>0.38312075768395881</v>
-      </c>
-      <c r="Q11" s="19">
-        <f>(G90+F90+E90)/3</f>
-        <v>6.0883618081982701E-3</v>
-      </c>
+      <c r="R11" s="18"/>
     </row>
     <row r="12" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>327156000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>479487000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>697181000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1134851000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>835324000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>950000000</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="N12" s="27">
+        <f>(G11+F11+E11)/3</f>
+        <v>0.41051960633031248</v>
+      </c>
+      <c r="O12" s="27">
+        <f>(G15+F15+E15)/3</f>
+        <v>0.43828694165068605</v>
+      </c>
+      <c r="P12" s="27">
+        <f>(G82+F82+E82)/3</f>
+        <v>0.38312075768395881</v>
+      </c>
+      <c r="Q12" s="19">
+        <f>(G91+F91+E91)/3</f>
+        <v>6.0883618081982701E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>871749000</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>1101327000</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>1621519000</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <v>1175325000</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="1">
         <v>1186332000</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G13" s="1">
         <v>1516000000</v>
       </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:39" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:39" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="1">
         <v>1198905000</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>1580814000</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="1">
         <v>2318700000</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <v>2310176000</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F14" s="1">
         <v>2021656000</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G14" s="1">
         <v>2466000000</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="N13" s="34" t="s">
+      <c r="H14" s="1"/>
+      <c r="N14" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="O13" s="34" t="s">
+      <c r="O14" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="P13" s="34" t="s">
+      <c r="P14" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="Q13" s="35" t="s">
+      <c r="Q14" s="32" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+    <row r="15" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="18">
-        <f>B13/B4</f>
+      <c r="B15" s="18">
+        <f>B14/B5</f>
         <v>0.46800764017627211</v>
       </c>
-      <c r="C14" s="18">
-        <f t="shared" ref="C14:G14" si="4">C13/C4</f>
+      <c r="C15" s="18">
+        <f t="shared" ref="C15:G15" si="7">C14/C5</f>
         <v>0.43286431899364319</v>
       </c>
-      <c r="D14" s="18">
-        <f t="shared" si="4"/>
+      <c r="D15" s="18">
+        <f t="shared" si="7"/>
         <v>0.48253583224476454</v>
       </c>
-      <c r="E14" s="18">
-        <f t="shared" si="4"/>
+      <c r="E15" s="18">
+        <f t="shared" si="7"/>
         <v>0.68384840561494453</v>
       </c>
-      <c r="F14" s="18">
-        <f t="shared" si="4"/>
+      <c r="F15" s="18">
+        <f t="shared" si="7"/>
         <v>0.33740603762500498</v>
       </c>
-      <c r="G14" s="18">
-        <f t="shared" si="4"/>
+      <c r="G15" s="18">
+        <f t="shared" si="7"/>
         <v>0.29360638171210857</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="30">
-        <f>G29/G73</f>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="27">
+        <f>G30/G74</f>
         <v>0.34046762589928059</v>
       </c>
-      <c r="O14" s="19">
-        <f>G29/G55</f>
+      <c r="O15" s="19">
+        <f>G30/G56</f>
         <v>0.11803217358772915</v>
       </c>
-      <c r="P14" s="30">
-        <f>(G29-G99)/G74</f>
+      <c r="P15" s="27">
+        <f>(G30-G100)/G75</f>
         <v>0.11803217358772915</v>
       </c>
-      <c r="Q14" s="23">
-        <f>(G62+G57)/G73</f>
+      <c r="Q15" s="23">
+        <f>(G63+G58)/G74</f>
         <v>0.42104316546762588</v>
       </c>
-      <c r="R14" s="18"/>
-    </row>
-    <row r="15" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="R15" s="18"/>
+    </row>
+    <row r="16" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="1">
         <v>395739000</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <v>609202000</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="1">
         <v>815074000</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E16" s="1">
         <v>877901000</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F16" s="1">
         <v>847057000</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G16" s="1">
         <v>1041000000</v>
       </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="1">
         <v>1995393000</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>2769209000</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D17" s="1">
         <v>4110469000</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <v>5940949000</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F17" s="1">
         <v>4293761000</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G17" s="1">
         <v>5009000000</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="N16" s="34" t="s">
+      <c r="H17" s="1"/>
+      <c r="N17" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="O16" s="21" t="s">
+      <c r="O17" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="P16" s="21" t="s">
+      <c r="P17" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="Q16" s="32" t="s">
+      <c r="Q17" s="29" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2643083000</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3633241000</v>
-      </c>
-      <c r="D17" s="1">
-        <v>5306782000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>6816991000</v>
-      </c>
-      <c r="F17" s="1">
-        <v>5449594000</v>
-      </c>
-      <c r="G17" s="1">
-        <v>6508000000</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="N17" s="22">
-        <f>(SUM(C36:G36)/5)</f>
-        <v>0.14224609231543348</v>
-      </c>
-      <c r="O17" s="38">
-        <f>P101/H4</f>
-        <v>9.9910611751103637</v>
-      </c>
-      <c r="P17" s="38">
-        <f>P101/H29</f>
-        <v>40.466137088122608</v>
-      </c>
-      <c r="Q17" s="39">
-        <f>P101/H108</f>
-        <v>28.35768377684964</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2643083000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3633241000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5306782000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6816991000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5449594000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6508000000</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="N18" s="22">
+        <f>(SUM(C37:G37)/5)</f>
+        <v>0.14224609231543348</v>
+      </c>
+      <c r="O18" s="35">
+        <f>P103/H5</f>
+        <v>7.8877210250888776</v>
+      </c>
+      <c r="P18" s="35">
+        <f>P103/H30</f>
+        <v>29.051482787878786</v>
+      </c>
+      <c r="Q18" s="36">
+        <f>P103/H109</f>
+        <v>21.222906119704838</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>16403000</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>26143000</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <v>9968000</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="1">
         <v>171688000</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F19" s="1">
         <v>437599000</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G19" s="1">
         <v>24000000</v>
       </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="1">
         <v>79342000</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <v>82401000</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D20" s="1">
         <v>114162000</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E20" s="1">
         <v>125876000</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F20" s="1">
         <v>138319000</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G20" s="1">
         <v>81000000</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="N19" s="36" t="s">
+      <c r="H20" s="1"/>
+      <c r="N20" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="O19" s="21" t="s">
+      <c r="O20" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="P19" s="21" t="s">
+      <c r="P20" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="Q19" s="32" t="s">
+      <c r="Q20" s="29" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="21" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B21" s="10">
         <v>36646000</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C21" s="10">
         <v>155577000</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D21" s="10">
         <v>-287573000</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E21" s="10">
         <v>-4384374000</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F21" s="10">
         <v>275711000</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G21" s="10">
         <v>2094000000</v>
       </c>
-      <c r="H20" s="46">
-        <v>3252000000</v>
-      </c>
-      <c r="I20" s="46">
-        <v>3833000000</v>
-      </c>
-      <c r="J20" s="46">
-        <v>4571000000</v>
-      </c>
-      <c r="K20" s="46">
-        <v>5324000003</v>
-      </c>
-      <c r="L20" s="46">
-        <v>6432000000</v>
-      </c>
-      <c r="M20" s="46">
-        <v>7193000000</v>
-      </c>
-      <c r="N20" s="33">
-        <f>G41-G57-G62</f>
+      <c r="H21" s="41">
+        <v>3464000000</v>
+      </c>
+      <c r="I21" s="41">
+        <v>3947000000</v>
+      </c>
+      <c r="J21" s="41">
+        <v>4669000000</v>
+      </c>
+      <c r="K21" s="41">
+        <v>5522000003</v>
+      </c>
+      <c r="L21" s="41">
+        <v>6455000000</v>
+      </c>
+      <c r="M21" s="41">
+        <v>7310000000</v>
+      </c>
+      <c r="N21" s="30">
+        <f>G42-G58-G63</f>
         <v>7281000000</v>
       </c>
-      <c r="O20" s="38">
-        <f>P101/I4</f>
-        <v>8.8382106945606687</v>
-      </c>
-      <c r="P20" s="40">
-        <f>P101/I29</f>
-        <v>36.239022500953105</v>
-      </c>
-      <c r="Q20" s="39">
-        <f>P101/I106</f>
-        <v>24.843334012698048</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="O21" s="35">
+        <f>P103/I5</f>
+        <v>6.9764274092175009</v>
+      </c>
+      <c r="P21" s="37">
+        <f>P103/I30</f>
+        <v>26.76822250672182</v>
+      </c>
+      <c r="Q21" s="36">
+        <f>P103/I109</f>
+        <v>19.341124157409713</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="18">
-        <f>(C20/B20)-1</f>
+      <c r="B22" s="1"/>
+      <c r="C22" s="18">
+        <f>(C21/B21)-1</f>
         <v>3.2454019538285213</v>
       </c>
-      <c r="D21" s="18">
-        <f>(D20/C20)-1</f>
+      <c r="D22" s="18">
+        <f>(D21/C21)-1</f>
         <v>-2.8484287523220013</v>
       </c>
-      <c r="E21" s="18">
-        <f>(E20/D20)-1</f>
+      <c r="E22" s="18">
+        <f>(E21/D21)-1</f>
         <v>14.24612533165492</v>
       </c>
-      <c r="F21" s="18">
-        <f t="shared" ref="F21:H21" si="5">(F20/E20)-1</f>
+      <c r="F22" s="18">
+        <f t="shared" ref="F22:H22" si="8">(F21/E21)-1</f>
         <v>-1.0628849181205799</v>
       </c>
-      <c r="G21" s="18">
-        <f t="shared" si="5"/>
+      <c r="G22" s="18">
+        <f t="shared" si="8"/>
         <v>6.5949091621299116</v>
       </c>
-      <c r="H21" s="16">
-        <f t="shared" si="5"/>
-        <v>0.55300859598853869</v>
-      </c>
-      <c r="I21" s="16">
-        <f t="shared" ref="I21" si="6">(I20/H20)-1</f>
-        <v>0.17865928659286601</v>
-      </c>
-      <c r="J21" s="16">
-        <f t="shared" ref="J21" si="7">(J20/I20)-1</f>
-        <v>0.1925384816070963</v>
-      </c>
-      <c r="K21" s="16">
-        <f t="shared" ref="K21" si="8">(K20/J20)-1</f>
-        <v>0.16473419448698312</v>
-      </c>
-      <c r="L21" s="16">
-        <f t="shared" ref="L21" si="9">(L20/K20)-1</f>
-        <v>0.20811419916898144</v>
-      </c>
-      <c r="M21" s="16">
-        <f t="shared" ref="M21" si="10">(M20/L20)-1</f>
-        <v>0.11831467661691542</v>
-      </c>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-    </row>
-    <row r="22" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="H22" s="16">
+        <f t="shared" si="8"/>
+        <v>0.65425023877745936</v>
+      </c>
+      <c r="I22" s="16">
+        <f t="shared" ref="I22" si="9">(I21/H21)-1</f>
+        <v>0.13943418013856812</v>
+      </c>
+      <c r="J22" s="16">
+        <f t="shared" ref="J22" si="10">(J21/I21)-1</f>
+        <v>0.18292373954902463</v>
+      </c>
+      <c r="K22" s="16">
+        <f t="shared" ref="K22" si="11">(K21/J21)-1</f>
+        <v>0.18269436774469905</v>
+      </c>
+      <c r="L22" s="16">
+        <f t="shared" ref="L22" si="12">(L21/K21)-1</f>
+        <v>0.1689605209150884</v>
+      </c>
+      <c r="M22" s="16">
+        <f t="shared" ref="M22" si="13">(M21/L21)-1</f>
+        <v>0.13245546088303639</v>
+      </c>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+    </row>
+    <row r="23" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B23" s="2">
         <v>1.43E-2</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C23" s="2">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="2">
         <v>-5.9799999999999999E-2</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E23" s="2">
         <v>-1.2978000000000001</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F23" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G23" s="2">
         <v>0.24929999999999999</v>
       </c>
-      <c r="H22" s="47">
-        <f>H20/H4</f>
-        <v>0.34181206642842127</v>
-      </c>
-      <c r="I22" s="47">
-        <f t="shared" ref="I22:M22" si="11">I20/I4</f>
-        <v>0.35639237563923759</v>
-      </c>
-      <c r="J22" s="47">
-        <f t="shared" si="11"/>
-        <v>0.37078195976638545</v>
-      </c>
-      <c r="K22" s="47">
-        <f t="shared" si="11"/>
-        <v>0.3678319747823684</v>
-      </c>
-      <c r="L22" s="47">
-        <f t="shared" si="11"/>
-        <v>0.39496469143383484</v>
-      </c>
-      <c r="M22" s="47">
-        <f t="shared" si="11"/>
-        <v>0.39039348710990501</v>
-      </c>
-      <c r="P22" s="71" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q22" s="32" t="s">
+      <c r="H23" s="42">
+        <f>H21/H5</f>
+        <v>0.35185373285931948</v>
+      </c>
+      <c r="I23" s="42">
+        <f t="shared" ref="I23:M23" si="14">I21/I5</f>
+        <v>0.35459527445871891</v>
+      </c>
+      <c r="J23" s="42">
+        <f t="shared" si="14"/>
+        <v>0.36903256402149859</v>
+      </c>
+      <c r="K23" s="42">
+        <f t="shared" si="14"/>
+        <v>0.38521102218346703</v>
+      </c>
+      <c r="L23" s="42">
+        <f t="shared" si="14"/>
+        <v>0.39835843001727966</v>
+      </c>
+      <c r="M23" s="42">
+        <f t="shared" si="14"/>
+        <v>0.39168408080158601</v>
+      </c>
+      <c r="O23" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="P23" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q23" s="29" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="24" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B24" s="10">
         <v>-81362000</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C24" s="10">
         <v>18744000</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D24" s="10">
         <v>-501543000</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E24" s="10">
         <v>-3590147000</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F24" s="10">
         <v>429317000</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G24" s="10">
         <v>1891000000</v>
       </c>
-      <c r="H23" s="37"/>
-      <c r="P23" s="72">
-        <f>G99/P101</f>
+      <c r="H24" s="34"/>
+      <c r="O24" s="54">
+        <f>SUM(I31:M31)/5</f>
+        <v>0.1817109053910316</v>
+      </c>
+      <c r="P24" s="51">
+        <f>G100/P103</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="73">
-        <f>H108/P101</f>
-        <v>3.526381096104788E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="2">
-        <v>-3.1800000000000002E-2</v>
-      </c>
-      <c r="C24" s="2">
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="D24" s="2">
-        <v>-0.10440000000000001</v>
-      </c>
-      <c r="E24" s="2">
-        <v>-1.0627</v>
-      </c>
-      <c r="F24" s="2">
-        <v>7.17E-2</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.22509999999999999</v>
-      </c>
-      <c r="H24" s="2"/>
+      <c r="Q24" s="52">
+        <f>H107/P103</f>
+        <v>4.7118900416353901E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2">
+        <v>-3.1800000000000002E-2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-0.10440000000000001</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-1.0627</v>
+      </c>
+      <c r="F25" s="2">
+        <v>7.17E-2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.22509999999999999</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="1">
         <v>22263000</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <v>28289000</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="1">
         <v>89840000</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E26" s="1">
         <v>-1091791000</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F26" s="1">
         <v>-729524000</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G26" s="1">
         <v>98000000</v>
       </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B27" s="10">
         <v>-59099000</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C27" s="10">
         <v>47033000</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D27" s="10">
         <v>-411703000</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E27" s="10">
         <v>-4681938000</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F27" s="10">
         <v>-300207000</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G27" s="10">
         <v>1989000000</v>
       </c>
-      <c r="H26" s="37"/>
-    </row>
-    <row r="27" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="2">
-        <v>-2.3099999999999999E-2</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1.29E-2</v>
-      </c>
-      <c r="D27" s="2">
-        <v>-8.5699999999999998E-2</v>
-      </c>
-      <c r="E27" s="2">
-        <v>-1.3858999999999999</v>
-      </c>
-      <c r="F27" s="2">
-        <v>-5.0099999999999999E-2</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.23680000000000001</v>
-      </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2">
+        <v>-2.3099999999999999E-2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.29E-2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-8.5699999999999998E-2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>-1.3858999999999999</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-5.0099999999999999E-2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.23680000000000001</v>
+      </c>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="1">
         <v>10947000</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C29" s="1">
         <v>63893000</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D29" s="1">
         <v>262636000</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E29" s="1">
         <v>-97222000</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F29" s="1">
         <v>51827000</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G29" s="1">
         <v>96000000</v>
       </c>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B30" s="11">
         <v>-70046000</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C30" s="11">
         <v>-16860000</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="11">
         <v>-674339000</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E30" s="11">
         <v>-4584716000</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F30" s="11">
         <v>-352034000</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G30" s="11">
         <v>1893000000</v>
       </c>
-      <c r="H29" s="43">
-        <v>2349000000</v>
-      </c>
-      <c r="I29" s="43">
-        <v>2623000000</v>
-      </c>
-      <c r="J29" s="43">
-        <v>3167000000</v>
-      </c>
-      <c r="K29" s="43">
-        <v>3758000000</v>
-      </c>
-      <c r="L29" s="43">
-        <v>4449000000</v>
-      </c>
-      <c r="M29" s="43">
-        <v>4860000000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="H30" s="38">
+        <v>2673000000</v>
+      </c>
+      <c r="I30" s="38">
+        <v>2901000000</v>
+      </c>
+      <c r="J30" s="38">
+        <v>3372000000</v>
+      </c>
+      <c r="K30" s="38">
+        <v>4201000000</v>
+      </c>
+      <c r="L30" s="38">
+        <v>5195000000</v>
+      </c>
+      <c r="M30" s="38">
+        <v>6122000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="18">
-        <f>(C29/B29)-1</f>
+      <c r="B31" s="1"/>
+      <c r="C31" s="18">
+        <f>(C30/B30)-1</f>
         <v>-0.75930103075122068</v>
       </c>
-      <c r="D30" s="18">
-        <f>(D29/C29)-1</f>
+      <c r="D31" s="18">
+        <f>(D30/C30)-1</f>
         <v>38.996381969157767</v>
       </c>
-      <c r="E30" s="18">
-        <f>(E29/D29)-1</f>
+      <c r="E31" s="18">
+        <f>(E30/D30)-1</f>
         <v>5.7988296687571088</v>
       </c>
-      <c r="F30" s="18">
-        <f t="shared" ref="F30:G30" si="12">(F29/E29)-1</f>
+      <c r="F31" s="18">
+        <f t="shared" ref="F31:G31" si="15">(F30/E30)-1</f>
         <v>-0.92321574553363828</v>
       </c>
-      <c r="G30" s="18">
-        <f t="shared" si="12"/>
+      <c r="G31" s="18">
+        <f t="shared" si="15"/>
         <v>-6.377321508717908</v>
       </c>
-      <c r="H30" s="16">
-        <f t="shared" ref="H30" si="13">(H29/G29)-1</f>
-        <v>0.24088748019017436</v>
-      </c>
-      <c r="I30" s="16">
-        <f t="shared" ref="I30" si="14">(I29/H29)-1</f>
-        <v>0.1166453810131971</v>
-      </c>
-      <c r="J30" s="16">
-        <f t="shared" ref="J30" si="15">(J29/I29)-1</f>
-        <v>0.2073961113229128</v>
-      </c>
-      <c r="K30" s="16">
-        <f t="shared" ref="K30" si="16">(K29/J29)-1</f>
-        <v>0.18661193558572786</v>
-      </c>
-      <c r="L30" s="16">
-        <f t="shared" ref="L30" si="17">(L29/K29)-1</f>
-        <v>0.18387440127727506</v>
-      </c>
-      <c r="M30" s="16">
-        <f t="shared" ref="M30" si="18">(M29/L29)-1</f>
-        <v>9.2380310182063274E-2</v>
-      </c>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-    </row>
-    <row r="31" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="2">
-        <v>-2.7300000000000001E-2</v>
-      </c>
-      <c r="C31" s="2">
-        <v>-4.5999999999999999E-3</v>
-      </c>
-      <c r="D31" s="2">
-        <v>-0.14030000000000001</v>
-      </c>
-      <c r="E31" s="2">
-        <v>-1.3571</v>
-      </c>
-      <c r="F31" s="2">
-        <v>-5.8799999999999998E-2</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0.22539999999999999</v>
-      </c>
-      <c r="H31" s="44">
-        <f>H29/H4</f>
-        <v>0.24689930628547405</v>
-      </c>
-      <c r="I31" s="44">
-        <f t="shared" ref="I31:M31" si="19">I29/I4</f>
-        <v>0.24388656438865644</v>
-      </c>
-      <c r="J31" s="44">
-        <f t="shared" si="19"/>
-        <v>0.25689487345879297</v>
-      </c>
-      <c r="K31" s="44">
-        <f t="shared" si="19"/>
-        <v>0.25963797153516649</v>
-      </c>
-      <c r="L31" s="44">
-        <f t="shared" si="19"/>
-        <v>0.27319619281547436</v>
-      </c>
-      <c r="M31" s="44">
-        <f t="shared" si="19"/>
-        <v>0.26377204884667571</v>
-      </c>
+      <c r="H31" s="16">
+        <f t="shared" ref="H31" si="16">(H30/G30)-1</f>
+        <v>0.41204437400950877</v>
+      </c>
+      <c r="I31" s="16">
+        <f t="shared" ref="I31" si="17">(I30/H30)-1</f>
+        <v>8.529741863075202E-2</v>
+      </c>
+      <c r="J31" s="16">
+        <f t="shared" ref="J31" si="18">(J30/I30)-1</f>
+        <v>0.1623578076525336</v>
+      </c>
+      <c r="K31" s="16">
+        <f t="shared" ref="K31" si="19">(K30/J30)-1</f>
+        <v>0.24584816132858833</v>
+      </c>
+      <c r="L31" s="16">
+        <f t="shared" ref="L31" si="20">(L30/K30)-1</f>
+        <v>0.23661033087360162</v>
+      </c>
+      <c r="M31" s="16">
+        <f t="shared" ref="M31" si="21">(M30/L30)-1</f>
+        <v>0.17844080846968247</v>
+      </c>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
     </row>
     <row r="32" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2">
+        <v>-2.7300000000000001E-2</v>
+      </c>
+      <c r="C32" s="2">
+        <v>-4.5999999999999999E-3</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-0.14030000000000001</v>
+      </c>
+      <c r="E32" s="2">
+        <v>-1.3571</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-5.8799999999999998E-2</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.22539999999999999</v>
+      </c>
+      <c r="H32" s="39">
+        <f>H30/H5</f>
+        <v>0.27150837988826815</v>
+      </c>
+      <c r="I32" s="39">
+        <f t="shared" ref="I32:M32" si="22">I30/I5</f>
+        <v>0.26062348396370499</v>
+      </c>
+      <c r="J32" s="39">
+        <f t="shared" si="22"/>
+        <v>0.26651912741068606</v>
+      </c>
+      <c r="K32" s="39">
+        <f t="shared" si="22"/>
+        <v>0.29305894663411231</v>
+      </c>
+      <c r="L32" s="39">
+        <f t="shared" si="22"/>
+        <v>0.3205998518884226</v>
+      </c>
+      <c r="M32" s="39">
+        <f t="shared" si="22"/>
+        <v>0.32802871992712856</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B32" s="12">
-        <v>-0.13</v>
-      </c>
-      <c r="C32" s="12">
-        <v>-0.03</v>
-      </c>
-      <c r="D32" s="12">
-        <v>-1.29</v>
-      </c>
-      <c r="E32" s="12">
-        <v>-16.12</v>
-      </c>
-      <c r="F32" s="12">
-        <v>-0.56999999999999995</v>
-      </c>
-      <c r="G32" s="12">
-        <v>3.07</v>
-      </c>
-      <c r="H32" s="45">
-        <v>3.73</v>
-      </c>
-      <c r="I32" s="45">
-        <v>4.16</v>
-      </c>
-      <c r="J32" s="45">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="K32" s="45">
-        <v>5.96</v>
-      </c>
-      <c r="L32" s="45">
-        <v>7.06</v>
-      </c>
-      <c r="M32" s="45">
-        <v>7.71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="B33" s="12">
         <v>-0.13</v>
@@ -4322,35 +4491,52 @@
       <c r="G33" s="12">
         <v>3.07</v>
       </c>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="H33" s="40">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I33" s="40">
+        <v>4.54</v>
+      </c>
+      <c r="J33" s="40">
+        <v>5.28</v>
+      </c>
+      <c r="K33" s="40">
+        <v>6.58</v>
+      </c>
+      <c r="L33" s="40">
+        <v>8.14</v>
+      </c>
+      <c r="M33" s="40">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="12">
+        <v>-0.13</v>
+      </c>
+      <c r="C34" s="12">
+        <v>-0.03</v>
+      </c>
+      <c r="D34" s="12">
+        <v>-1.29</v>
+      </c>
+      <c r="E34" s="12">
+        <v>-16.12</v>
+      </c>
+      <c r="F34" s="12">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="G34" s="12">
+        <v>3.07</v>
+      </c>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B34" s="1">
-        <v>521709000</v>
-      </c>
-      <c r="C34" s="1">
-        <v>530945000</v>
-      </c>
-      <c r="D34" s="1">
-        <v>521709000</v>
-      </c>
-      <c r="E34" s="1">
-        <v>284363000</v>
-      </c>
-      <c r="F34" s="1">
-        <v>615891000</v>
-      </c>
-      <c r="G34" s="1">
-        <v>615891000</v>
-      </c>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="B35" s="1">
         <v>521709000</v>
@@ -4370,376 +4556,385 @@
       <c r="G35" s="1">
         <v>615891000</v>
       </c>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="H35" s="1" cm="1">
+        <f t="array" ref="H35">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>647283600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="1">
+        <v>521709000</v>
+      </c>
+      <c r="C36" s="1">
+        <v>530945000</v>
+      </c>
+      <c r="D36" s="1">
+        <v>521709000</v>
+      </c>
+      <c r="E36" s="1">
+        <v>284363000</v>
+      </c>
+      <c r="F36" s="1">
+        <v>615891000</v>
+      </c>
+      <c r="G36" s="1">
+        <v>615891000</v>
+      </c>
+      <c r="H36" s="1" cm="1">
+        <f t="array" ref="H36">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>647283600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="25">
-        <f>(C35-B35)/B35</f>
+      <c r="B37" s="1"/>
+      <c r="C37" s="25">
+        <f>(C36-B36)/B36</f>
         <v>1.7703355702125129E-2</v>
       </c>
-      <c r="D36" s="25">
-        <f t="shared" ref="D36:G36" si="20">(D35-C35)/C35</f>
+      <c r="D37" s="25">
+        <f t="shared" ref="D37:H37" si="23">(D36-C36)/C36</f>
         <v>-1.7395398770117431E-2</v>
       </c>
-      <c r="E36" s="25">
-        <f t="shared" si="20"/>
+      <c r="E37" s="25">
+        <f t="shared" si="23"/>
         <v>-0.45493943941929316</v>
       </c>
-      <c r="F36" s="25">
-        <f t="shared" si="20"/>
+      <c r="F37" s="25">
+        <f t="shared" si="23"/>
         <v>1.1658619440644529</v>
       </c>
-      <c r="G36" s="25">
-        <f t="shared" si="20"/>
+      <c r="G37" s="25">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H36" s="25"/>
-    </row>
-    <row r="37" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="H37" s="25">
+        <f t="shared" si="23"/>
+        <v>5.0971032211868661E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B38" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E38" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F38" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G38" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H37" s="13"/>
-    </row>
-    <row r="38" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E39" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F39" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G39" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H39" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="40" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="1">
+      <c r="B40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="1">
         <v>2140877000</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D40" s="1">
         <v>2013547000</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E40" s="1">
         <v>5480557000</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F40" s="1">
         <v>6067438000</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G40" s="1">
         <v>7378000000</v>
       </c>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="1">
+      <c r="B41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="1">
         <v>1188431000</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D41" s="1">
         <v>1060726000</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E41" s="1">
         <v>910700000</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F41" s="1">
         <v>2255038000</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G41" s="1">
         <v>2244000000</v>
       </c>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="B42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="1">
         <v>3329308000</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D42" s="1">
         <v>3074273000</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E42" s="1">
         <v>6391257000</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F42" s="1">
         <v>8322476000</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G42" s="1">
         <v>9622000000</v>
       </c>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="1">
+      <c r="B43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="1">
         <v>2305011000</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D43" s="1">
         <v>3145457000</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E43" s="1">
         <v>2181329000</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F43" s="1">
         <v>3715471000</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G43" s="1">
         <v>4783000000</v>
       </c>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="B44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="1">
+      <c r="B45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="1">
         <v>240213000</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D45" s="1">
         <v>341713000</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E45" s="1">
         <v>343800000</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F45" s="1">
         <v>348433000</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G45" s="1">
         <v>456000000</v>
       </c>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="10">
+      <c r="B46" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="10">
         <v>5874532000</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D46" s="10">
         <v>6561443000</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E46" s="10">
         <v>8916386000</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F46" s="10">
         <v>12386380000</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G46" s="10">
         <v>14861000000</v>
       </c>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="1">
+      <c r="B47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="1">
         <v>309408000</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D47" s="1">
         <v>686867000</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E47" s="1">
         <v>654262000</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F47" s="1">
         <v>428621000</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G47" s="1">
         <v>259000000</v>
       </c>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="1">
+      <c r="B48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="1">
         <v>289861000</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D48" s="1">
         <v>652088000</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E48" s="1">
         <v>655801000</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F48" s="1">
         <v>652602000</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G48" s="1">
         <v>650000000</v>
-      </c>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="1">
-        <v>28756000</v>
-      </c>
-      <c r="D48" s="1">
-        <v>102912000</v>
-      </c>
-      <c r="E48" s="1">
-        <v>75886000</v>
-      </c>
-      <c r="F48" s="1">
-        <v>52308000</v>
-      </c>
-      <c r="G48" s="1">
-        <v>34000000</v>
       </c>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C49" s="1">
-        <v>318617000</v>
+        <v>28756000</v>
       </c>
       <c r="D49" s="1">
-        <v>755000000</v>
+        <v>102912000</v>
       </c>
       <c r="E49" s="1">
-        <v>731687000</v>
+        <v>75886000</v>
       </c>
       <c r="F49" s="1">
-        <v>704910000</v>
+        <v>52308000</v>
       </c>
       <c r="G49" s="1">
-        <v>684000000</v>
+        <v>34000000</v>
       </c>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>92</v>
+      <c r="C50" s="1">
+        <v>318617000</v>
+      </c>
+      <c r="D50" s="1">
+        <v>755000000</v>
+      </c>
+      <c r="E50" s="1">
+        <v>731687000</v>
+      </c>
+      <c r="F50" s="1">
+        <v>704910000</v>
+      </c>
+      <c r="G50" s="1">
+        <v>684000000</v>
       </c>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>92</v>
@@ -4763,271 +4958,271 @@
     </row>
     <row r="52" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="1">
-        <v>110532000</v>
-      </c>
-      <c r="D52" s="1">
-        <v>306809000</v>
-      </c>
-      <c r="E52" s="1">
-        <v>189164000</v>
-      </c>
-      <c r="F52" s="1">
-        <v>188563000</v>
-      </c>
-      <c r="G52" s="1">
-        <v>234000000</v>
+      <c r="C52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C53" s="1">
-        <v>738557000</v>
+        <v>110532000</v>
       </c>
       <c r="D53" s="1">
-        <v>1748676000</v>
+        <v>306809000</v>
       </c>
       <c r="E53" s="1">
-        <v>1575113000</v>
+        <v>189164000</v>
       </c>
       <c r="F53" s="1">
-        <v>1322094000</v>
+        <v>188563000</v>
       </c>
       <c r="G53" s="1">
-        <v>1177000000</v>
+        <v>234000000</v>
       </c>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="1">
+        <v>738557000</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1748676000</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1575113000</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1322094000</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1177000000</v>
+      </c>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
+      <c r="B55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="11">
+      <c r="B56" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="11">
         <v>6613089000</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <v>8310119000</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E56" s="11">
         <v>10491499000</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F56" s="11">
         <v>13708474000</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G56" s="11">
         <v>16038000000</v>
       </c>
-      <c r="H55" s="11"/>
-    </row>
-    <row r="56" spans="1:8" ht="20" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="H56" s="11"/>
+    </row>
+    <row r="57" spans="1:8" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C56" s="1">
+      <c r="B57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="1">
         <v>70630000</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D57" s="1">
         <v>151417000</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E57" s="1">
         <v>79898000</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F57" s="1">
         <v>118361000</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G57" s="1">
         <v>137000000</v>
-      </c>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="1">
-        <v>38022000</v>
-      </c>
-      <c r="E57" s="1">
-        <v>83341000</v>
-      </c>
-      <c r="F57" s="1">
-        <v>63479000</v>
-      </c>
-      <c r="G57" s="1">
-        <v>59000000</v>
       </c>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C58" s="1">
-        <v>159901000</v>
+      <c r="C58" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D58" s="1">
-        <v>207462000</v>
+        <v>38022000</v>
       </c>
       <c r="E58" s="1">
-        <v>165257000</v>
+        <v>83341000</v>
       </c>
       <c r="F58" s="1">
-        <v>334728000</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>63479000</v>
+      </c>
+      <c r="G58" s="1">
+        <v>59000000</v>
       </c>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G59" s="1">
-        <v>1182000000</v>
+      <c r="C59" s="1">
+        <v>159901000</v>
+      </c>
+      <c r="D59" s="1">
+        <v>207462000</v>
+      </c>
+      <c r="E59" s="1">
+        <v>165257000</v>
+      </c>
+      <c r="F59" s="1">
+        <v>334728000</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1182000000</v>
+      </c>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C60" s="1">
+      <c r="B61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="1">
         <v>3505479000</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D61" s="1">
         <v>4836863000</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E61" s="1">
         <v>4811283000</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F61" s="1">
         <v>5842714000</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G61" s="1">
         <v>6600000000</v>
       </c>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="10">
+      <c r="B62" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" s="10">
         <v>3736010000</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D62" s="10">
         <v>5233764000</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E62" s="10">
         <v>5139779000</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F62" s="10">
         <v>6359282000</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G62" s="10">
         <v>7978000000</v>
       </c>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D62" s="1">
-        <v>381374000</v>
-      </c>
-      <c r="E62" s="1">
-        <v>2246467000</v>
-      </c>
-      <c r="F62" s="1">
-        <v>2355020000</v>
-      </c>
-      <c r="G62" s="1">
-        <v>2282000000</v>
-      </c>
-      <c r="H62" s="1"/>
+      <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>92</v>
@@ -5035,23 +5230,23 @@
       <c r="C63" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>92</v>
+      <c r="D63" s="1">
+        <v>381374000</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2246467000</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2355020000</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2282000000</v>
       </c>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>92</v>
@@ -5075,31 +5270,31 @@
     </row>
     <row r="65" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C65" s="1">
-        <v>3394387000</v>
-      </c>
-      <c r="D65" s="1">
-        <v>3502666000</v>
-      </c>
-      <c r="E65" s="1">
-        <v>203470000</v>
-      </c>
-      <c r="F65" s="1">
-        <v>218459000</v>
-      </c>
-      <c r="G65" s="1">
-        <v>218000000</v>
+      <c r="C65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>92</v>
@@ -5108,1439 +5303,1678 @@
         <v>3394387000</v>
       </c>
       <c r="D66" s="1">
-        <v>3884040000</v>
+        <v>3502666000</v>
       </c>
       <c r="E66" s="1">
-        <v>2449937000</v>
+        <v>203470000</v>
       </c>
       <c r="F66" s="1">
-        <v>2573479000</v>
+        <v>218459000</v>
       </c>
       <c r="G66" s="1">
-        <v>2500000000</v>
+        <v>218000000</v>
       </c>
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3394387000</v>
+      </c>
+      <c r="D67" s="1">
+        <v>3884040000</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2449937000</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2573479000</v>
+      </c>
+      <c r="G67" s="1">
+        <v>2500000000</v>
+      </c>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+      <c r="B68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C68" s="10">
+      <c r="B69" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="10">
         <v>7130397000</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D69" s="10">
         <v>9117804000</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E69" s="10">
         <v>7589716000</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F69" s="10">
         <v>8932761000</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G69" s="10">
         <v>10478000000</v>
       </c>
-      <c r="H68" s="10"/>
-    </row>
-    <row r="69" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C69" s="1">
-        <v>26000</v>
-      </c>
-      <c r="D69" s="1">
-        <v>26000</v>
-      </c>
-      <c r="E69" s="1">
-        <v>60000</v>
-      </c>
-      <c r="F69" s="1">
-        <v>63000</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H69" s="1"/>
+      <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C70" s="1">
-        <v>-768888000</v>
+        <v>26000</v>
       </c>
       <c r="D70" s="1">
-        <v>-1420991000</v>
+        <v>26000</v>
       </c>
       <c r="E70" s="1">
-        <v>-6005707000</v>
+        <v>60000</v>
       </c>
       <c r="F70" s="1">
-        <v>-6357741000</v>
-      </c>
-      <c r="G70" s="1">
-        <v>-5965000000</v>
+        <v>63000</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C71" s="1">
-        <v>-7912000</v>
+        <v>-768888000</v>
       </c>
       <c r="D71" s="1">
-        <v>-4410000</v>
+        <v>-1420991000</v>
       </c>
       <c r="E71" s="1">
-        <v>2639000</v>
+        <v>-6005707000</v>
       </c>
       <c r="F71" s="1">
-        <v>-6893000</v>
+        <v>-6357741000</v>
       </c>
       <c r="G71" s="1">
-        <v>-32000000</v>
+        <v>-5965000000</v>
       </c>
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="1">
+        <v>-7912000</v>
+      </c>
+      <c r="D72" s="1">
+        <v>-4410000</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2639000</v>
+      </c>
+      <c r="F72" s="1">
+        <v>-6893000</v>
+      </c>
+      <c r="G72" s="1">
+        <v>-32000000</v>
+      </c>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="1">
+      <c r="B73" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="1">
         <v>259466000</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D73" s="1">
         <v>617690000</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E73" s="1">
         <v>8904791000</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F73" s="1">
         <v>11140284000</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G73" s="1">
         <v>11557000000</v>
       </c>
-      <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="10">
+      <c r="B74" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="10">
         <v>-517308000</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D74" s="10">
         <v>-807685000</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E74" s="10">
         <v>2901783000</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F74" s="10">
         <v>4775713000</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G74" s="10">
         <v>5560000000</v>
       </c>
-      <c r="H73" s="10"/>
-      <c r="N73" s="28"/>
-    </row>
-    <row r="74" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="7" t="s">
+      <c r="H74" s="10"/>
+      <c r="N74" s="26"/>
+    </row>
+    <row r="75" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C74" s="11">
+      <c r="B75" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="11">
         <v>6613089000</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>8310119000</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <v>10491499000</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="11">
         <v>13708474000</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G75" s="11">
         <v>16038000000</v>
       </c>
-      <c r="H74" s="11"/>
-    </row>
-    <row r="75" spans="1:14" ht="20" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="H75" s="11"/>
+    </row>
+    <row r="76" spans="1:14" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B76" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C76" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D76" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E76" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F76" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G75" s="13" t="s">
+      <c r="G76" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H75" s="13"/>
-    </row>
-    <row r="76" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="H76" s="13"/>
+    </row>
+    <row r="77" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B77" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D77" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E77" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="F77" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="G77" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H76" s="9" t="s">
+      <c r="H77" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B77" s="1">
-        <v>-70046000</v>
-      </c>
-      <c r="C77" s="1">
-        <v>-16860000</v>
-      </c>
-      <c r="D77" s="1">
-        <v>-674339000</v>
-      </c>
-      <c r="E77" s="1">
-        <v>-4584716000</v>
-      </c>
-      <c r="F77" s="1">
-        <v>-352034000</v>
-      </c>
-      <c r="G77" s="1">
-        <v>1893000000</v>
-      </c>
-      <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="B78" s="1">
-        <v>79342000</v>
+        <v>-70046000</v>
       </c>
       <c r="C78" s="1">
-        <v>82401000</v>
+        <v>-16860000</v>
       </c>
       <c r="D78" s="1">
-        <v>114162000</v>
+        <v>-674339000</v>
       </c>
       <c r="E78" s="1">
-        <v>125876000</v>
+        <v>-4584716000</v>
       </c>
       <c r="F78" s="1">
-        <v>138319000</v>
+        <v>-352034000</v>
       </c>
       <c r="G78" s="1">
-        <v>81000000</v>
+        <v>1893000000</v>
       </c>
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="B79" s="1">
-        <v>-4180000</v>
+        <v>79342000</v>
       </c>
       <c r="C79" s="1">
-        <v>-5017000</v>
+        <v>82401000</v>
       </c>
       <c r="D79" s="1">
-        <v>-5627000</v>
+        <v>114162000</v>
       </c>
       <c r="E79" s="1">
-        <v>-19601000</v>
+        <v>125876000</v>
       </c>
       <c r="F79" s="1">
-        <v>10935000</v>
+        <v>138319000</v>
       </c>
       <c r="G79" s="1">
-        <v>-1000000</v>
+        <v>81000000</v>
       </c>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80" s="1">
+        <v>-4180000</v>
+      </c>
+      <c r="C80" s="1">
+        <v>-5017000</v>
+      </c>
+      <c r="D80" s="1">
+        <v>-5627000</v>
+      </c>
+      <c r="E80" s="1">
+        <v>-19601000</v>
+      </c>
+      <c r="F80" s="1">
+        <v>10935000</v>
+      </c>
+      <c r="G80" s="1">
+        <v>-1000000</v>
+      </c>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B81" s="1">
         <v>38357000</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C81" s="1">
         <v>53893000</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D81" s="1">
         <v>97547000</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E81" s="1">
         <v>3001948000</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F81" s="1">
         <v>898830000</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G81" s="1">
         <v>930000000</v>
       </c>
-      <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A81" s="17" t="s">
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A82" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B81" s="18">
-        <f t="shared" ref="B81:G81" si="21">B80/B4</f>
+      <c r="B82" s="18">
+        <f t="shared" ref="B82:G82" si="24">B81/B5</f>
         <v>1.4973137199562326E-2</v>
       </c>
-      <c r="C81" s="18">
-        <f t="shared" si="21"/>
+      <c r="C82" s="18">
+        <f t="shared" si="24"/>
         <v>1.4757179999370205E-2</v>
       </c>
-      <c r="D81" s="18">
-        <f t="shared" si="21"/>
+      <c r="D82" s="18">
+        <f t="shared" si="24"/>
         <v>2.030013491524563E-2</v>
       </c>
-      <c r="E81" s="18">
-        <f t="shared" si="21"/>
+      <c r="E82" s="18">
+        <f t="shared" si="24"/>
         <v>0.88862379036877337</v>
       </c>
-      <c r="F81" s="18">
-        <f t="shared" si="21"/>
+      <c r="F82" s="18">
+        <f t="shared" si="24"/>
         <v>0.15001101512744169</v>
       </c>
-      <c r="G81" s="18">
-        <f t="shared" si="21"/>
+      <c r="G82" s="18">
+        <f t="shared" si="24"/>
         <v>0.11072746755566139</v>
       </c>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-      <c r="R81" s="18"/>
-    </row>
-    <row r="82" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18"/>
+      <c r="R82" s="18"/>
+    </row>
+    <row r="83" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B83" s="1">
         <v>183202000</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C83" s="1">
         <v>421029000</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D83" s="1">
         <v>620382000</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E83" s="1">
         <v>-284610000</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F83" s="1">
         <v>637923000</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G83" s="1">
         <v>319000000</v>
       </c>
-      <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="H83" s="1"/>
-      <c r="O83" s="75" t="s">
-        <v>152</v>
-      </c>
-      <c r="P83" s="76"/>
     </row>
     <row r="84" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H84" s="1"/>
-      <c r="O84" s="77" t="s">
+      <c r="B85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="26"/>
+      <c r="N85" s="26"/>
+      <c r="O85" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="P85" s="83"/>
+    </row>
+    <row r="86" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" s="1">
+        <v>11758000</v>
+      </c>
+      <c r="C86" s="1">
+        <v>29837000</v>
+      </c>
+      <c r="D86" s="1">
+        <v>75716000</v>
+      </c>
+      <c r="E86" s="1">
+        <v>-73111000</v>
+      </c>
+      <c r="F86" s="1">
+        <v>39946000</v>
+      </c>
+      <c r="G86" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="26"/>
+      <c r="M86" s="26"/>
+      <c r="N86" s="26"/>
+      <c r="O86" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="P84" s="77"/>
-    </row>
-    <row r="85" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B85" s="1">
-        <v>11758000</v>
-      </c>
-      <c r="C85" s="1">
-        <v>29837000</v>
-      </c>
-      <c r="D85" s="1">
-        <v>75716000</v>
-      </c>
-      <c r="E85" s="1">
-        <v>-73111000</v>
-      </c>
-      <c r="F85" s="1">
-        <v>39946000</v>
-      </c>
-      <c r="G85" s="1">
-        <v>20000000</v>
-      </c>
-      <c r="H85" s="1"/>
-      <c r="O85" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="P85" s="51">
-        <f>G18</f>
-        <v>24000000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B86" s="1">
-        <v>135394000</v>
-      </c>
-      <c r="C86" s="1">
-        <v>145895000</v>
-      </c>
-      <c r="D86" s="1">
-        <v>176254000</v>
-      </c>
-      <c r="E86" s="1">
-        <v>-267009000</v>
-      </c>
-      <c r="F86" s="1">
-        <v>495816000</v>
-      </c>
-      <c r="G86" s="1">
-        <v>280000000</v>
-      </c>
-      <c r="H86" s="1"/>
-      <c r="O86" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="P86" s="51">
-        <f>G57</f>
-        <v>59000000</v>
-      </c>
+      <c r="P86" s="84"/>
     </row>
     <row r="87" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" s="1">
+        <v>135394000</v>
+      </c>
+      <c r="C87" s="1">
+        <v>145895000</v>
+      </c>
+      <c r="D87" s="1">
+        <v>176254000</v>
+      </c>
+      <c r="E87" s="1">
+        <v>-267009000</v>
+      </c>
+      <c r="F87" s="1">
+        <v>495816000</v>
+      </c>
+      <c r="G87" s="1">
+        <v>280000000</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="26"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="P87" s="57">
+        <f>G19</f>
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B88" s="1">
         <v>24550000</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C88" s="1">
         <v>60111000</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D88" s="1">
         <v>70602000</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E88" s="1">
         <v>1131371000</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F88" s="1">
         <v>855721000</v>
       </c>
-      <c r="G87" s="1">
+      <c r="G88" s="1">
         <v>208000000</v>
       </c>
-      <c r="H87" s="1"/>
-      <c r="O87" s="50" t="s">
+      <c r="H88" s="1"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="26"/>
+      <c r="N88" s="26"/>
+      <c r="O88" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="P88" s="57">
+        <f>G58</f>
+        <v>59000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" s="10">
+        <v>251225000</v>
+      </c>
+      <c r="C89" s="10">
+        <v>595557000</v>
+      </c>
+      <c r="D89" s="10">
+        <v>222727000</v>
+      </c>
+      <c r="E89" s="10">
+        <v>-629732000</v>
+      </c>
+      <c r="F89" s="10">
+        <v>2189694000</v>
+      </c>
+      <c r="G89" s="10">
+        <v>3430000000</v>
+      </c>
+      <c r="H89" s="10"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="26"/>
+      <c r="N89" s="26"/>
+      <c r="O89" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="P87" s="51">
-        <f>G62</f>
+      <c r="P89" s="57">
+        <f>G63</f>
         <v>2282000000</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B88" s="10">
-        <v>251225000</v>
-      </c>
-      <c r="C88" s="10">
-        <v>595557000</v>
-      </c>
-      <c r="D88" s="10">
-        <v>222727000</v>
-      </c>
-      <c r="E88" s="10">
-        <v>-629732000</v>
-      </c>
-      <c r="F88" s="10">
-        <v>2189694000</v>
-      </c>
-      <c r="G88" s="10">
-        <v>3430000000</v>
-      </c>
-      <c r="H88" s="10"/>
-      <c r="O88" s="52" t="s">
+    <row r="90" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B90" s="1">
+        <v>-100204000</v>
+      </c>
+      <c r="C90" s="1">
+        <v>-90624000</v>
+      </c>
+      <c r="D90" s="1">
+        <v>-125452000</v>
+      </c>
+      <c r="E90" s="1">
+        <v>-37371000</v>
+      </c>
+      <c r="F90" s="1">
+        <v>-25322000</v>
+      </c>
+      <c r="G90" s="1">
+        <v>-25000000</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="26"/>
+      <c r="N90" s="26"/>
+      <c r="O90" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="P88" s="53">
-        <f>P85/(P86+P87)</f>
+      <c r="P90" s="58">
+        <f>P87/(P88+P89)</f>
         <v>1.0252029047415635E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B89" s="1">
-        <v>-100204000</v>
-      </c>
-      <c r="C89" s="1">
-        <v>-90624000</v>
-      </c>
-      <c r="D89" s="1">
-        <v>-125452000</v>
-      </c>
-      <c r="E89" s="1">
-        <v>-37371000</v>
-      </c>
-      <c r="F89" s="1">
-        <v>-25322000</v>
-      </c>
-      <c r="G89" s="1">
-        <v>-25000000</v>
-      </c>
-      <c r="H89" s="1"/>
-      <c r="O89" s="50" t="s">
+    <row r="91" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A91" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" s="18">
+        <f t="shared" ref="B91:G91" si="25">(-1*B90)/B5</f>
+        <v>3.9115891230934202E-2</v>
+      </c>
+      <c r="C91" s="18">
+        <f t="shared" si="25"/>
+        <v>2.4814997871020827E-2</v>
+      </c>
+      <c r="D91" s="18">
+        <f t="shared" si="25"/>
+        <v>2.6107338261426746E-2</v>
+      </c>
+      <c r="E91" s="18">
+        <f t="shared" si="25"/>
+        <v>1.1062403369369299E-2</v>
+      </c>
+      <c r="F91" s="18">
+        <f t="shared" si="25"/>
+        <v>4.2261372284604186E-3</v>
+      </c>
+      <c r="G91" s="18">
+        <f t="shared" si="25"/>
+        <v>2.9765448267650911E-3</v>
+      </c>
+      <c r="H91" s="18"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="26"/>
+      <c r="N91" s="26"/>
+      <c r="O91" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="P89" s="51">
-        <f>G28</f>
+      <c r="P91" s="57">
+        <f>G29</f>
         <v>96000000</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A90" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B90" s="18">
-        <f t="shared" ref="B90:G90" si="22">(-1*B89)/B4</f>
-        <v>3.9115891230934202E-2</v>
-      </c>
-      <c r="C90" s="18">
-        <f t="shared" si="22"/>
-        <v>2.4814997871020827E-2</v>
-      </c>
-      <c r="D90" s="18">
-        <f t="shared" si="22"/>
-        <v>2.6107338261426746E-2</v>
-      </c>
-      <c r="E90" s="18">
-        <f t="shared" si="22"/>
-        <v>1.1062403369369299E-2</v>
-      </c>
-      <c r="F90" s="18">
-        <f t="shared" si="22"/>
-        <v>4.2261372284604186E-3</v>
-      </c>
-      <c r="G90" s="18">
-        <f t="shared" si="22"/>
-        <v>2.9765448267650911E-3</v>
-      </c>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="P90" s="51">
-        <f>G26</f>
-        <v>1989000000</v>
-      </c>
-      <c r="Q90" s="18"/>
-      <c r="R90" s="18"/>
-    </row>
-    <row r="91" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B91" s="1">
-        <v>-176649000</v>
-      </c>
-      <c r="C91" s="1">
-        <v>-60150000</v>
-      </c>
-      <c r="D91" s="1">
-        <v>-400298000</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H91" s="1"/>
-      <c r="O91" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="P91" s="53">
-        <f>P89/P90</f>
-        <v>4.8265460030165915E-2</v>
-      </c>
+      <c r="Q91" s="18"/>
+      <c r="R91" s="18"/>
     </row>
     <row r="92" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B92" s="1">
+        <v>-176649000</v>
+      </c>
+      <c r="C92" s="1">
+        <v>-60150000</v>
+      </c>
+      <c r="D92" s="1">
+        <v>-400298000</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="59"/>
+      <c r="K92" s="59"/>
+      <c r="L92" s="59"/>
+      <c r="M92" s="59"/>
+      <c r="N92" s="59"/>
+      <c r="O92" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="P92" s="57">
+        <f>G27</f>
+        <v>1989000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B93" s="1">
         <v>-1040246000</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C93" s="1">
         <v>-1270578000</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D93" s="1">
         <v>-1016155000</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E93" s="1">
         <v>-3032664000</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F93" s="1">
         <v>-4938188000</v>
       </c>
-      <c r="G92" s="1">
+      <c r="G93" s="1">
         <v>-4072000000</v>
       </c>
-      <c r="H92" s="1"/>
-      <c r="O92" s="52" t="s">
+      <c r="H93" s="1"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="26"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="P93" s="58">
+        <f>P91/P92</f>
+        <v>4.8265460030165915E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B94" s="1">
+        <v>528155000</v>
+      </c>
+      <c r="C94" s="1">
+        <v>756471000</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1161085000</v>
+      </c>
+      <c r="E94" s="1">
+        <v>3158225000</v>
+      </c>
+      <c r="F94" s="1">
+        <v>3611055000</v>
+      </c>
+      <c r="G94" s="1">
+        <v>4071000000</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="26"/>
+      <c r="N94" s="26"/>
+      <c r="O94" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="P92" s="53">
-        <f>P88*(1-P91)</f>
+      <c r="P94" s="58">
+        <f>P90*(1-P93)</f>
         <v>9.7572101491994953E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B93" s="1">
-        <v>528155000</v>
-      </c>
-      <c r="C93" s="1">
-        <v>756471000</v>
-      </c>
-      <c r="D93" s="1">
-        <v>1161085000</v>
-      </c>
-      <c r="E93" s="1">
-        <v>3158225000</v>
-      </c>
-      <c r="F93" s="1">
-        <v>3611055000</v>
-      </c>
-      <c r="G93" s="1">
-        <v>4071000000</v>
-      </c>
-      <c r="H93" s="1"/>
-      <c r="O93" s="78" t="s">
+    <row r="95" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="1">
+        <v>-3290000</v>
+      </c>
+      <c r="D95" s="1">
+        <v>33665000</v>
+      </c>
+      <c r="E95" s="1">
+        <v>-8600000</v>
+      </c>
+      <c r="F95" s="1">
+        <v>500000</v>
+      </c>
+      <c r="G95" s="1">
+        <v>-2000000</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="26"/>
+      <c r="M95" s="26"/>
+      <c r="N95" s="26"/>
+      <c r="O95" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="P93" s="78"/>
-    </row>
-    <row r="94" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C94" s="1">
-        <v>-3290000</v>
-      </c>
-      <c r="D94" s="1">
-        <v>33665000</v>
-      </c>
-      <c r="E94" s="1">
-        <v>-8600000</v>
-      </c>
-      <c r="F94" s="1">
-        <v>500000</v>
-      </c>
-      <c r="G94" s="1">
-        <v>-2000000</v>
-      </c>
-      <c r="H94" s="1"/>
-      <c r="O94" s="50" t="s">
+      <c r="P95" s="84"/>
+    </row>
+    <row r="96" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B96" s="10">
+        <v>-788944000</v>
+      </c>
+      <c r="C96" s="10">
+        <v>-668171000</v>
+      </c>
+      <c r="D96" s="10">
+        <v>-347155000</v>
+      </c>
+      <c r="E96" s="10">
+        <v>79590000</v>
+      </c>
+      <c r="F96" s="10">
+        <v>-1351955000</v>
+      </c>
+      <c r="G96" s="10">
+        <v>-28000000</v>
+      </c>
+      <c r="H96" s="10"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="26"/>
+      <c r="N96" s="26"/>
+      <c r="O96" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="P94" s="54">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B95" s="10">
-        <v>-788944000</v>
-      </c>
-      <c r="C95" s="10">
-        <v>-668171000</v>
-      </c>
-      <c r="D95" s="10">
-        <v>-347155000</v>
-      </c>
-      <c r="E95" s="10">
-        <v>79590000</v>
-      </c>
-      <c r="F95" s="10">
-        <v>-1351955000</v>
-      </c>
-      <c r="G95" s="10">
-        <v>-28000000</v>
-      </c>
-      <c r="H95" s="10"/>
-      <c r="O95" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="P95" s="55" cm="1">
-        <f t="array" ref="P95">_FV(A1,"Beta")</f>
-        <v>1.6220000000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E96" s="1">
-        <v>-5000000</v>
-      </c>
-      <c r="F96" s="1">
-        <v>-2207883000</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H96" s="1"/>
-      <c r="O96" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="P96" s="54">
-        <v>8.4000000000000005E-2</v>
+      <c r="P96" s="78">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E97" s="1">
+        <v>-5000000</v>
+      </c>
+      <c r="F97" s="1">
+        <v>-2207883000</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="26"/>
+      <c r="M97" s="26"/>
+      <c r="N97" s="26"/>
+      <c r="O97" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="P97" s="61" cm="1">
+        <f t="array" ref="P97">_FV(A1,"Beta")</f>
+        <v>1.6339999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E97" s="1">
+      <c r="B98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E98" s="1">
         <v>3650870000</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H97" s="1"/>
-      <c r="O97" s="52" t="s">
+      <c r="F98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="26"/>
+      <c r="L98" s="26"/>
+      <c r="M98" s="26"/>
+      <c r="N98" s="26"/>
+      <c r="O98" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="P98" s="60">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G99" s="1">
+        <v>-1500000000</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="26"/>
+      <c r="L99" s="26"/>
+      <c r="M99" s="26"/>
+      <c r="N99" s="26"/>
+      <c r="O99" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="P97" s="53">
-        <f>(P94)+((P95)*(P96-P94))</f>
-        <v>0.11191536000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G98" s="1">
-        <v>-1500000000</v>
-      </c>
-      <c r="H98" s="1"/>
-      <c r="O98" s="78" t="s">
+      <c r="P99" s="58">
+        <f>(P96)+((P97)*(P98-P96))</f>
+        <v>0.10617732000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B100" s="24">
+        <v>0</v>
+      </c>
+      <c r="C100" s="24">
+        <v>0</v>
+      </c>
+      <c r="D100" s="24">
+        <v>0</v>
+      </c>
+      <c r="E100" s="24">
+        <v>0</v>
+      </c>
+      <c r="F100" s="24">
+        <v>0</v>
+      </c>
+      <c r="G100" s="24">
+        <v>0</v>
+      </c>
+      <c r="H100" s="24"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="26"/>
+      <c r="M100" s="26"/>
+      <c r="N100" s="26"/>
+      <c r="O100" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="P98" s="78"/>
-    </row>
-    <row r="99" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B99" s="24">
-        <v>0</v>
-      </c>
-      <c r="C99" s="24">
-        <v>0</v>
-      </c>
-      <c r="D99" s="24">
-        <v>0</v>
-      </c>
-      <c r="E99" s="24">
-        <v>0</v>
-      </c>
-      <c r="F99" s="24">
-        <v>0</v>
-      </c>
-      <c r="G99" s="24">
-        <v>0</v>
-      </c>
-      <c r="H99" s="24"/>
-      <c r="O99" s="50" t="s">
+      <c r="P100" s="84"/>
+    </row>
+    <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B101" s="1">
+        <v>672954000</v>
+      </c>
+      <c r="C101" s="1">
+        <v>140516000</v>
+      </c>
+      <c r="D101" s="1">
+        <v>854579000</v>
+      </c>
+      <c r="E101" s="1">
+        <v>-705056000</v>
+      </c>
+      <c r="F101" s="1">
+        <v>3639042000</v>
+      </c>
+      <c r="G101" s="1">
+        <v>811000000</v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="26"/>
+      <c r="K101" s="26"/>
+      <c r="L101" s="26"/>
+      <c r="M101" s="26"/>
+      <c r="N101" s="26"/>
+      <c r="O101" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="P99" s="51">
-        <f>P86+P87</f>
+      <c r="P101" s="57">
+        <f>P88+P89</f>
         <v>2341000000</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B100" s="1">
+    <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B102" s="10">
         <v>672954000</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C102" s="10">
         <v>140516000</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D102" s="10">
         <v>854579000</v>
       </c>
-      <c r="E100" s="1">
-        <v>-705056000</v>
-      </c>
-      <c r="F100" s="1">
-        <v>3639042000</v>
-      </c>
-      <c r="G100" s="1">
-        <v>811000000</v>
-      </c>
-      <c r="H100" s="1"/>
-      <c r="O100" s="52" t="s">
+      <c r="E102" s="10">
+        <v>2940814000</v>
+      </c>
+      <c r="F102" s="10">
+        <v>1431159000</v>
+      </c>
+      <c r="G102" s="10">
+        <v>-689000000</v>
+      </c>
+      <c r="H102" s="10"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="26"/>
+      <c r="K102" s="26"/>
+      <c r="L102" s="26"/>
+      <c r="M102" s="26"/>
+      <c r="N102" s="26"/>
+      <c r="O102" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="P100" s="53">
-        <f>P99/P103</f>
-        <v>2.4035905551553719E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B101" s="10">
-        <v>672954000</v>
-      </c>
-      <c r="C101" s="10">
-        <v>140516000</v>
-      </c>
-      <c r="D101" s="10">
-        <v>854579000</v>
-      </c>
-      <c r="E101" s="10">
-        <v>2940814000</v>
-      </c>
-      <c r="F101" s="10">
-        <v>1431159000</v>
-      </c>
-      <c r="G101" s="10">
-        <v>-689000000</v>
-      </c>
-      <c r="H101" s="10"/>
-      <c r="O101" s="50" t="s">
+      <c r="P102" s="58">
+        <f>P101/P105</f>
+        <v>2.9264104590361231E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B103" s="1">
+        <v>227172000</v>
+      </c>
+      <c r="C103" s="1">
+        <v>-158919000</v>
+      </c>
+      <c r="D103" s="1">
+        <v>-25284000</v>
+      </c>
+      <c r="E103" s="1">
+        <v>134137000</v>
+      </c>
+      <c r="F103" s="1">
+        <v>-209861000</v>
+      </c>
+      <c r="G103" s="1">
+        <v>-337000000</v>
+      </c>
+      <c r="H103" s="1"/>
+      <c r="I103" s="26"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="26"/>
+      <c r="L103" s="26"/>
+      <c r="M103" s="26"/>
+      <c r="N103" s="26"/>
+      <c r="O103" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="P101" s="56" cm="1">
-        <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>95054956020</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B102" s="1">
-        <v>227172000</v>
-      </c>
-      <c r="C102" s="1">
-        <v>-158919000</v>
-      </c>
-      <c r="D102" s="1">
-        <v>-25284000</v>
-      </c>
-      <c r="E102" s="1">
-        <v>134137000</v>
-      </c>
-      <c r="F102" s="1">
-        <v>-209861000</v>
-      </c>
-      <c r="G102" s="1">
-        <v>-337000000</v>
-      </c>
-      <c r="H102" s="1"/>
-      <c r="O102" s="52" t="s">
+      <c r="P103" s="62" cm="1">
+        <f t="array" ref="P103">_FV(A1,"Market cap",TRUE)</f>
+        <v>77654613492</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B104" s="10">
+        <v>362407000</v>
+      </c>
+      <c r="C104" s="10">
+        <v>-91017000</v>
+      </c>
+      <c r="D104" s="10">
+        <v>704867000</v>
+      </c>
+      <c r="E104" s="10">
+        <v>2524809000</v>
+      </c>
+      <c r="F104" s="10">
+        <v>2059037000</v>
+      </c>
+      <c r="G104" s="10">
+        <v>2376000000</v>
+      </c>
+      <c r="H104" s="10"/>
+      <c r="I104" s="26"/>
+      <c r="J104" s="26"/>
+      <c r="K104" s="26"/>
+      <c r="L104" s="26"/>
+      <c r="M104" s="26"/>
+      <c r="N104" s="26"/>
+      <c r="O104" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="P102" s="53">
-        <f>P101/P103</f>
-        <v>0.97596409444844623</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B103" s="10">
-        <v>362407000</v>
-      </c>
-      <c r="C103" s="10">
-        <v>-91017000</v>
-      </c>
-      <c r="D103" s="10">
-        <v>704867000</v>
-      </c>
-      <c r="E103" s="10">
-        <v>2524809000</v>
-      </c>
-      <c r="F103" s="10">
-        <v>2059037000</v>
-      </c>
-      <c r="G103" s="10">
-        <v>2376000000</v>
-      </c>
-      <c r="H103" s="10"/>
-      <c r="O103" s="52" t="s">
+      <c r="P104" s="58">
+        <f>P103/P105</f>
+        <v>0.97073589540963878</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B105" s="1">
+        <v>4167186000</v>
+      </c>
+      <c r="C105" s="1">
+        <v>4529593000</v>
+      </c>
+      <c r="D105" s="1">
+        <v>4438576000</v>
+      </c>
+      <c r="E105" s="1">
+        <v>5143443000</v>
+      </c>
+      <c r="F105" s="1">
+        <v>7668252000</v>
+      </c>
+      <c r="G105" s="1">
+        <v>9727000000</v>
+      </c>
+      <c r="H105" s="1"/>
+      <c r="I105" s="26"/>
+      <c r="J105" s="26"/>
+      <c r="K105" s="26"/>
+      <c r="L105" s="26"/>
+      <c r="M105" s="26"/>
+      <c r="N105" s="26"/>
+      <c r="O105" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="P103" s="57">
-        <f>P99+P101</f>
-        <v>97395956020</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B104" s="1">
-        <v>4167186000</v>
-      </c>
-      <c r="C104" s="1">
+      <c r="P105" s="63">
+        <f>P101+P103</f>
+        <v>79995613492</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B106" s="11">
         <v>4529593000</v>
       </c>
-      <c r="D104" s="1">
+      <c r="C106" s="11">
         <v>4438576000</v>
       </c>
-      <c r="E104" s="1">
+      <c r="D106" s="11">
         <v>5143443000</v>
       </c>
-      <c r="F104" s="1">
+      <c r="E106" s="11">
         <v>7668252000</v>
       </c>
-      <c r="G104" s="1">
-        <v>9727000000</v>
-      </c>
-      <c r="H104" s="1"/>
-      <c r="O104" s="77" t="s">
+      <c r="F106" s="11">
+        <v>9727289000</v>
+      </c>
+      <c r="G106" s="11">
+        <v>12103000000</v>
+      </c>
+      <c r="H106" s="11"/>
+      <c r="I106" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="J106" s="86"/>
+      <c r="K106" s="86"/>
+      <c r="L106" s="86"/>
+      <c r="M106" s="86"/>
+      <c r="N106" s="26"/>
+      <c r="O106" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="P104" s="77"/>
-    </row>
-    <row r="105" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B105" s="11">
-        <v>4529593000</v>
-      </c>
-      <c r="C105" s="11">
-        <v>4438576000</v>
-      </c>
-      <c r="D105" s="11">
-        <v>5143443000</v>
-      </c>
-      <c r="E105" s="11">
-        <v>7668252000</v>
-      </c>
-      <c r="F105" s="11">
-        <v>9727289000</v>
-      </c>
-      <c r="G105" s="11">
-        <v>12103000000</v>
-      </c>
-      <c r="H105" s="11"/>
-      <c r="O105" s="58" t="s">
+      <c r="P106" s="84"/>
+    </row>
+    <row r="107" spans="1:18" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B107" s="1">
+        <f t="shared" ref="B107:G107" si="26">(B24*(1-$P$93))+B79+B90+B83</f>
+        <v>84904974.358974367</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="26"/>
+        <v>430645312.21719456</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="26"/>
+        <v>131756203.61990952</v>
+      </c>
+      <c r="E107" s="1">
+        <f t="shared" si="26"/>
+        <v>-3612971903.46908</v>
+      </c>
+      <c r="F107" s="1">
+        <f t="shared" si="26"/>
+        <v>1159515817.4962292</v>
+      </c>
+      <c r="G107" s="1">
+        <f t="shared" si="26"/>
+        <v>2174730015.0829563</v>
+      </c>
+      <c r="H107" s="15">
+        <v>3659000000</v>
+      </c>
+      <c r="I107" s="79">
+        <f>I109/I5</f>
+        <v>0.36070433923277334</v>
+      </c>
+      <c r="J107" s="79">
+        <f>J109/J5</f>
+        <v>0.3746443250079039</v>
+      </c>
+      <c r="K107" s="79">
+        <f>K109/K5</f>
+        <v>0.38374607603767003</v>
+      </c>
+      <c r="L107" s="79">
+        <f>L109/L5</f>
+        <v>0.39607504319921005</v>
+      </c>
+      <c r="M107" s="79">
+        <f>M109/M5</f>
+        <v>0.40336494668595618</v>
+      </c>
+      <c r="N107" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="O107" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="P105" s="59">
-        <f>(P100*P92)+(P102*P97)</f>
-        <v>0.10945989635886469</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" ht="20" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="B106" s="1">
-        <f t="shared" ref="B106:F106" si="23">(B23*(1-$P$91))+B78+B89+B82</f>
-        <v>84904974.358974367</v>
-      </c>
-      <c r="C106" s="1">
-        <f t="shared" si="23"/>
-        <v>430645312.21719456</v>
-      </c>
-      <c r="D106" s="1">
-        <f t="shared" si="23"/>
-        <v>131756203.61990952</v>
-      </c>
-      <c r="E106" s="1">
-        <f t="shared" si="23"/>
-        <v>-3612971903.46908</v>
-      </c>
-      <c r="F106" s="1">
-        <f t="shared" si="23"/>
-        <v>1159515817.4962292</v>
-      </c>
-      <c r="G106" s="1">
-        <f>(G23*(1-$P$91))+G78+G89+G82</f>
-        <v>2174730015.0829563</v>
-      </c>
-      <c r="H106" s="15">
-        <v>3352000000</v>
-      </c>
-      <c r="I106" s="27">
-        <f>H106*(1+$P$107)</f>
-        <v>3826175503.3126812</v>
-      </c>
-      <c r="J106" s="27">
-        <f t="shared" ref="J106:M106" si="24">I106*(1+$P$107)</f>
-        <v>4367428097.3001337</v>
-      </c>
-      <c r="K106" s="27">
-        <f t="shared" si="24"/>
-        <v>4985246538.8929844</v>
-      </c>
-      <c r="L106" s="27">
-        <f t="shared" si="24"/>
-        <v>5690461869.059268</v>
-      </c>
-      <c r="M106" s="27">
-        <f t="shared" si="24"/>
-        <v>6495437292.9383841</v>
-      </c>
-      <c r="N106" s="26" t="s">
+      <c r="P107" s="65">
+        <f>(P102*P94)+(P104*P99)</f>
+        <v>0.10335567182071206</v>
+      </c>
+      <c r="Q107" s="18"/>
+      <c r="R107" s="18"/>
+    </row>
+    <row r="108" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A108" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="18">
+        <f t="shared" ref="C108:H108" si="27">(C109/B109)-1</f>
+        <v>2.3434621675131275</v>
+      </c>
+      <c r="D108" s="18">
+        <f t="shared" si="27"/>
+        <v>-0.80735067820879203</v>
+      </c>
+      <c r="E108" s="18">
+        <f t="shared" si="27"/>
+        <v>-7.8579079928039066</v>
+      </c>
+      <c r="F108" s="18">
+        <f t="shared" si="27"/>
+        <v>-4.2444345176082248</v>
+      </c>
+      <c r="G108" s="18">
+        <f t="shared" si="27"/>
+        <v>0.57320460623220049</v>
+      </c>
+      <c r="H108" s="18">
+        <f t="shared" si="27"/>
+        <v>7.4596182085168827E-2</v>
+      </c>
+      <c r="I108" s="55">
+        <f>(I109/H109)-1</f>
+        <v>9.7294342716589322E-2</v>
+      </c>
+      <c r="J108" s="55">
+        <f>(J109/I109)-1</f>
+        <v>0.18057285180572857</v>
+      </c>
+      <c r="K108" s="55">
+        <f>(K109/J109)-1</f>
+        <v>0.16054852320675095</v>
+      </c>
+      <c r="L108" s="55">
+        <f>(L109/K109)-1</f>
+        <v>0.16669696418832936</v>
+      </c>
+      <c r="M108" s="55">
+        <f>(M109/L109)-1</f>
+        <v>0.17295107510127772</v>
+      </c>
+      <c r="N108" s="56">
+        <f>SUM(I108:M108)/5</f>
+        <v>0.15561275140373518</v>
+      </c>
+      <c r="O108" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="P108" s="87"/>
+    </row>
+    <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A109" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B109" s="1">
+        <v>151021000</v>
+      </c>
+      <c r="C109" s="1">
+        <v>504933000</v>
+      </c>
+      <c r="D109" s="1">
+        <v>97275000</v>
+      </c>
+      <c r="E109" s="1">
+        <v>-667103000</v>
+      </c>
+      <c r="F109" s="1">
+        <v>2164372000</v>
+      </c>
+      <c r="G109" s="1">
+        <v>3405000000</v>
+      </c>
+      <c r="H109" s="1">
+        <v>3659000000</v>
+      </c>
+      <c r="I109" s="66">
+        <v>4015000000</v>
+      </c>
+      <c r="J109" s="66">
+        <v>4740000000</v>
+      </c>
+      <c r="K109" s="66">
+        <v>5501000000</v>
+      </c>
+      <c r="L109" s="66">
+        <v>6418000000</v>
+      </c>
+      <c r="M109" s="66">
+        <v>7528000000</v>
+      </c>
+      <c r="N109" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="O106" s="79" t="s">
-        <v>142</v>
-      </c>
-      <c r="P106" s="79"/>
-      <c r="Q106" s="18"/>
-      <c r="R106" s="18"/>
-    </row>
-    <row r="107" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="18">
-        <f t="shared" ref="C107:H107" si="25">(C108/B108)-1</f>
-        <v>2.3434621675131275</v>
-      </c>
-      <c r="D107" s="18">
-        <f t="shared" si="25"/>
-        <v>-0.80735067820879203</v>
-      </c>
-      <c r="E107" s="18">
-        <f t="shared" si="25"/>
-        <v>-7.8579079928039066</v>
-      </c>
-      <c r="F107" s="18">
-        <f t="shared" si="25"/>
-        <v>-4.2444345176082248</v>
-      </c>
-      <c r="G107" s="18">
-        <f t="shared" si="25"/>
-        <v>0.57320460623220049</v>
-      </c>
-      <c r="H107" s="18">
-        <f t="shared" si="25"/>
-        <v>-1.5565345080763571E-2</v>
-      </c>
-      <c r="I107" s="41">
-        <v>3904000000</v>
-      </c>
-      <c r="J107" s="41">
-        <v>4641000000</v>
-      </c>
-      <c r="K107" s="41">
-        <v>5522000000</v>
-      </c>
-      <c r="L107" s="41">
-        <v>6378000000</v>
-      </c>
-      <c r="M107" s="41">
-        <v>7181000000</v>
-      </c>
-      <c r="N107" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="O107" s="60" t="s">
+      <c r="O109" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="P107" s="61">
-        <f>(SUM(I5:M5)/5)</f>
-        <v>0.14146047234865181</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A108" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="B108" s="1">
-        <v>151021000</v>
-      </c>
-      <c r="C108" s="1">
-        <v>504933000</v>
-      </c>
-      <c r="D108" s="1">
-        <v>97275000</v>
-      </c>
-      <c r="E108" s="1">
-        <v>-667103000</v>
-      </c>
-      <c r="F108" s="1">
-        <v>2164372000</v>
-      </c>
-      <c r="G108" s="1">
-        <v>3405000000</v>
-      </c>
-      <c r="H108" s="1">
-        <v>3352000000</v>
-      </c>
-      <c r="I108" s="26"/>
-      <c r="J108" s="26"/>
-      <c r="K108" s="26"/>
-      <c r="L108" s="26"/>
-      <c r="M108" s="42">
-        <f>M107*(1+P108)/(P109-P108)</f>
-        <v>87148165192.218552</v>
-      </c>
-      <c r="N108" s="29" t="s">
+      <c r="P109" s="48">
+        <f>(SUM(I6:M6)/5)</f>
+        <v>0.13648507527308604</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" ht="19" x14ac:dyDescent="0.2">
+      <c r="I110" s="81"/>
+      <c r="J110" s="81"/>
+      <c r="K110" s="81"/>
+      <c r="L110" s="81"/>
+      <c r="M110" s="68">
+        <f>M109*(1+P110)/(P111-P110)</f>
+        <v>98476598064.983276</v>
+      </c>
+      <c r="N110" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="O108" s="62" t="s">
+      <c r="O110" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="P108" s="63">
+      <c r="P110" s="49">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="I109" s="42">
-        <f t="shared" ref="I109:K109" si="26">I108+I107</f>
-        <v>3904000000</v>
-      </c>
-      <c r="J109" s="42">
-        <f t="shared" si="26"/>
-        <v>4641000000</v>
-      </c>
-      <c r="K109" s="42">
-        <f t="shared" si="26"/>
-        <v>5522000000</v>
-      </c>
-      <c r="L109" s="42">
-        <f>L108+L107</f>
-        <v>6378000000</v>
-      </c>
-      <c r="M109" s="42">
-        <f>M108+M107</f>
-        <v>94329165192.218552</v>
-      </c>
-      <c r="N109" s="29" t="s">
+    <row r="111" spans="1:18" ht="19" x14ac:dyDescent="0.2">
+      <c r="I111" s="68">
+        <f t="shared" ref="I111:K111" si="28">I110+I109</f>
+        <v>4015000000</v>
+      </c>
+      <c r="J111" s="68">
+        <f t="shared" si="28"/>
+        <v>4740000000</v>
+      </c>
+      <c r="K111" s="68">
+        <f t="shared" si="28"/>
+        <v>5501000000</v>
+      </c>
+      <c r="L111" s="68">
+        <f>L110+L109</f>
+        <v>6418000000</v>
+      </c>
+      <c r="M111" s="68">
+        <f>M110+M109</f>
+        <v>106004598064.98328</v>
+      </c>
+      <c r="N111" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="O109" s="64" t="s">
+      <c r="O111" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="P109" s="61">
-        <f>P105</f>
-        <v>0.10945989635886469</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="I110" s="74" t="s">
+      <c r="P111" s="48">
+        <f>P107</f>
+        <v>0.10335567182071206</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I112" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="J110" s="74"/>
-    </row>
-    <row r="111" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I111" s="65" t="s">
+      <c r="J112" s="85"/>
+      <c r="K112" s="26"/>
+      <c r="L112" s="26"/>
+      <c r="M112" s="26"/>
+      <c r="N112" s="26"/>
+      <c r="O112" s="26"/>
+      <c r="P112" s="26"/>
+    </row>
+    <row r="113" spans="9:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I113" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="J111" s="56">
-        <f>NPV(P109,I109,J109,K109,L109,M109)</f>
-        <v>71658509665.108353</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I112" s="65" t="s">
+      <c r="J113" s="62">
+        <f>NPV(P111,I111,J111,K111,L111,M111)</f>
+        <v>80784020706.486313</v>
+      </c>
+      <c r="K113" s="26"/>
+      <c r="L113" s="26"/>
+      <c r="M113" s="26"/>
+      <c r="N113" s="26"/>
+      <c r="O113" s="26"/>
+      <c r="P113" s="26"/>
+    </row>
+    <row r="114" spans="9:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="I114" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="J112" s="56">
-        <f>G41</f>
+      <c r="J114" s="62">
+        <f>G42</f>
         <v>9622000000</v>
       </c>
-    </row>
-    <row r="113" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I113" s="65" t="s">
+      <c r="K114" s="26"/>
+      <c r="L114" s="26"/>
+      <c r="M114" s="26"/>
+      <c r="N114" s="26"/>
+      <c r="O114" s="26"/>
+      <c r="P114" s="26"/>
+    </row>
+    <row r="115" spans="9:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="I115" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="J113" s="56">
-        <f>P99</f>
+      <c r="J115" s="62">
+        <f>P101</f>
         <v>2341000000</v>
       </c>
-    </row>
-    <row r="114" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I114" s="65" t="s">
+      <c r="K115" s="26"/>
+      <c r="L115" s="26"/>
+      <c r="M115" s="26"/>
+      <c r="N115" s="26"/>
+      <c r="O115" s="26"/>
+      <c r="P115" s="26"/>
+    </row>
+    <row r="116" spans="9:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="I116" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="J114" s="56">
-        <f>J111+J112-J113</f>
-        <v>78939509665.108353</v>
-      </c>
-    </row>
-    <row r="115" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I115" s="65" t="s">
-        <v>166</v>
-      </c>
-      <c r="J115" s="65">
-        <f>G35*(1+(5*0.05))</f>
+      <c r="J116" s="62">
+        <f>J113+J114-J115</f>
+        <v>88065020706.486313</v>
+      </c>
+      <c r="K116" s="26"/>
+      <c r="L116" s="26"/>
+      <c r="M116" s="26"/>
+      <c r="N116" s="26"/>
+      <c r="O116" s="26"/>
+      <c r="P116" s="26"/>
+    </row>
+    <row r="117" spans="9:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="I117" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="J117" s="72">
+        <f>G36*(1+(5*0.05))</f>
         <v>769863750</v>
       </c>
-    </row>
-    <row r="116" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I116" s="66" t="s">
+      <c r="K117" s="26"/>
+      <c r="L117" s="26"/>
+      <c r="M117" s="26"/>
+      <c r="N117" s="26"/>
+      <c r="O117" s="26"/>
+      <c r="P117" s="26"/>
+    </row>
+    <row r="118" spans="9:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="I118" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="J116" s="67">
-        <f>J114/J115</f>
-        <v>102.53698744110027</v>
-      </c>
-    </row>
-    <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I117" s="65" t="s">
+      <c r="J118" s="74">
+        <f>J116/J117</f>
+        <v>114.390397919744</v>
+      </c>
+      <c r="K118" s="26"/>
+      <c r="L118" s="26"/>
+      <c r="M118" s="26"/>
+      <c r="N118" s="26"/>
+      <c r="O118" s="26"/>
+      <c r="P118" s="26"/>
+    </row>
+    <row r="119" spans="9:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I119" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="J117" s="68" cm="1">
-        <f t="array" ref="J117">_FV(A1,"Price")</f>
-        <v>148.65</v>
-      </c>
-    </row>
-    <row r="118" spans="9:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I118" s="66" t="s">
+      <c r="J119" s="75" cm="1">
+        <f t="array" ref="J119">_FV(A1,"Price")</f>
+        <v>119.97</v>
+      </c>
+      <c r="K119" s="26"/>
+      <c r="L119" s="26"/>
+      <c r="M119" s="26"/>
+      <c r="N119" s="26"/>
+      <c r="O119" s="26"/>
+      <c r="P119" s="26"/>
+    </row>
+    <row r="120" spans="9:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I120" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="J118" s="69">
-        <f>J116/J117-1</f>
-        <v>-0.310211991650856</v>
-      </c>
-    </row>
-    <row r="119" spans="9:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I119" s="66" t="s">
+      <c r="J120" s="76">
+        <f>J118/J119-1</f>
+        <v>-4.6508311079903275E-2</v>
+      </c>
+      <c r="K120" s="26"/>
+      <c r="L120" s="26"/>
+      <c r="M120" s="26"/>
+      <c r="N120" s="26"/>
+      <c r="O120" s="26"/>
+      <c r="P120" s="26"/>
+    </row>
+    <row r="121" spans="9:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="I121" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="J119" s="70" t="str">
-        <f>IF(J116&gt;J117,"BUY","SELL")</f>
+      <c r="J121" s="77" t="str">
+        <f>IF(J118&gt;J119,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="K121" s="26"/>
+      <c r="L121" s="26"/>
+      <c r="M121" s="26"/>
+      <c r="N121" s="26"/>
+      <c r="O121" s="26"/>
+      <c r="P121" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="O83:P83"/>
-    <mergeCell ref="O84:P84"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="O98:P98"/>
-    <mergeCell ref="O104:P104"/>
+  <mergeCells count="8">
+    <mergeCell ref="O85:P85"/>
+    <mergeCell ref="O95:P95"/>
+    <mergeCell ref="O86:P86"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="I106:M106"/>
+    <mergeCell ref="O108:P108"/>
     <mergeCell ref="O106:P106"/>
+    <mergeCell ref="O100:P100"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/ABNB" display="ROIC.AI | ABNB" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B37" r:id="rId2" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B75" r:id="rId3" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C37" r:id="rId4" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C75" r:id="rId5" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D37" r:id="rId6" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D75" r:id="rId7" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E37" r:id="rId8" tooltip="https://www.sec.gov/Archives/edgar/data/1559720/000155972021000010/0001559720-21-000010-index.htm" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E75" r:id="rId9" tooltip="https://www.sec.gov/Archives/edgar/data/1559720/000155972021000010/0001559720-21-000010-index.htm" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F37" r:id="rId10" tooltip="https://www.sec.gov/Archives/edgar/data/1559720/000155972022000006/0001559720-22-000006-index.htm" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F75" r:id="rId11" tooltip="https://www.sec.gov/Archives/edgar/data/1559720/000155972022000006/0001559720-22-000006-index.htm" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G37" r:id="rId12" tooltip="https://www.sec.gov/Archives/edgar/data/1559720/000155972023000003/0001559720-23-000003-index.htm" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G75" r:id="rId13" tooltip="https://www.sec.gov/Archives/edgar/data/1559720/000155972023000003/0001559720-23-000003-index.htm" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B38" r:id="rId2" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B76" r:id="rId3" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C38" r:id="rId4" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C76" r:id="rId5" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D38" r:id="rId6" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D76" r:id="rId7" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E38" r:id="rId8" tooltip="https://www.sec.gov/Archives/edgar/data/1559720/000155972021000010/0001559720-21-000010-index.htm" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E76" r:id="rId9" tooltip="https://www.sec.gov/Archives/edgar/data/1559720/000155972021000010/0001559720-21-000010-index.htm" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F38" r:id="rId10" tooltip="https://www.sec.gov/Archives/edgar/data/1559720/000155972022000006/0001559720-22-000006-index.htm" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F76" r:id="rId11" tooltip="https://www.sec.gov/Archives/edgar/data/1559720/000155972022000006/0001559720-22-000006-index.htm" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G38" r:id="rId12" tooltip="https://www.sec.gov/Archives/edgar/data/1559720/000155972023000003/0001559720-23-000003-index.htm" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G76" r:id="rId13" tooltip="https://www.sec.gov/Archives/edgar/data/1559720/000155972023000003/0001559720-23-000003-index.htm" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="I1" r:id="rId14" display="https://finbox.com/NASDAQGS:ABNB/explorer/revenue_proj" xr:uid="{A9B4D051-77A7-D148-BC59-D386FC73E725}"/>
     <hyperlink ref="A3" r:id="rId15" xr:uid="{1CB1F9AA-A62F-8349-B76A-1702B2216B3A}"/>
     <hyperlink ref="H1" r:id="rId16" display="https://finbox.com/NASDAQGS:ABNB/models/dcf-ebitda-exit-5yr/" xr:uid="{0312FE5B-5EDF-6A43-A08F-28BF98DB7F16}"/>
-    <hyperlink ref="N107" r:id="rId17" xr:uid="{B4B9DE89-C2B1-3A4E-A1A4-E1E7BF8A8724}"/>
+    <hyperlink ref="N109" r:id="rId17" xr:uid="{B4B9DE89-C2B1-3A4E-A1A4-E1E7BF8A8724}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId18"/>

--- a/Technology/Software/Airbnb.xlsx
+++ b/Technology/Software/Airbnb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBD547D-EA75-7148-A3CC-F84B1EF3B9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31565AF4-0BC9-FD47-9459-B539782CB317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2393,13 +2393,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2415,14 +2417,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2432,6 +2434,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2559,11 +2563,11 @@
     <v>Powered by Refinitiv</v>
     <v>154.94999999999999</v>
     <v>81.91</v>
-    <v>1.6339999999999999</v>
-    <v>-2.2000000000000002</v>
-    <v>-1.8008E-2</v>
-    <v>-0.51</v>
-    <v>-4.2509999999999996E-3</v>
+    <v>1.641</v>
+    <v>-1.38</v>
+    <v>-1.1951E-2</v>
+    <v>0.06</v>
+    <v>5.2589999999999994E-4</v>
     <v>USD</v>
     <v>Airbnb, Inc. primarily operates a global platform for stays and experiences. The Company’s marketplace model connects hosts and guests online or through mobile devices to book spaces and experiences around the world. It partners with hosts throughout the process of setting up their listing and provide them with a range of tools to manage their listings, including scheduling, merchandising, integrated payments, community support, host protections, pricing guidance, and feedback from reviews. Its Website and mobile applications provide its guests a way to explore a variety of homes and experiences and an easy way to book them. Its hosts generally fall into two categories: individual and professional. Individual hosts list their spaces, including private rooms, primary homes, or vacation homes, on Airbnb. Professional hosts are often those who run property management or hospitality businesses and generally use application programming interfaces to list their properties on its platform.</v>
     <v>6811</v>
@@ -2571,25 +2575,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>888 Brannan St., SAN FRANCISCO, CA, 94103 US</v>
-    <v>123.48</v>
+    <v>116.745</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.998799003908</v>
+    <v>45226.999468529684</v>
     <v>0</v>
-    <v>119.33</v>
-    <v>77654613492</v>
+    <v>113.235</v>
+    <v>73848590000</v>
     <v>AIRBNB, INC.</v>
     <v>AIRBNB, INC.</v>
-    <v>122.39</v>
-    <v>35.712699999999998</v>
-    <v>122.17</v>
-    <v>119.97</v>
-    <v>119.46</v>
+    <v>116.21</v>
+    <v>33.3508</v>
+    <v>115.47</v>
+    <v>114.09</v>
+    <v>114.15</v>
     <v>647283600</v>
     <v>ABNB</v>
     <v>AIRBNB, INC. (XNAS:ABNB)</v>
-    <v>4374408</v>
-    <v>7989489</v>
+    <v>5201552</v>
+    <v>4742991</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2754,9 +2758,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3177,10 +3181,10 @@
   <dimension ref="A1:AM121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I96" sqref="I96"/>
+      <selection pane="bottomRight" activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3930,20 +3934,20 @@
       </c>
       <c r="H18" s="1"/>
       <c r="N18" s="22">
-        <f>(SUM(C37:G37)/5)</f>
-        <v>0.14224609231543348</v>
+        <f>AVERAGE(D37:H37)</f>
+        <v>0.14889962761738218</v>
       </c>
       <c r="O18" s="35">
         <f>P103/H5</f>
-        <v>7.8877210250888776</v>
+        <v>7.5011264601320464</v>
       </c>
       <c r="P18" s="35">
         <f>P103/H30</f>
-        <v>29.051482787878786</v>
+        <v>27.627605686494576</v>
       </c>
       <c r="Q18" s="36">
         <f>P103/H109</f>
-        <v>21.222906119704838</v>
+        <v>20.182724788193497</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -4052,15 +4056,15 @@
       </c>
       <c r="O21" s="35">
         <f>P103/I5</f>
-        <v>6.9764274092175009</v>
+        <v>6.6344973497439579</v>
       </c>
       <c r="P21" s="37">
         <f>P103/I30</f>
-        <v>26.76822250672182</v>
+        <v>25.456253016201309</v>
       </c>
       <c r="Q21" s="36">
         <f>P103/I109</f>
-        <v>19.341124157409713</v>
+        <v>18.393173100871731</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4205,7 +4209,7 @@
       </c>
       <c r="Q24" s="52">
         <f>H107/P103</f>
-        <v>4.7118900416353901E-2</v>
+        <v>4.9547323787766294E-2</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6207,7 +6211,7 @@
       </c>
       <c r="P96" s="78">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6244,7 +6248,7 @@
       </c>
       <c r="P97" s="61" cm="1">
         <f t="array" ref="P97">_FV(A1,"Beta")</f>
-        <v>1.6339999999999999</v>
+        <v>1.641</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6317,7 +6321,7 @@
       </c>
       <c r="P99" s="58">
         <f>(P96)+((P97)*(P98-P96))</f>
-        <v>0.10617732000000001</v>
+        <v>0.10678755000000001</v>
       </c>
     </row>
     <row r="100" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6425,7 +6429,7 @@
       </c>
       <c r="P102" s="58">
         <f>P101/P105</f>
-        <v>2.9264104590361231E-2</v>
+        <v>3.0725982381582577E-2</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6462,7 +6466,7 @@
       </c>
       <c r="P103" s="62" cm="1">
         <f t="array" ref="P103">_FV(A1,"Market cap",TRUE)</f>
-        <v>77654613492</v>
+        <v>73848590000</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6499,7 +6503,7 @@
       </c>
       <c r="P104" s="58">
         <f>P103/P105</f>
-        <v>0.97073589540963878</v>
+        <v>0.96927401761841747</v>
       </c>
     </row>
     <row r="105" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6536,7 +6540,7 @@
       </c>
       <c r="P105" s="63">
         <f>P101+P103</f>
-        <v>79995613492</v>
+        <v>76189590000</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6634,7 +6638,7 @@
       </c>
       <c r="P107" s="65">
         <f>(P102*P94)+(P104*P99)</f>
-        <v>0.10335567182071206</v>
+        <v>0.10380619748726534</v>
       </c>
       <c r="Q107" s="18"/>
       <c r="R107" s="18"/>
@@ -6755,7 +6759,7 @@
       <c r="L110" s="81"/>
       <c r="M110" s="68">
         <f>M109*(1+P110)/(P111-P110)</f>
-        <v>98476598064.983276</v>
+        <v>97913619055.74617</v>
       </c>
       <c r="N110" s="69" t="s">
         <v>141</v>
@@ -6786,7 +6790,7 @@
       </c>
       <c r="M111" s="68">
         <f>M110+M109</f>
-        <v>106004598064.98328</v>
+        <v>105441619055.74617</v>
       </c>
       <c r="N111" s="69" t="s">
         <v>137</v>
@@ -6796,7 +6800,7 @@
       </c>
       <c r="P111" s="48">
         <f>P107</f>
-        <v>0.10335567182071206</v>
+        <v>0.10380619748726534</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6817,7 +6821,7 @@
       </c>
       <c r="J113" s="62">
         <f>NPV(P111,I111,J111,K111,L111,M111)</f>
-        <v>80784020706.486313</v>
+        <v>80291512068.09053</v>
       </c>
       <c r="K113" s="26"/>
       <c r="L113" s="26"/>
@@ -6862,7 +6866,7 @@
       </c>
       <c r="J116" s="62">
         <f>J113+J114-J115</f>
-        <v>88065020706.486313</v>
+        <v>87572512068.09053</v>
       </c>
       <c r="K116" s="26"/>
       <c r="L116" s="26"/>
@@ -6892,7 +6896,7 @@
       </c>
       <c r="J118" s="74">
         <f>J116/J117</f>
-        <v>114.390397919744</v>
+        <v>113.75066311160973</v>
       </c>
       <c r="K118" s="26"/>
       <c r="L118" s="26"/>
@@ -6907,7 +6911,7 @@
       </c>
       <c r="J119" s="75" cm="1">
         <f t="array" ref="J119">_FV(A1,"Price")</f>
-        <v>119.97</v>
+        <v>114.09</v>
       </c>
       <c r="K119" s="26"/>
       <c r="L119" s="26"/>
@@ -6922,7 +6926,7 @@
       </c>
       <c r="J120" s="76">
         <f>J118/J119-1</f>
-        <v>-4.6508311079903275E-2</v>
+        <v>-2.9742912471757421E-3</v>
       </c>
       <c r="K120" s="26"/>
       <c r="L120" s="26"/>

--- a/Technology/Software/Airbnb.xlsx
+++ b/Technology/Software/Airbnb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A7F051-20BF-1C4F-B57F-F382692B2DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5A6C01-B327-0B4B-A641-D9CA8CC428C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="500" windowWidth="36820" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1560,7 +1560,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.6689999999999995E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1699,11 +1699,11 @@
     <v>Powered by Refinitiv</v>
     <v>154.94999999999999</v>
     <v>81.91</v>
-    <v>1.6339999999999999</v>
-    <v>7.14</v>
-    <v>6.1817999999999998E-2</v>
-    <v>-0.18</v>
-    <v>-1.4680000000000001E-3</v>
+    <v>1.6319999999999999</v>
+    <v>-2.14</v>
+    <v>-1.8187999999999999E-2</v>
+    <v>-0.77</v>
+    <v>-6.6660000000000001E-3</v>
     <v>USD</v>
     <v>Airbnb, Inc. primarily operates a global platform for stays and experiences. The Company’s marketplace model connects hosts and guests online or through mobile devices to book spaces and experiences around the world. It partners with hosts throughout the process of setting up their listing and provide them with a range of tools to manage their listings, including scheduling, merchandising, integrated payments, community support, host protections, pricing guidance, and feedback from reviews. Its Website and mobile applications provide its guests a way to explore a variety of homes and experiences and an easy way to book them. Its hosts generally fall into two categories: individual and professional. Individual hosts list their spaces, including private rooms, primary homes, or vacation homes, on Airbnb. Professional hosts are often those who run property management or hospitality businesses and generally use application programming interfaces to list their properties on its platform.</v>
     <v>6811</v>
@@ -1711,25 +1711,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>888 Brannan St., SAN FRANCISCO, CA, 94103 US</v>
-    <v>123.45</v>
+    <v>119.53</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45233.999896990623</v>
+    <v>45239.969010126566</v>
     <v>0</v>
-    <v>117.38</v>
-    <v>79382860704</v>
+    <v>115.2</v>
+    <v>74774201472</v>
     <v>AIRBNB, INC.</v>
     <v>AIRBNB, INC.</v>
-    <v>117.98</v>
-    <v>13.974</v>
-    <v>115.5</v>
-    <v>122.64</v>
-    <v>122.46</v>
+    <v>118.35</v>
+    <v>14.235300000000001</v>
+    <v>117.66</v>
+    <v>115.52</v>
+    <v>114.75</v>
     <v>647283600</v>
     <v>ABNB</v>
     <v>AIRBNB, INC. (XNAS:ABNB)</v>
-    <v>9020387</v>
-    <v>5462952</v>
+    <v>5508706</v>
+    <v>5726446</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -1894,9 +1894,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2341,9 +2341,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L196"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A190" sqref="A190:XFD190"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9747,7 +9747,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9796,7 +9796,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>79382860704</v>
+        <v>74774201472</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>194</v>
@@ -9824,7 +9824,7 @@
       </c>
       <c r="I3" s="39">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>89134567080.441345</v>
+        <v>89122233972.503143</v>
       </c>
       <c r="J3" s="104" t="s">
         <v>198</v>
@@ -9869,7 +9869,7 @@
       </c>
       <c r="I4" s="47">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>73606000684.919098</v>
+        <v>73595197459.487289</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>204</v>
@@ -9919,14 +9919,14 @@
       </c>
       <c r="I5" s="47">
         <f>I4+G5-G6</f>
-        <v>81622000684.919098</v>
+        <v>81611197459.487289</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>211</v>
       </c>
       <c r="K5" s="50" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>122.64</v>
+        <v>115.52</v>
       </c>
       <c r="L5" s="35" t="s">
         <v>212</v>
@@ -9944,7 +9944,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="53">
         <f>O20/F10</f>
-        <v>8.0690039341329545</v>
+        <v>7.6005490416751371</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>214</v>
@@ -9972,14 +9972,14 @@
       </c>
       <c r="I6" s="55">
         <f>N25</f>
-        <v>9.8987569761216643E-2</v>
+        <v>9.8997808470944595E-2</v>
       </c>
       <c r="J6" s="46" t="s">
         <v>217</v>
       </c>
       <c r="K6" s="56">
         <f>I5/G4</f>
-        <v>114.83259942358279</v>
+        <v>114.81740055014079</v>
       </c>
       <c r="L6" s="57" t="s">
         <v>218</v>
@@ -9997,14 +9997,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="60">
         <f>O20/F12</f>
-        <v>29.854404176006017</v>
+        <v>28.121173927040239</v>
       </c>
       <c r="B7" s="61" t="s">
         <v>220</v>
       </c>
       <c r="C7" s="62">
         <f>F14/A3</f>
-        <v>4.608047590574773E-2</v>
+        <v>4.892061604121279E-2</v>
       </c>
       <c r="D7" s="63" t="s">
         <v>221</v>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="K7" s="69">
         <f>K6/K5-1</f>
-        <v>-6.3661126683114855E-2</v>
+        <v>-6.0820589496122235E-3</v>
       </c>
       <c r="L7" s="70" t="s">
         <v>224</v>
@@ -10336,7 +10336,7 @@
       </c>
       <c r="O14" s="88">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.6689999999999995E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
       <c r="P14" s="40"/>
     </row>
@@ -10386,7 +10386,7 @@
       </c>
       <c r="O15" s="92" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.6339999999999999</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="P15" s="40"/>
     </row>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="O17" s="99">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.10765454000000001</v>
+        <v>0.10819928000000001</v>
       </c>
       <c r="P17" s="40"/>
     </row>
@@ -10518,7 +10518,7 @@
       </c>
       <c r="O20" s="101">
         <f>A3</f>
-        <v>79382860704</v>
+        <v>74774201472</v>
       </c>
       <c r="P20" s="40"/>
     </row>
@@ -10540,7 +10540,7 @@
       </c>
       <c r="O21" s="101">
         <f>O19+O20</f>
-        <v>81706860704</v>
+        <v>77098201472</v>
       </c>
       <c r="P21" s="40"/>
     </row>
@@ -10563,7 +10563,7 @@
       </c>
       <c r="O22" s="102">
         <f>(O19/O21)</f>
-        <v>2.84431439413536E-2</v>
+        <v>3.0143375015615825E-2</v>
       </c>
       <c r="P22" s="40"/>
     </row>
@@ -10586,7 +10586,7 @@
       </c>
       <c r="O23" s="103">
         <f>O20/O21</f>
-        <v>0.97155685605864639</v>
+        <v>0.96985662498438419</v>
       </c>
       <c r="P23" s="40"/>
     </row>
@@ -10626,7 +10626,7 @@
       <c r="M25" s="79"/>
       <c r="N25" s="110">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.8987569761216643E-2</v>
+        <v>9.8997808470944595E-2</v>
       </c>
       <c r="O25" s="111"/>
       <c r="P25" s="40"/>

--- a/Technology/Software/Airbnb.xlsx
+++ b/Technology/Software/Airbnb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5A6C01-B327-0B4B-A641-D9CA8CC428C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FBA7A9-1083-8845-95C0-96B59A5B4E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="500" windowWidth="36820" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="246">
   <si>
     <t>2017 Y</t>
   </si>
@@ -806,6 +806,12 @@
   </si>
   <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
   </si>
 </sst>
 </file>
@@ -818,7 +824,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -962,6 +968,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1045,7 +1057,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1090,65 +1102,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1157,23 +1112,93 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,7 +1208,148 @@
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1191,7 +1357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1254,258 +1420,261 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="12" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="12" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="15" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="15" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="19" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="12" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1543,6 +1712,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1560,7 +1730,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1572,6 +1742,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1699,11 +1870,11 @@
     <v>Powered by Refinitiv</v>
     <v>154.94999999999999</v>
     <v>81.91</v>
-    <v>1.6319999999999999</v>
-    <v>-2.14</v>
-    <v>-1.8187999999999999E-2</v>
-    <v>-0.77</v>
-    <v>-6.6660000000000001E-3</v>
+    <v>1.6220000000000001</v>
+    <v>8.68</v>
+    <v>6.8703E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Airbnb, Inc. primarily operates a global platform for stays and experiences. The Company’s marketplace model connects hosts and guests online or through mobile devices to book spaces and experiences around the world. It partners with hosts throughout the process of setting up their listing and provide them with a range of tools to manage their listings, including scheduling, merchandising, integrated payments, community support, host protections, pricing guidance, and feedback from reviews. Its Website and mobile applications provide its guests a way to explore a variety of homes and experiences and an easy way to book them. Its hosts generally fall into two categories: individual and professional. Individual hosts list their spaces, including private rooms, primary homes, or vacation homes, on Airbnb. Professional hosts are often those who run property management or hospitality businesses and generally use application programming interfaces to list their properties on its platform.</v>
     <v>6811</v>
@@ -1711,25 +1882,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>888 Brannan St., SAN FRANCISCO, CA, 94103 US</v>
-    <v>119.53</v>
+    <v>135.41999999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45239.969010126566</v>
+    <v>45261.888899050784</v>
     <v>0</v>
-    <v>115.2</v>
-    <v>74774201472</v>
+    <v>125.4</v>
+    <v>86419420000</v>
     <v>AIRBNB, INC.</v>
     <v>AIRBNB, INC.</v>
-    <v>118.35</v>
-    <v>14.235300000000001</v>
-    <v>117.66</v>
-    <v>115.52</v>
-    <v>114.75</v>
-    <v>647283600</v>
+    <v>125.5</v>
+    <v>15.2875</v>
+    <v>126.34</v>
+    <v>135.02000000000001</v>
+    <v>135.02000000000001</v>
+    <v>640049100</v>
     <v>ABNB</v>
     <v>AIRBNB, INC. (XNAS:ABNB)</v>
-    <v>5508706</v>
-    <v>5726446</v>
+    <v>7424812</v>
+    <v>5783192</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2341,9 +2512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L196"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A188" sqref="A188"/>
+      <selection pane="topRight" activeCell="H173" sqref="H173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9747,7 +9918,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9755,1728 +9926,1791 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="e" vm="1">
+    <row r="1" spans="1:16" s="112" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="111" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-    </row>
-    <row r="2" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+    </row>
+    <row r="2" spans="1:16" s="112" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" cm="1">
+      <c r="A3" s="64" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>74774201472</v>
-      </c>
-      <c r="B3" s="35" t="s">
+        <v>86419420000</v>
+      </c>
+      <c r="B3" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="66">
         <f>Financials!H8*0.01</f>
         <v>0.82330000000000003</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="66">
         <f>SUM(C11:E11)/3</f>
         <v>0.29281256188782862</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="38">
-        <f>AVERAGE(Financials!E129:H129)</f>
-        <v>1.9622803978759984E-2</v>
-      </c>
-      <c r="H3" s="37" t="s">
+      <c r="G3" s="68">
+        <f>AVERAGE(Financials!G129:L129)</f>
+        <v>1.3300999962014468E-4</v>
+      </c>
+      <c r="H3" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="I3" s="39">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>89122233972.503143</v>
-      </c>
-      <c r="J3" s="104" t="s">
+      <c r="I3" s="69">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>86039027465.352539</v>
+      </c>
+      <c r="J3" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="K3" s="106"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="114" t="s">
+      <c r="K3" s="71">
+        <f>(Financials!H172*-1)/Model!A3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="M3" s="34"/>
+      <c r="N3" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="O3" s="115"/>
-      <c r="P3" s="40"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="34"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41">
+      <c r="A4" s="73">
         <f>Financials!H56-Financials!H96-Financials!H105</f>
         <v>8016000000</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="36">
         <f>Financials!H17*0.01</f>
         <v>0.21530000000000002</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="36">
         <f>SUM(C13:E13)/3</f>
         <v>-0.50056919516481246</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="76">
         <f>A5*(1+(5*G3))</f>
-        <v>710791196.00733042</v>
-      </c>
-      <c r="H4" s="46" t="s">
+        <v>640474764.65273929</v>
+      </c>
+      <c r="H4" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="I4" s="47">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>73595197459.487289</v>
-      </c>
-      <c r="J4" s="44" t="s">
+      <c r="I4" s="35">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>70895222558.974045</v>
+      </c>
+      <c r="J4" s="75" t="s">
         <v>204</v>
       </c>
-      <c r="K4" s="48">
-        <f>(Financials!H172*-1)/Model!A3</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="M4" s="40"/>
-      <c r="N4" s="116" t="s">
+      <c r="K4" s="77" cm="1">
+        <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
+        <v>6.8703E-2</v>
+      </c>
+      <c r="L4" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="M4" s="34"/>
+      <c r="N4" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="O4" s="117"/>
-      <c r="P4" s="40"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="34"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" cm="1">
+      <c r="A5" s="73" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>647283600</v>
-      </c>
-      <c r="B5" s="42" t="s">
+        <v>640049100</v>
+      </c>
+      <c r="B5" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="36">
         <f>Financials!H34*0.01</f>
         <v>0.25309999999999999</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="79" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="43">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="36">
+        <f>SUM(C16:E16)/3</f>
         <v>4.4085847749010707</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="75" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="76">
         <f>Financials!H56</f>
         <v>10340000000</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="35">
         <f>I4+G5-G6</f>
-        <v>81611197459.487289</v>
-      </c>
-      <c r="J5" s="44" t="s">
+        <v>78911222558.974045</v>
+      </c>
+      <c r="J5" s="75" t="s">
         <v>211</v>
       </c>
-      <c r="K5" s="50" cm="1">
+      <c r="K5" s="80" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>115.52</v>
-      </c>
-      <c r="L5" s="35" t="s">
+        <v>135.02000000000001</v>
+      </c>
+      <c r="L5" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="M5" s="40"/>
-      <c r="N5" s="51" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="O5" s="52">
+      <c r="O5" s="96">
         <f>Financials!H20</f>
         <v>-481775000</v>
       </c>
-      <c r="P5" s="40"/>
+      <c r="P5" s="34"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53">
+      <c r="A6" s="82">
         <f>O20/F10</f>
-        <v>7.6005490416751371</v>
-      </c>
-      <c r="B6" s="42" t="s">
+        <v>8.7842467981297006</v>
+      </c>
+      <c r="B6" s="74" t="s">
         <v>214</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="36">
         <f>Financials!H190</f>
         <v>0.43034209955316716</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="36">
         <f>Financials!H33/Financials!H126</f>
         <v>0.45469223166633721</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="74" t="s">
         <v>215</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="76">
         <f>Financials!H96+Financials!H105</f>
         <v>2324000000</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="75" t="s">
         <v>216</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="77">
         <f>N25</f>
-        <v>9.8997808470944595E-2</v>
-      </c>
-      <c r="J6" s="46" t="s">
+        <v>0.10164951818121969</v>
+      </c>
+      <c r="J6" s="75" t="s">
         <v>217</v>
       </c>
-      <c r="K6" s="56">
+      <c r="K6" s="83">
         <f>I5/G4</f>
-        <v>114.81740055014079</v>
-      </c>
-      <c r="L6" s="57" t="s">
+        <v>123.2073875724973</v>
+      </c>
+      <c r="L6" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="M6" s="40"/>
-      <c r="N6" s="58" t="s">
+      <c r="M6" s="34"/>
+      <c r="N6" s="95" t="s">
         <v>219</v>
       </c>
-      <c r="O6" s="59">
+      <c r="O6" s="96">
         <f>Financials!H96</f>
         <v>50000000</v>
       </c>
-      <c r="P6" s="40"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60">
+      <c r="P6" s="34"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="85">
         <f>O20/F12</f>
-        <v>28.121173927040239</v>
-      </c>
-      <c r="B7" s="61" t="s">
+        <v>32.500722075968412</v>
+      </c>
+      <c r="B7" s="86" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="62">
-        <f>F14/A3</f>
-        <v>4.892061604121279E-2</v>
-      </c>
-      <c r="D7" s="63" t="s">
+      <c r="C7" s="87">
+        <f>F15/A3</f>
+        <v>4.2328448860221461E-2</v>
+      </c>
+      <c r="D7" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="88">
         <f>(Financials!H16*(1-0.25))/(Financials!H126+Financials!H105+Financials!H96)</f>
         <v>0.19875386021942301</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="89">
         <f>(Financials!H96+Financials!H105)/Financials!H126</f>
         <v>0.45937932397707054</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="91">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="68" t="s">
+      <c r="J7" s="92" t="s">
         <v>223</v>
       </c>
-      <c r="K7" s="69">
+      <c r="K7" s="93">
         <f>K6/K5-1</f>
-        <v>-6.0820589496122235E-3</v>
-      </c>
-      <c r="L7" s="70" t="s">
+        <v>-8.7487871630148928E-2</v>
+      </c>
+      <c r="L7" s="94" t="s">
         <v>224</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="58" t="s">
+      <c r="M7" s="34"/>
+      <c r="N7" s="95" t="s">
         <v>225</v>
       </c>
-      <c r="O7" s="59">
+      <c r="O7" s="96">
         <f>Financials!H105</f>
         <v>2274000000</v>
       </c>
-      <c r="P7" s="40"/>
+      <c r="P7" s="34"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="72" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="97" t="s">
         <v>206</v>
       </c>
-      <c r="O8" s="73">
+      <c r="O8" s="98">
         <f>O5/(O6+O7)</f>
         <v>-0.20730421686746989</v>
       </c>
-      <c r="P8" s="40"/>
+      <c r="P8" s="34"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75">
+      <c r="A9" s="44"/>
+      <c r="B9" s="45">
         <v>2019</v>
       </c>
-      <c r="C9" s="75">
+      <c r="C9" s="45">
         <v>2020</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="45">
         <v>2021</v>
       </c>
-      <c r="E9" s="75">
+      <c r="E9" s="46">
         <v>2022</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="47">
         <v>2023</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="48">
         <v>2024</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="48">
         <v>2025</v>
       </c>
-      <c r="I9" s="77">
+      <c r="I9" s="48">
         <v>2026</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="49">
         <v>2027</v>
       </c>
-      <c r="K9" s="78"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="58" t="s">
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="95" t="s">
         <v>226</v>
       </c>
-      <c r="O9" s="59">
+      <c r="O9" s="96">
         <f>Financials!H25</f>
         <v>119611000</v>
       </c>
-      <c r="P9" s="40"/>
+      <c r="P9" s="34"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="B10" s="81">
+      <c r="B10" s="51">
         <v>4805239000</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="51">
         <v>3378199000</v>
       </c>
-      <c r="D10" s="81">
+      <c r="D10" s="51">
         <v>5991760000</v>
       </c>
-      <c r="E10" s="81">
+      <c r="E10" s="52">
         <v>8399000000</v>
       </c>
-      <c r="F10" s="82">
+      <c r="F10" s="51">
         <v>9838000000</v>
       </c>
-      <c r="G10" s="81">
+      <c r="G10" s="51">
         <v>11073000000</v>
       </c>
-      <c r="H10" s="81">
+      <c r="H10" s="51">
         <v>12488000000</v>
       </c>
-      <c r="I10" s="81">
+      <c r="I10" s="51">
         <v>14335000000</v>
       </c>
-      <c r="J10" s="81">
+      <c r="J10" s="52">
         <v>16204000000</v>
       </c>
-      <c r="K10" s="83" t="s">
+      <c r="K10" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="N10" s="58" t="s">
+      <c r="N10" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="O10" s="59">
+      <c r="O10" s="96">
         <f>Financials!H24</f>
         <v>2419899000</v>
       </c>
-      <c r="P10" s="40"/>
+      <c r="P10" s="34"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="84"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85">
+      <c r="A11" s="54"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>-0.29697586321929048</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="39">
         <f t="shared" si="0"/>
         <v>0.77365513399299446</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="39">
         <f t="shared" si="0"/>
         <v>0.40175841488978192</v>
       </c>
-      <c r="F11" s="86">
+      <c r="F11" s="40">
         <f t="shared" si="0"/>
         <v>0.17132992022859872</v>
       </c>
-      <c r="G11" s="85">
+      <c r="G11" s="39">
         <f t="shared" si="0"/>
         <v>0.1255336450498068</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="39">
         <f t="shared" si="0"/>
         <v>0.1277883139167344</v>
       </c>
-      <c r="I11" s="85">
+      <c r="I11" s="39">
         <f t="shared" si="0"/>
         <v>0.1479019859064703</v>
       </c>
-      <c r="J11" s="85">
+      <c r="J11" s="55">
         <f t="shared" si="0"/>
         <v>0.13038018835019183</v>
       </c>
-      <c r="K11" s="87">
+      <c r="K11" s="55">
         <f>SUM(F11:J11)/5</f>
         <v>0.14058681069036041</v>
       </c>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="58" t="s">
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="95" t="s">
         <v>230</v>
       </c>
-      <c r="O11" s="88">
+      <c r="O11" s="99">
         <f>O9/O10</f>
         <v>4.9428095965988662E-2</v>
       </c>
-      <c r="P11" s="40"/>
+      <c r="P11" s="34"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="51">
         <v>-674339000</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="51">
         <v>-4584716000</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="51">
         <v>-352034000</v>
       </c>
-      <c r="E12" s="81">
+      <c r="E12" s="51">
         <v>1893000000</v>
       </c>
-      <c r="F12" s="82">
+      <c r="F12" s="56">
         <v>2659000000</v>
       </c>
-      <c r="G12" s="81">
+      <c r="G12" s="51">
         <v>2879000000</v>
       </c>
-      <c r="H12" s="81">
+      <c r="H12" s="51">
         <v>3219000000</v>
       </c>
-      <c r="I12" s="81">
+      <c r="I12" s="51">
         <v>3695000000</v>
       </c>
-      <c r="J12" s="81">
+      <c r="J12" s="52">
         <v>4739000000</v>
       </c>
-      <c r="K12" s="83" t="s">
+      <c r="K12" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="89" t="s">
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="95" t="s">
         <v>232</v>
       </c>
-      <c r="O12" s="90">
+      <c r="O12" s="99">
         <f>O8*(1-O11)</f>
         <v>-0.19705756414199047</v>
       </c>
-      <c r="P12" s="40"/>
+      <c r="P12" s="34"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="84"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85">
+      <c r="A13" s="54"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>5.7988296687571088</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="39">
         <f t="shared" si="1"/>
         <v>-0.92321574553363828</v>
       </c>
-      <c r="E13" s="85">
+      <c r="E13" s="39">
         <f t="shared" si="1"/>
         <v>-6.377321508717908</v>
       </c>
-      <c r="F13" s="86">
+      <c r="F13" s="40">
         <f t="shared" si="1"/>
         <v>0.40464870575805589</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G13" s="39">
         <f t="shared" si="1"/>
         <v>8.2737871380218042E-2</v>
       </c>
-      <c r="H13" s="85">
+      <c r="H13" s="39">
         <f t="shared" si="1"/>
         <v>0.11809656130600898</v>
       </c>
-      <c r="I13" s="85">
+      <c r="I13" s="39">
         <f t="shared" si="1"/>
         <v>0.14787200994097538</v>
       </c>
-      <c r="J13" s="85">
+      <c r="J13" s="55">
         <f t="shared" si="1"/>
         <v>0.28254397834912037</v>
       </c>
-      <c r="K13" s="87">
+      <c r="K13" s="55">
         <f>SUM(F13:J13)/5</f>
         <v>0.20717982534687573</v>
       </c>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="116" t="s">
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="115" t="s">
         <v>233</v>
       </c>
-      <c r="O13" s="117"/>
-      <c r="P13" s="40"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="106" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14" s="41">
+        <f>B12/B10</f>
+        <v>-0.14033412281886498</v>
+      </c>
+      <c r="C14" s="41">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>-1.3571479951299494</v>
+      </c>
+      <c r="D14" s="41">
+        <f t="shared" si="2"/>
+        <v>-5.8753020815252945E-2</v>
+      </c>
+      <c r="E14" s="41">
+        <f t="shared" si="2"/>
+        <v>0.22538397428265269</v>
+      </c>
+      <c r="F14" s="42">
+        <f t="shared" si="2"/>
+        <v>0.27027851189266111</v>
+      </c>
+      <c r="G14" s="41">
+        <f t="shared" si="2"/>
+        <v>0.26000180619524971</v>
+      </c>
+      <c r="H14" s="41">
+        <f t="shared" si="2"/>
+        <v>0.25776745675848817</v>
+      </c>
+      <c r="I14" s="41">
+        <f t="shared" si="2"/>
+        <v>0.25776072549703521</v>
+      </c>
+      <c r="J14" s="43">
+        <f t="shared" si="2"/>
+        <v>0.29245865218464578</v>
+      </c>
+      <c r="K14" s="43"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="95" t="s">
+        <v>235</v>
+      </c>
+      <c r="O14" s="99">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="34"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="81">
+      <c r="B15" s="51">
         <v>97275000</v>
       </c>
-      <c r="C14" s="81">
+      <c r="C15" s="51">
         <v>1256777000</v>
       </c>
-      <c r="D14" s="81">
+      <c r="D15" s="51">
         <v>2164372000</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E15" s="51">
         <v>3427841629</v>
       </c>
-      <c r="F14" s="82">
+      <c r="F15" s="56">
         <v>3658000000</v>
       </c>
-      <c r="G14" s="81">
+      <c r="G15" s="51">
         <v>4012000000</v>
       </c>
-      <c r="H14" s="81">
+      <c r="H15" s="51">
         <v>4706000000</v>
       </c>
-      <c r="I14" s="81">
+      <c r="I15" s="51">
         <v>5537000000</v>
       </c>
-      <c r="J14" s="81">
+      <c r="J15" s="52">
         <v>6434000000</v>
       </c>
-      <c r="K14" s="83" t="s">
+      <c r="K15" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="O14" s="88">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
-      </c>
-      <c r="P14" s="40"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="91"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="95" t="s">
+        <v>236</v>
+      </c>
+      <c r="O15" s="100" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="P15" s="34"/>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="58"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>11.919835517861733</v>
       </c>
-      <c r="D15" s="85">
-        <f t="shared" si="2"/>
+      <c r="D16" s="39">
+        <f t="shared" si="3"/>
         <v>0.72216073336797226</v>
       </c>
-      <c r="E15" s="85">
-        <f t="shared" si="2"/>
+      <c r="E16" s="39">
+        <f t="shared" si="3"/>
         <v>0.58375807347350639</v>
       </c>
-      <c r="F15" s="86">
-        <f t="shared" si="2"/>
+      <c r="F16" s="40">
+        <f t="shared" si="3"/>
         <v>6.7143816987584648E-2</v>
       </c>
-      <c r="G15" s="85">
-        <f t="shared" si="2"/>
+      <c r="G16" s="39">
+        <f t="shared" si="3"/>
         <v>9.6774193548387011E-2</v>
       </c>
-      <c r="H15" s="85">
-        <f t="shared" si="2"/>
+      <c r="H16" s="39">
+        <f t="shared" si="3"/>
         <v>0.17298105682951137</v>
       </c>
-      <c r="I15" s="85">
-        <f t="shared" si="2"/>
+      <c r="I16" s="39">
+        <f t="shared" si="3"/>
         <v>0.17658308542286449</v>
       </c>
-      <c r="J15" s="85">
-        <f t="shared" si="2"/>
+      <c r="J16" s="55">
+        <f t="shared" si="3"/>
         <v>0.16200108361928844</v>
       </c>
-      <c r="K15" s="87">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="55">
+        <f>SUM(F16:J16)/5</f>
         <v>0.1350966472815272</v>
       </c>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="O15" s="92" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.6319999999999999</v>
-      </c>
-      <c r="P15" s="40"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="80" t="s">
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="95" t="s">
+        <v>237</v>
+      </c>
+      <c r="O16" s="99">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="106" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="41">
+        <f>B15/B10</f>
+        <v>2.0243530030452178E-2</v>
+      </c>
+      <c r="C17" s="41">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.37202574507896069</v>
+      </c>
+      <c r="D17" s="41">
+        <f t="shared" si="4"/>
+        <v>0.36122474865481929</v>
+      </c>
+      <c r="E17" s="43">
+        <f t="shared" si="4"/>
+        <v>0.4081249707107989</v>
+      </c>
+      <c r="F17" s="41">
+        <f t="shared" si="4"/>
+        <v>0.37182354137019719</v>
+      </c>
+      <c r="G17" s="41">
+        <f t="shared" si="4"/>
+        <v>0.36232276709112254</v>
+      </c>
+      <c r="H17" s="41">
+        <f t="shared" si="4"/>
+        <v>0.37684176809737346</v>
+      </c>
+      <c r="I17" s="41">
+        <f t="shared" si="4"/>
+        <v>0.3862574119288455</v>
+      </c>
+      <c r="J17" s="43">
+        <f t="shared" si="4"/>
+        <v>0.39706245371513205</v>
+      </c>
+      <c r="K17" s="43"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="101" t="s">
+        <v>233</v>
+      </c>
+      <c r="O17" s="102">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>0.10968238000000001</v>
+      </c>
+      <c r="P17" s="34"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="93">
+      <c r="B18" s="60">
         <v>0.96875587513424277</v>
       </c>
-      <c r="C16" s="93">
+      <c r="C18" s="60">
         <v>-0.49551878291650303</v>
       </c>
-      <c r="D16" s="93">
+      <c r="D18" s="60">
         <v>5.6521061653451415E-2</v>
       </c>
-      <c r="E16" s="93">
+      <c r="E18" s="60">
         <v>0.17950259460827744</v>
       </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="O16" s="88">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="40"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="79"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="98" t="s">
-        <v>233</v>
-      </c>
-      <c r="O17" s="99">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.10819928000000001</v>
-      </c>
-      <c r="P17" s="40"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="79"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="116" t="s">
+      <c r="F18" s="61"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="115" t="s">
         <v>238</v>
       </c>
-      <c r="O18" s="117"/>
-      <c r="P18" s="40"/>
+      <c r="O18" s="116"/>
+      <c r="P18" s="34"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="107" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="B19" s="107"/>
-      <c r="C19" s="118" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>2008</v>
-      </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="79" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="58" t="s">
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="95" t="s">
         <v>216</v>
       </c>
-      <c r="O19" s="101">
+      <c r="O19" s="103">
         <f>O6+O7</f>
         <v>2324000000</v>
       </c>
-      <c r="P19" s="40"/>
+      <c r="P19" s="34"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="107" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="95" t="s">
+        <v>194</v>
+      </c>
+      <c r="O20" s="103">
+        <f>A3</f>
+        <v>86419420000</v>
+      </c>
+      <c r="P20" s="34"/>
+    </row>
+    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="118" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>2008</v>
+      </c>
+      <c r="E21" s="119"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="95" t="s">
+        <v>239</v>
+      </c>
+      <c r="O21" s="103">
+        <f>O19+O20</f>
+        <v>88743420000</v>
+      </c>
+      <c r="P21" s="34"/>
+    </row>
+    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="117" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Airbnb, Inc. primarily operates a global platform for stays and experiences. The Company’s marketplace model connects hosts and guests online or through mobile devices to book spaces and experiences around the world. It partners with hosts throughout the process of setting up their listing and provide them with a range of tools to manage their listings, including scheduling, merchandising, integrated payments, community support, host protections, pricing guidance, and feedback from reviews. Its Website and mobile applications provide its guests a way to explore a variety of homes and experiences and an easy way to book them. Its hosts generally fall into two categories: individual and professional. Individual hosts list their spaces, including private rooms, primary homes, or vacation homes, on Airbnb. Professional hosts are often those who run property management or hospitality businesses and generally use application programming interfaces to list their properties on its platform.</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="O20" s="101">
-        <f>A3</f>
-        <v>74774201472</v>
-      </c>
-      <c r="P20" s="40"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="107"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="O21" s="101">
-        <f>O19+O20</f>
-        <v>77098201472</v>
-      </c>
-      <c r="P21" s="40"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="107"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="72" t="s">
+      <c r="B22" s="117"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="O22" s="102">
+      <c r="O22" s="104">
         <f>(O19/O21)</f>
-        <v>3.0143375015615825E-2</v>
-      </c>
-      <c r="P22" s="40"/>
+        <v>2.618785708281245E-2</v>
+      </c>
+      <c r="P22" s="34"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="107"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="98" t="s">
+      <c r="A23" s="117"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="101" t="s">
         <v>241</v>
       </c>
-      <c r="O23" s="103">
+      <c r="O23" s="105">
         <f>O20/O21</f>
-        <v>0.96985662498438419</v>
-      </c>
-      <c r="P23" s="40"/>
+        <v>0.97381214291718754</v>
+      </c>
+      <c r="P23" s="34"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="107"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="108" t="s">
+      <c r="A24" s="117"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="107" t="s">
         <v>242</v>
       </c>
-      <c r="O24" s="109"/>
-      <c r="P24" s="40"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="34"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="107"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="110">
+      <c r="A25" s="117"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="109">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.8997808470944595E-2</v>
-      </c>
-      <c r="O25" s="111"/>
-      <c r="P25" s="40"/>
+        <v>0.10164951818121969</v>
+      </c>
+      <c r="O25" s="110"/>
+      <c r="P25" s="34"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="107"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
+      <c r="A26" s="117"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="107"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
+      <c r="A27" s="117"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
+      <c r="A28" s="117"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="40"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
+      <c r="A29" s="117"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="40"/>
-      <c r="B30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
+      <c r="A30" s="117"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="79"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="79"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="79"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="79"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="79"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="79"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="79"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="79"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="79"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="79"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="79"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="79"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="79"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="79"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="79"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="79"/>
-      <c r="M42" s="79"/>
-      <c r="N42" s="79"/>
-      <c r="O42" s="79"/>
-      <c r="P42" s="79"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="79"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
-      <c r="O43" s="79"/>
-      <c r="P43" s="79"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="79"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="79"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="79"/>
-      <c r="O44" s="79"/>
-      <c r="P44" s="79"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="79"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="79"/>
-      <c r="O45" s="79"/>
-      <c r="P45" s="79"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="79"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="79"/>
-      <c r="I46" s="79"/>
-      <c r="J46" s="79"/>
-      <c r="K46" s="79"/>
-      <c r="L46" s="79"/>
-      <c r="M46" s="79"/>
-      <c r="N46" s="79"/>
-      <c r="O46" s="79"/>
-      <c r="P46" s="79"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="79"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="79"/>
-      <c r="K47" s="79"/>
-      <c r="L47" s="79"/>
-      <c r="M47" s="79"/>
-      <c r="N47" s="79"/>
-      <c r="O47" s="79"/>
-      <c r="P47" s="79"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="79"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="79"/>
-      <c r="K48" s="79"/>
-      <c r="L48" s="79"/>
-      <c r="M48" s="79"/>
-      <c r="N48" s="79"/>
-      <c r="O48" s="79"/>
-      <c r="P48" s="79"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="79"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="79"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="79"/>
-      <c r="M49" s="79"/>
-      <c r="N49" s="79"/>
-      <c r="O49" s="79"/>
-      <c r="P49" s="79"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="79"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="79"/>
-      <c r="K50" s="79"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="79"/>
-      <c r="N50" s="79"/>
-      <c r="O50" s="79"/>
-      <c r="P50" s="79"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="79"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="79"/>
-      <c r="I51" s="79"/>
-      <c r="J51" s="79"/>
-      <c r="K51" s="79"/>
-      <c r="L51" s="79"/>
-      <c r="M51" s="79"/>
-      <c r="N51" s="79"/>
-      <c r="O51" s="79"/>
-      <c r="P51" s="79"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="38"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="79"/>
-      <c r="B52" s="79"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="79"/>
-      <c r="J52" s="79"/>
-      <c r="K52" s="79"/>
-      <c r="L52" s="79"/>
-      <c r="M52" s="79"/>
-      <c r="N52" s="79"/>
-      <c r="O52" s="79"/>
-      <c r="P52" s="79"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="79"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="79"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="79"/>
-      <c r="M53" s="79"/>
-      <c r="N53" s="79"/>
-      <c r="O53" s="79"/>
-      <c r="P53" s="79"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="79"/>
-      <c r="B54" s="79"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="79"/>
-      <c r="J54" s="79"/>
-      <c r="K54" s="79"/>
-      <c r="L54" s="79"/>
-      <c r="M54" s="79"/>
-      <c r="N54" s="79"/>
-      <c r="O54" s="79"/>
-      <c r="P54" s="79"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="38"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="79"/>
-      <c r="B55" s="79"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="79"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="79"/>
-      <c r="L55" s="79"/>
-      <c r="M55" s="79"/>
-      <c r="N55" s="79"/>
-      <c r="O55" s="79"/>
-      <c r="P55" s="79"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
+      <c r="P55" s="38"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="79"/>
-      <c r="B56" s="79"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="79"/>
-      <c r="J56" s="79"/>
-      <c r="K56" s="79"/>
-      <c r="L56" s="79"/>
-      <c r="M56" s="79"/>
-      <c r="N56" s="79"/>
-      <c r="O56" s="79"/>
-      <c r="P56" s="79"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="79"/>
-      <c r="B57" s="79"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="79"/>
-      <c r="J57" s="79"/>
-      <c r="K57" s="79"/>
-      <c r="L57" s="79"/>
-      <c r="M57" s="79"/>
-      <c r="N57" s="79"/>
-      <c r="O57" s="79"/>
-      <c r="P57" s="79"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="79"/>
-      <c r="B58" s="79"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79"/>
-      <c r="P58" s="79"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="79"/>
-      <c r="B59" s="79"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="79"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="79"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="79"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="79"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="79"/>
-      <c r="B60" s="79"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="79"/>
-      <c r="H60" s="79"/>
-      <c r="I60" s="79"/>
-      <c r="J60" s="79"/>
-      <c r="K60" s="79"/>
-      <c r="L60" s="79"/>
-      <c r="M60" s="79"/>
-      <c r="N60" s="79"/>
-      <c r="O60" s="79"/>
-      <c r="P60" s="79"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="79"/>
-      <c r="B61" s="79"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="79"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="79"/>
-      <c r="K61" s="79"/>
-      <c r="L61" s="79"/>
-      <c r="M61" s="79"/>
-      <c r="N61" s="79"/>
-      <c r="O61" s="79"/>
-      <c r="P61" s="79"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="40"/>
-      <c r="P64" s="40"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="40"/>
-      <c r="P65" s="40"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="40"/>
-      <c r="P66" s="40"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="40"/>
-      <c r="P68" s="40"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="40"/>
-      <c r="P69" s="40"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="40"/>
-      <c r="P70" s="40"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="40"/>
-      <c r="P71" s="40"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="40"/>
-      <c r="P72" s="40"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="40"/>
-      <c r="P73" s="40"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="40"/>
-      <c r="P74" s="40"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="40"/>
-      <c r="P75" s="40"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="34"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="40"/>
-      <c r="P77" s="40"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="40"/>
-      <c r="P78" s="40"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="40"/>
-      <c r="P79" s="40"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="40"/>
-      <c r="P80" s="40"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="34"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="40"/>
-      <c r="P81" s="40"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="40"/>
-      <c r="P82" s="40"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="34"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="40"/>
-      <c r="P83" s="40"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="34"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="40"/>
-      <c r="P84" s="40"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="40"/>
-      <c r="P85" s="40"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="34"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="40"/>
-      <c r="P86" s="40"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="34"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="40"/>
-      <c r="P87" s="40"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="34"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="40"/>
-      <c r="P88" s="40"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="40"/>
-      <c r="P89" s="40"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="34"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="40"/>
-      <c r="P90" s="40"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="34"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="40"/>
-      <c r="P91" s="40"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="34"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="40"/>
-      <c r="P92" s="40"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="34"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="40"/>
-      <c r="P93" s="40"/>
+      <c r="O93" s="34"/>
+      <c r="P93" s="34"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="40"/>
-      <c r="P94" s="40"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="34"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="40"/>
-      <c r="P95" s="40"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="34"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="40"/>
-      <c r="P96" s="40"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="34"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="40"/>
-      <c r="P97" s="40"/>
+      <c r="O97" s="34"/>
+      <c r="P97" s="34"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="40"/>
-      <c r="P98" s="40"/>
+      <c r="O98" s="34"/>
+      <c r="P98" s="34"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="40"/>
-      <c r="P99" s="40"/>
+      <c r="O99" s="34"/>
+      <c r="P99" s="34"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="40"/>
-      <c r="P100" s="40"/>
+      <c r="O100" s="34"/>
+      <c r="P100" s="34"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="40"/>
-      <c r="P101" s="40"/>
+      <c r="O101" s="34"/>
+      <c r="P101" s="34"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="40"/>
-      <c r="P102" s="40"/>
+      <c r="O102" s="34"/>
+      <c r="P102" s="34"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="40"/>
-      <c r="P103" s="40"/>
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="40"/>
-      <c r="P104" s="40"/>
+      <c r="O104" s="34"/>
+      <c r="P104" s="34"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="40"/>
-      <c r="P105" s="40"/>
+      <c r="O105" s="34"/>
+      <c r="P105" s="34"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="40"/>
-      <c r="P106" s="40"/>
+      <c r="O106" s="34"/>
+      <c r="P106" s="34"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="40"/>
-      <c r="P107" s="40"/>
+      <c r="O107" s="34"/>
+      <c r="P107" s="34"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="40"/>
-      <c r="P108" s="40"/>
+      <c r="O108" s="34"/>
+      <c r="P108" s="34"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="40"/>
-      <c r="P109" s="40"/>
+      <c r="O109" s="34"/>
+      <c r="P109" s="34"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="40"/>
-      <c r="P110" s="40"/>
+      <c r="O110" s="34"/>
+      <c r="P110" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -11484,8 +11718,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A22:E30"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:ABNB/explorer/revenue_proj" xr:uid="{46C82BEE-CE1C-1641-96C7-9956C3E3BB8B}"/>

--- a/Technology/Software/Airbnb.xlsx
+++ b/Technology/Software/Airbnb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FBA7A9-1083-8845-95C0-96B59A5B4E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726E97D4-1D7F-9849-9EFA-16EF964207D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1711,6 +1711,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1730,7 +1732,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1743,6 +1745,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1870,37 +1874,37 @@
     <v>Powered by Refinitiv</v>
     <v>154.94999999999999</v>
     <v>81.91</v>
-    <v>1.6220000000000001</v>
-    <v>8.68</v>
-    <v>6.8703E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.625</v>
+    <v>0.84</v>
+    <v>6.0070000000000002E-3</v>
+    <v>0.32</v>
+    <v>2.2750000000000001E-3</v>
     <v>USD</v>
-    <v>Airbnb, Inc. primarily operates a global platform for stays and experiences. The Company’s marketplace model connects hosts and guests online or through mobile devices to book spaces and experiences around the world. It partners with hosts throughout the process of setting up their listing and provide them with a range of tools to manage their listings, including scheduling, merchandising, integrated payments, community support, host protections, pricing guidance, and feedback from reviews. Its Website and mobile applications provide its guests a way to explore a variety of homes and experiences and an easy way to book them. Its hosts generally fall into two categories: individual and professional. Individual hosts list their spaces, including private rooms, primary homes, or vacation homes, on Airbnb. Professional hosts are often those who run property management or hospitality businesses and generally use application programming interfaces to list their properties on its platform.</v>
+    <v>Airbnb, Inc. primarily operates a global platform for stays and experiences. The Company’s marketplace model connects hosts and guests online or through mobile devices to book spaces and experiences around the world. It partners with hosts throughout the process of setting up their listing and provides them with a range of tools to manage their listings, including scheduling, merchandising, integrated payments, community support, host protection, pricing guidance and feedback from reviews. Its Website and mobile applications provide its guests with a way to explore a variety of homes and experiences and an easy way to book them. Its hosts fall into two categories: individual and professional. Individual hosts list their spaces, including private rooms, primary homes or vacation homes, on Airbnb. Professional hosts are those who run property management and generally use application programming interfaces to list their properties on its platform. Its subsidiary is GamePlanner.AI.</v>
     <v>6811</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>888 Brannan St., SAN FRANCISCO, CA, 94103 US</v>
-    <v>135.41999999999999</v>
+    <v>141.54</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45261.888899050784</v>
+    <v>45269.041345057813</v>
     <v>0</v>
-    <v>125.4</v>
-    <v>86419420000</v>
+    <v>137.80000000000001</v>
+    <v>90042107388</v>
     <v>AIRBNB, INC.</v>
     <v>AIRBNB, INC.</v>
-    <v>125.5</v>
-    <v>15.2875</v>
-    <v>126.34</v>
-    <v>135.02000000000001</v>
-    <v>135.02000000000001</v>
+    <v>138.19</v>
+    <v>16.920999999999999</v>
+    <v>139.84</v>
+    <v>140.68</v>
+    <v>141</v>
     <v>640049100</v>
     <v>ABNB</v>
     <v>AIRBNB, INC. (XNAS:ABNB)</v>
-    <v>7424812</v>
-    <v>5783192</v>
+    <v>4411181</v>
+    <v>5755592</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2065,9 +2069,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -9967,7 +9971,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>86419420000</v>
+        <v>90042107388</v>
       </c>
       <c r="B3" s="65" t="s">
         <v>194</v>
@@ -9995,7 +9999,7 @@
       </c>
       <c r="I3" s="69">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>86039027465.352539</v>
+        <v>84550182934.413727</v>
       </c>
       <c r="J3" s="70" t="s">
         <v>198</v>
@@ -10045,14 +10049,14 @@
       </c>
       <c r="I4" s="35">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>70895222558.974045</v>
+        <v>69592011128.533905</v>
       </c>
       <c r="J4" s="75" t="s">
         <v>204</v>
       </c>
       <c r="K4" s="77" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>6.8703E-2</v>
+        <v>6.0070000000000002E-3</v>
       </c>
       <c r="L4" s="78" t="s">
         <v>245</v>
@@ -10095,14 +10099,14 @@
       </c>
       <c r="I5" s="35">
         <f>I4+G5-G6</f>
-        <v>78911222558.974045</v>
+        <v>77608011128.533905</v>
       </c>
       <c r="J5" s="75" t="s">
         <v>211</v>
       </c>
       <c r="K5" s="80" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>135.02000000000001</v>
+        <v>140.68</v>
       </c>
       <c r="L5" s="81" t="s">
         <v>212</v>
@@ -10120,7 +10124,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="82">
         <f>O20/F10</f>
-        <v>8.7842467981297006</v>
+        <v>9.1524809298637937</v>
       </c>
       <c r="B6" s="74" t="s">
         <v>214</v>
@@ -10148,14 +10152,14 @@
       </c>
       <c r="I6" s="77">
         <f>N25</f>
-        <v>0.10164951818121969</v>
+        <v>0.10299923987291285</v>
       </c>
       <c r="J6" s="75" t="s">
         <v>217</v>
       </c>
       <c r="K6" s="83">
         <f>I5/G4</f>
-        <v>123.2073875724973</v>
+        <v>121.17262913646941</v>
       </c>
       <c r="L6" s="84" t="s">
         <v>218</v>
@@ -10173,14 +10177,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="85">
         <f>O20/F12</f>
-        <v>32.500722075968412</v>
+        <v>33.863146817600601</v>
       </c>
       <c r="B7" s="86" t="s">
         <v>220</v>
       </c>
       <c r="C7" s="87">
         <f>F15/A3</f>
-        <v>4.2328448860221461E-2</v>
+        <v>4.0625437432703908E-2</v>
       </c>
       <c r="D7" s="86" t="s">
         <v>221</v>
@@ -10207,7 +10211,7 @@
       </c>
       <c r="K7" s="93">
         <f>K6/K5-1</f>
-        <v>-8.7487871630148928E-2</v>
+        <v>-0.13866484833331383</v>
       </c>
       <c r="L7" s="94" t="s">
         <v>224</v>
@@ -10519,7 +10523,7 @@
       </c>
       <c r="O14" s="99">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="34"/>
     </row>
@@ -10564,7 +10568,7 @@
       </c>
       <c r="O15" s="100" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.6220000000000001</v>
+        <v>1.625</v>
       </c>
       <c r="P15" s="34"/>
     </row>
@@ -10665,7 +10669,7 @@
       </c>
       <c r="O17" s="102">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.10968238000000001</v>
+        <v>0.11074375</v>
       </c>
       <c r="P17" s="34"/>
     </row>
@@ -10743,7 +10747,7 @@
       </c>
       <c r="O20" s="103">
         <f>A3</f>
-        <v>86419420000</v>
+        <v>90042107388</v>
       </c>
       <c r="P20" s="34"/>
     </row>
@@ -10771,14 +10775,14 @@
       </c>
       <c r="O21" s="103">
         <f>O19+O20</f>
-        <v>88743420000</v>
+        <v>92366107388</v>
       </c>
       <c r="P21" s="34"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="117" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
-        <v>Airbnb, Inc. primarily operates a global platform for stays and experiences. The Company’s marketplace model connects hosts and guests online or through mobile devices to book spaces and experiences around the world. It partners with hosts throughout the process of setting up their listing and provide them with a range of tools to manage their listings, including scheduling, merchandising, integrated payments, community support, host protections, pricing guidance, and feedback from reviews. Its Website and mobile applications provide its guests a way to explore a variety of homes and experiences and an easy way to book them. Its hosts generally fall into two categories: individual and professional. Individual hosts list their spaces, including private rooms, primary homes, or vacation homes, on Airbnb. Professional hosts are often those who run property management or hospitality businesses and generally use application programming interfaces to list their properties on its platform.</v>
+        <v>Airbnb, Inc. primarily operates a global platform for stays and experiences. The Company’s marketplace model connects hosts and guests online or through mobile devices to book spaces and experiences around the world. It partners with hosts throughout the process of setting up their listing and provides them with a range of tools to manage their listings, including scheduling, merchandising, integrated payments, community support, host protection, pricing guidance and feedback from reviews. Its Website and mobile applications provide its guests with a way to explore a variety of homes and experiences and an easy way to book them. Its hosts fall into two categories: individual and professional. Individual hosts list their spaces, including private rooms, primary homes or vacation homes, on Airbnb. Professional hosts are those who run property management and generally use application programming interfaces to list their properties on its platform. Its subsidiary is GamePlanner.AI.</v>
       </c>
       <c r="B22" s="117"/>
       <c r="C22" s="117"/>
@@ -10797,7 +10801,7 @@
       </c>
       <c r="O22" s="104">
         <f>(O19/O21)</f>
-        <v>2.618785708281245E-2</v>
+        <v>2.5160744191997084E-2</v>
       </c>
       <c r="P22" s="34"/>
     </row>
@@ -10820,7 +10824,7 @@
       </c>
       <c r="O23" s="105">
         <f>O20/O21</f>
-        <v>0.97381214291718754</v>
+        <v>0.9748392558080029</v>
       </c>
       <c r="P23" s="34"/>
     </row>
@@ -10860,7 +10864,7 @@
       <c r="M25" s="38"/>
       <c r="N25" s="109">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.10164951818121969</v>
+        <v>0.10299923987291285</v>
       </c>
       <c r="O25" s="110"/>
       <c r="P25" s="34"/>
